--- a/test2/レイアウト.xlsx
+++ b/test2/レイアウト.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9919C0-B168-42D5-82B1-8864B9891187}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7084F89-7E6E-4B48-9742-F766977A27CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MainWindow" sheetId="3" r:id="rId1"/>
-    <sheet name="Window2" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Window2" sheetId="1" r:id="rId1"/>
+    <sheet name="MainWindow" sheetId="4" r:id="rId2"/>
+    <sheet name="BatchMenuView" sheetId="5" r:id="rId3"/>
     <sheet name="Window3" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>フィールド名</t>
     <rPh sb="5" eb="6">
@@ -86,17 +86,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ダミーレコードの複製</t>
-    <rPh sb="8" eb="10">
-      <t>フクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ＤＢ名</t>
     <rPh sb="2" eb="3">
       <t>メイ</t>
@@ -111,24 +100,54 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フィールド値</t>
-    <rPh sb="5" eb="6">
+    <t>対象テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツリービューで指定されたテーブル</t>
+    <rPh sb="7" eb="9">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件１</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hogehoge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>に</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値</t>
+    <rPh sb="0" eb="1">
       <t>アタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実行結果</t>
-    <rPh sb="0" eb="2">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
+    <t>fugafuga</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エラーメッセージ</t>
+    <t>を含むレコード</t>
+    <rPh sb="1" eb="2">
+      <t>フク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -136,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,13 +172,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
@@ -346,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -434,9 +446,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -454,36 +463,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -521,59 +500,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,72 +557,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>130966</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>119060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>130966</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>119060</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="フローチャート: 結合子 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F727A44C-5650-454E-9718-3F17F76911EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="607216" y="1071560"/>
-          <a:ext cx="238125" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1395,6 +1293,157 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>59530</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>59530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>59530</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>59529</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C8A0C4-4B01-4467-AD5E-5AAEB3AEFAA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2440780" y="4822030"/>
+          <a:ext cx="7024688" cy="1071562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ResultFrame</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>59530</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>59530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>59530</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>59529</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{933B7C2D-A259-4DBE-BEF4-6B98A11CE814}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2440780" y="59530"/>
+          <a:ext cx="7024688" cy="4643437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MainFrame</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1657,725 +1706,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62301940-9100-49FF-A1C7-D32782B6F0BD}">
-  <dimension ref="A1:AE21"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:Y20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="20" width="3.125" style="4"/>
-    <col min="21" max="21" width="3.125" style="4" customWidth="1"/>
-    <col min="22" max="16384" width="3.125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:31">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="3"/>
-    </row>
-    <row r="2" spans="1:31">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="7"/>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="7"/>
-    </row>
-    <row r="4" spans="1:31">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="7"/>
-    </row>
-    <row r="5" spans="1:31">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="7"/>
-    </row>
-    <row r="6" spans="1:31">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="58"/>
-      <c r="AB6" s="58"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="7"/>
-    </row>
-    <row r="7" spans="1:31">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="7"/>
-    </row>
-    <row r="8" spans="1:31">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="7"/>
-    </row>
-    <row r="9" spans="1:31">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="7"/>
-    </row>
-    <row r="10" spans="1:31">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="7"/>
-    </row>
-    <row r="11" spans="1:31">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="7"/>
-    </row>
-    <row r="12" spans="1:31">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="7"/>
-    </row>
-    <row r="13" spans="1:31">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="7"/>
-    </row>
-    <row r="14" spans="1:31">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="7"/>
-    </row>
-    <row r="15" spans="1:31">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="7"/>
-    </row>
-    <row r="16" spans="1:31">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="7"/>
-    </row>
-    <row r="17" spans="1:31">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="7"/>
-    </row>
-    <row r="18" spans="1:31">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="7"/>
-    </row>
-    <row r="19" spans="1:31">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA19" s="45"/>
-      <c r="AB19" s="45"/>
-      <c r="AC19" s="46"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="7"/>
-    </row>
-    <row r="20" spans="1:31">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="48"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="49"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="7"/>
-    </row>
-    <row r="21" spans="1:31">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="Z19:AC20"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="E5:AC6"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U21"/>
   <sheetViews>
@@ -2533,12 +1863,12 @@
     <row r="7" spans="1:21">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="60" t="s">
-        <v>13</v>
+      <c r="C7" s="49" t="s">
+        <v>11</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="62"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="19"/>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
@@ -2558,10 +1888,10 @@
     <row r="8" spans="1:21">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="65"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
       <c r="G8" s="26"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
@@ -2581,12 +1911,12 @@
     <row r="9" spans="1:21">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="60" t="s">
-        <v>12</v>
+      <c r="C9" s="49" t="s">
+        <v>10</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="62"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
       <c r="G9" s="19"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -2606,10 +1936,10 @@
     <row r="10" spans="1:21">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="65"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="26"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
@@ -2629,12 +1959,12 @@
     <row r="11" spans="1:21">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="62"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="51"/>
       <c r="G11" s="19"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
@@ -2654,10 +1984,10 @@
     <row r="12" spans="1:21">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="65"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="26"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
@@ -2742,11 +2072,11 @@
       <c r="G15" s="6"/>
       <c r="H15" s="13"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="66" t="s">
+      <c r="J15" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="67"/>
-      <c r="L15" s="68"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="57"/>
       <c r="M15" s="12"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
@@ -2767,9 +2097,9 @@
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="71"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="60"/>
       <c r="M16" s="15"/>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
@@ -2829,12 +2159,12 @@
     <row r="19" spans="1:21">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -2844,22 +2174,22 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="44" t="s">
+      <c r="P19" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="46"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="45"/>
       <c r="T19" s="6"/>
       <c r="U19" s="7"/>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -2869,10 +2199,10 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="49"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="48"/>
       <c r="T20" s="6"/>
       <c r="U20" s="7"/>
     </row>
@@ -2915,12 +2245,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1EE252-8977-4B3C-B010-A8745861A201}">
   <dimension ref="A1:CB50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BL38" sqref="BL38"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="DA54" sqref="DA54:DB54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="9.9499999999999993" customHeight="1"/>
@@ -3361,66 +2691,62 @@
       <c r="T6" s="39"/>
       <c r="U6" s="38"/>
       <c r="V6" s="38"/>
-      <c r="W6" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="X6" s="82"/>
-      <c r="Y6" s="82"/>
-      <c r="Z6" s="82"/>
-      <c r="AA6" s="82"/>
-      <c r="AB6" s="82"/>
-      <c r="AC6" s="82"/>
-      <c r="AD6" s="82"/>
-      <c r="AE6" s="82"/>
-      <c r="AF6" s="83"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
       <c r="AG6" s="38"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="35"/>
-      <c r="AJ6" s="35"/>
-      <c r="AK6" s="35"/>
-      <c r="AL6" s="35"/>
-      <c r="AM6" s="35"/>
-      <c r="AN6" s="35"/>
-      <c r="AO6" s="35"/>
-      <c r="AP6" s="35"/>
-      <c r="AQ6" s="35"/>
-      <c r="AR6" s="35"/>
-      <c r="AS6" s="35"/>
-      <c r="AT6" s="35"/>
-      <c r="AU6" s="35"/>
-      <c r="AV6" s="35"/>
-      <c r="AW6" s="35"/>
-      <c r="AX6" s="35"/>
-      <c r="AY6" s="35"/>
-      <c r="AZ6" s="35"/>
-      <c r="BA6" s="36"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="38"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="38"/>
+      <c r="AT6" s="38"/>
+      <c r="AU6" s="38"/>
+      <c r="AV6" s="38"/>
+      <c r="AW6" s="38"/>
+      <c r="AX6" s="38"/>
+      <c r="AY6" s="38"/>
+      <c r="AZ6" s="38"/>
+      <c r="BA6" s="38"/>
       <c r="BB6" s="38"/>
-      <c r="BC6" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="BD6" s="73"/>
-      <c r="BE6" s="73"/>
-      <c r="BF6" s="73"/>
-      <c r="BG6" s="73"/>
-      <c r="BH6" s="73"/>
-      <c r="BI6" s="73"/>
-      <c r="BJ6" s="73"/>
-      <c r="BK6" s="73"/>
-      <c r="BL6" s="73"/>
-      <c r="BM6" s="73"/>
-      <c r="BN6" s="73"/>
-      <c r="BO6" s="73"/>
-      <c r="BP6" s="73"/>
-      <c r="BQ6" s="73"/>
-      <c r="BR6" s="73"/>
-      <c r="BS6" s="73"/>
-      <c r="BT6" s="73"/>
-      <c r="BU6" s="73"/>
-      <c r="BV6" s="73"/>
-      <c r="BW6" s="73"/>
-      <c r="BX6" s="73"/>
-      <c r="BY6" s="73"/>
-      <c r="BZ6" s="74"/>
+      <c r="BC6" s="38"/>
+      <c r="BD6" s="38"/>
+      <c r="BE6" s="38"/>
+      <c r="BF6" s="38"/>
+      <c r="BG6" s="38"/>
+      <c r="BH6" s="38"/>
+      <c r="BI6" s="38"/>
+      <c r="BJ6" s="38"/>
+      <c r="BK6" s="38"/>
+      <c r="BL6" s="38"/>
+      <c r="BM6" s="38"/>
+      <c r="BN6" s="38"/>
+      <c r="BO6" s="38"/>
+      <c r="BP6" s="38"/>
+      <c r="BQ6" s="38"/>
+      <c r="BR6" s="38"/>
+      <c r="BS6" s="38"/>
+      <c r="BT6" s="38"/>
+      <c r="BU6" s="38"/>
+      <c r="BV6" s="38"/>
+      <c r="BW6" s="38"/>
+      <c r="BX6" s="38"/>
+      <c r="BY6" s="38"/>
+      <c r="BZ6" s="38"/>
       <c r="CA6" s="38"/>
       <c r="CB6" s="39"/>
     </row>
@@ -3447,18 +2773,18 @@
       <c r="T7" s="39"/>
       <c r="U7" s="38"/>
       <c r="V7" s="38"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="85"/>
-      <c r="Y7" s="85"/>
-      <c r="Z7" s="85"/>
-      <c r="AA7" s="85"/>
-      <c r="AB7" s="85"/>
-      <c r="AC7" s="85"/>
-      <c r="AD7" s="85"/>
-      <c r="AE7" s="85"/>
-      <c r="AF7" s="86"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
       <c r="AG7" s="38"/>
-      <c r="AH7" s="37"/>
+      <c r="AH7" s="38"/>
       <c r="AI7" s="38"/>
       <c r="AJ7" s="38"/>
       <c r="AK7" s="38"/>
@@ -3477,32 +2803,32 @@
       <c r="AX7" s="38"/>
       <c r="AY7" s="38"/>
       <c r="AZ7" s="38"/>
-      <c r="BA7" s="39"/>
+      <c r="BA7" s="38"/>
       <c r="BB7" s="38"/>
-      <c r="BC7" s="75"/>
-      <c r="BD7" s="76"/>
-      <c r="BE7" s="76"/>
-      <c r="BF7" s="76"/>
-      <c r="BG7" s="76"/>
-      <c r="BH7" s="76"/>
-      <c r="BI7" s="76"/>
-      <c r="BJ7" s="76"/>
-      <c r="BK7" s="76"/>
-      <c r="BL7" s="76"/>
-      <c r="BM7" s="76"/>
-      <c r="BN7" s="76"/>
-      <c r="BO7" s="76"/>
-      <c r="BP7" s="76"/>
-      <c r="BQ7" s="76"/>
-      <c r="BR7" s="76"/>
-      <c r="BS7" s="76"/>
-      <c r="BT7" s="76"/>
-      <c r="BU7" s="76"/>
-      <c r="BV7" s="76"/>
-      <c r="BW7" s="76"/>
-      <c r="BX7" s="76"/>
-      <c r="BY7" s="76"/>
-      <c r="BZ7" s="77"/>
+      <c r="BC7" s="38"/>
+      <c r="BD7" s="38"/>
+      <c r="BE7" s="38"/>
+      <c r="BF7" s="38"/>
+      <c r="BG7" s="38"/>
+      <c r="BH7" s="38"/>
+      <c r="BI7" s="38"/>
+      <c r="BJ7" s="38"/>
+      <c r="BK7" s="38"/>
+      <c r="BL7" s="38"/>
+      <c r="BM7" s="38"/>
+      <c r="BN7" s="38"/>
+      <c r="BO7" s="38"/>
+      <c r="BP7" s="38"/>
+      <c r="BQ7" s="38"/>
+      <c r="BR7" s="38"/>
+      <c r="BS7" s="38"/>
+      <c r="BT7" s="38"/>
+      <c r="BU7" s="38"/>
+      <c r="BV7" s="38"/>
+      <c r="BW7" s="38"/>
+      <c r="BX7" s="38"/>
+      <c r="BY7" s="38"/>
+      <c r="BZ7" s="38"/>
       <c r="CA7" s="38"/>
       <c r="CB7" s="39"/>
     </row>
@@ -3529,62 +2855,62 @@
       <c r="T8" s="39"/>
       <c r="U8" s="38"/>
       <c r="V8" s="38"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="88"/>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="88"/>
-      <c r="AA8" s="88"/>
-      <c r="AB8" s="88"/>
-      <c r="AC8" s="88"/>
-      <c r="AD8" s="88"/>
-      <c r="AE8" s="88"/>
-      <c r="AF8" s="89"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
       <c r="AG8" s="38"/>
-      <c r="AH8" s="40"/>
-      <c r="AI8" s="41"/>
-      <c r="AJ8" s="41"/>
-      <c r="AK8" s="41"/>
-      <c r="AL8" s="41"/>
-      <c r="AM8" s="41"/>
-      <c r="AN8" s="41"/>
-      <c r="AO8" s="41"/>
-      <c r="AP8" s="41"/>
-      <c r="AQ8" s="41"/>
-      <c r="AR8" s="41"/>
-      <c r="AS8" s="41"/>
-      <c r="AT8" s="41"/>
-      <c r="AU8" s="41"/>
-      <c r="AV8" s="41"/>
-      <c r="AW8" s="41"/>
-      <c r="AX8" s="41"/>
-      <c r="AY8" s="41"/>
-      <c r="AZ8" s="41"/>
-      <c r="BA8" s="42"/>
+      <c r="AH8" s="38"/>
+      <c r="AI8" s="38"/>
+      <c r="AJ8" s="38"/>
+      <c r="AK8" s="38"/>
+      <c r="AL8" s="38"/>
+      <c r="AM8" s="38"/>
+      <c r="AN8" s="38"/>
+      <c r="AO8" s="38"/>
+      <c r="AP8" s="38"/>
+      <c r="AQ8" s="38"/>
+      <c r="AR8" s="38"/>
+      <c r="AS8" s="38"/>
+      <c r="AT8" s="38"/>
+      <c r="AU8" s="38"/>
+      <c r="AV8" s="38"/>
+      <c r="AW8" s="38"/>
+      <c r="AX8" s="38"/>
+      <c r="AY8" s="38"/>
+      <c r="AZ8" s="38"/>
+      <c r="BA8" s="38"/>
       <c r="BB8" s="38"/>
-      <c r="BC8" s="78"/>
-      <c r="BD8" s="79"/>
-      <c r="BE8" s="79"/>
-      <c r="BF8" s="79"/>
-      <c r="BG8" s="79"/>
-      <c r="BH8" s="79"/>
-      <c r="BI8" s="79"/>
-      <c r="BJ8" s="79"/>
-      <c r="BK8" s="79"/>
-      <c r="BL8" s="79"/>
-      <c r="BM8" s="79"/>
-      <c r="BN8" s="79"/>
-      <c r="BO8" s="79"/>
-      <c r="BP8" s="79"/>
-      <c r="BQ8" s="79"/>
-      <c r="BR8" s="79"/>
-      <c r="BS8" s="79"/>
-      <c r="BT8" s="79"/>
-      <c r="BU8" s="79"/>
-      <c r="BV8" s="79"/>
-      <c r="BW8" s="79"/>
-      <c r="BX8" s="79"/>
-      <c r="BY8" s="79"/>
-      <c r="BZ8" s="80"/>
+      <c r="BC8" s="38"/>
+      <c r="BD8" s="38"/>
+      <c r="BE8" s="38"/>
+      <c r="BF8" s="38"/>
+      <c r="BG8" s="38"/>
+      <c r="BH8" s="38"/>
+      <c r="BI8" s="38"/>
+      <c r="BJ8" s="38"/>
+      <c r="BK8" s="38"/>
+      <c r="BL8" s="38"/>
+      <c r="BM8" s="38"/>
+      <c r="BN8" s="38"/>
+      <c r="BO8" s="38"/>
+      <c r="BP8" s="38"/>
+      <c r="BQ8" s="38"/>
+      <c r="BR8" s="38"/>
+      <c r="BS8" s="38"/>
+      <c r="BT8" s="38"/>
+      <c r="BU8" s="38"/>
+      <c r="BV8" s="38"/>
+      <c r="BW8" s="38"/>
+      <c r="BX8" s="38"/>
+      <c r="BY8" s="38"/>
+      <c r="BZ8" s="38"/>
       <c r="CA8" s="38"/>
       <c r="CB8" s="39"/>
     </row>
@@ -3693,66 +3019,62 @@
       <c r="T10" s="39"/>
       <c r="U10" s="38"/>
       <c r="V10" s="38"/>
-      <c r="W10" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="X10" s="82"/>
-      <c r="Y10" s="82"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="82"/>
-      <c r="AB10" s="82"/>
-      <c r="AC10" s="82"/>
-      <c r="AD10" s="82"/>
-      <c r="AE10" s="82"/>
-      <c r="AF10" s="83"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="38"/>
+      <c r="AE10" s="38"/>
+      <c r="AF10" s="38"/>
       <c r="AG10" s="38"/>
-      <c r="AH10" s="34"/>
-      <c r="AI10" s="35"/>
-      <c r="AJ10" s="35"/>
-      <c r="AK10" s="35"/>
-      <c r="AL10" s="35"/>
-      <c r="AM10" s="35"/>
-      <c r="AN10" s="35"/>
-      <c r="AO10" s="35"/>
-      <c r="AP10" s="35"/>
-      <c r="AQ10" s="35"/>
-      <c r="AR10" s="35"/>
-      <c r="AS10" s="35"/>
-      <c r="AT10" s="35"/>
-      <c r="AU10" s="35"/>
-      <c r="AV10" s="35"/>
-      <c r="AW10" s="35"/>
-      <c r="AX10" s="35"/>
-      <c r="AY10" s="35"/>
-      <c r="AZ10" s="35"/>
-      <c r="BA10" s="36"/>
+      <c r="AH10" s="38"/>
+      <c r="AI10" s="38"/>
+      <c r="AJ10" s="38"/>
+      <c r="AK10" s="38"/>
+      <c r="AL10" s="38"/>
+      <c r="AM10" s="38"/>
+      <c r="AN10" s="38"/>
+      <c r="AO10" s="38"/>
+      <c r="AP10" s="38"/>
+      <c r="AQ10" s="38"/>
+      <c r="AR10" s="38"/>
+      <c r="AS10" s="38"/>
+      <c r="AT10" s="38"/>
+      <c r="AU10" s="38"/>
+      <c r="AV10" s="38"/>
+      <c r="AW10" s="38"/>
+      <c r="AX10" s="38"/>
+      <c r="AY10" s="38"/>
+      <c r="AZ10" s="38"/>
+      <c r="BA10" s="38"/>
       <c r="BB10" s="38"/>
-      <c r="BC10" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="BD10" s="73"/>
-      <c r="BE10" s="73"/>
-      <c r="BF10" s="73"/>
-      <c r="BG10" s="73"/>
-      <c r="BH10" s="73"/>
-      <c r="BI10" s="73"/>
-      <c r="BJ10" s="73"/>
-      <c r="BK10" s="73"/>
-      <c r="BL10" s="73"/>
-      <c r="BM10" s="73"/>
-      <c r="BN10" s="73"/>
-      <c r="BO10" s="73"/>
-      <c r="BP10" s="73"/>
-      <c r="BQ10" s="73"/>
-      <c r="BR10" s="73"/>
-      <c r="BS10" s="73"/>
-      <c r="BT10" s="73"/>
-      <c r="BU10" s="73"/>
-      <c r="BV10" s="73"/>
-      <c r="BW10" s="73"/>
-      <c r="BX10" s="73"/>
-      <c r="BY10" s="73"/>
-      <c r="BZ10" s="74"/>
+      <c r="BC10" s="38"/>
+      <c r="BD10" s="38"/>
+      <c r="BE10" s="38"/>
+      <c r="BF10" s="38"/>
+      <c r="BG10" s="38"/>
+      <c r="BH10" s="38"/>
+      <c r="BI10" s="38"/>
+      <c r="BJ10" s="38"/>
+      <c r="BK10" s="38"/>
+      <c r="BL10" s="38"/>
+      <c r="BM10" s="38"/>
+      <c r="BN10" s="38"/>
+      <c r="BO10" s="38"/>
+      <c r="BP10" s="38"/>
+      <c r="BQ10" s="38"/>
+      <c r="BR10" s="38"/>
+      <c r="BS10" s="38"/>
+      <c r="BT10" s="38"/>
+      <c r="BU10" s="38"/>
+      <c r="BV10" s="38"/>
+      <c r="BW10" s="38"/>
+      <c r="BX10" s="38"/>
+      <c r="BY10" s="38"/>
+      <c r="BZ10" s="38"/>
       <c r="CA10" s="38"/>
       <c r="CB10" s="39"/>
     </row>
@@ -3779,18 +3101,18 @@
       <c r="T11" s="39"/>
       <c r="U11" s="38"/>
       <c r="V11" s="38"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="85"/>
-      <c r="Y11" s="85"/>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="85"/>
-      <c r="AC11" s="85"/>
-      <c r="AD11" s="85"/>
-      <c r="AE11" s="85"/>
-      <c r="AF11" s="86"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38"/>
       <c r="AG11" s="38"/>
-      <c r="AH11" s="37"/>
+      <c r="AH11" s="38"/>
       <c r="AI11" s="38"/>
       <c r="AJ11" s="38"/>
       <c r="AK11" s="38"/>
@@ -3809,32 +3131,32 @@
       <c r="AX11" s="38"/>
       <c r="AY11" s="38"/>
       <c r="AZ11" s="38"/>
-      <c r="BA11" s="39"/>
+      <c r="BA11" s="38"/>
       <c r="BB11" s="38"/>
-      <c r="BC11" s="75"/>
-      <c r="BD11" s="76"/>
-      <c r="BE11" s="76"/>
-      <c r="BF11" s="76"/>
-      <c r="BG11" s="76"/>
-      <c r="BH11" s="76"/>
-      <c r="BI11" s="76"/>
-      <c r="BJ11" s="76"/>
-      <c r="BK11" s="76"/>
-      <c r="BL11" s="76"/>
-      <c r="BM11" s="76"/>
-      <c r="BN11" s="76"/>
-      <c r="BO11" s="76"/>
-      <c r="BP11" s="76"/>
-      <c r="BQ11" s="76"/>
-      <c r="BR11" s="76"/>
-      <c r="BS11" s="76"/>
-      <c r="BT11" s="76"/>
-      <c r="BU11" s="76"/>
-      <c r="BV11" s="76"/>
-      <c r="BW11" s="76"/>
-      <c r="BX11" s="76"/>
-      <c r="BY11" s="76"/>
-      <c r="BZ11" s="77"/>
+      <c r="BC11" s="38"/>
+      <c r="BD11" s="38"/>
+      <c r="BE11" s="38"/>
+      <c r="BF11" s="38"/>
+      <c r="BG11" s="38"/>
+      <c r="BH11" s="38"/>
+      <c r="BI11" s="38"/>
+      <c r="BJ11" s="38"/>
+      <c r="BK11" s="38"/>
+      <c r="BL11" s="38"/>
+      <c r="BM11" s="38"/>
+      <c r="BN11" s="38"/>
+      <c r="BO11" s="38"/>
+      <c r="BP11" s="38"/>
+      <c r="BQ11" s="38"/>
+      <c r="BR11" s="38"/>
+      <c r="BS11" s="38"/>
+      <c r="BT11" s="38"/>
+      <c r="BU11" s="38"/>
+      <c r="BV11" s="38"/>
+      <c r="BW11" s="38"/>
+      <c r="BX11" s="38"/>
+      <c r="BY11" s="38"/>
+      <c r="BZ11" s="38"/>
       <c r="CA11" s="38"/>
       <c r="CB11" s="39"/>
     </row>
@@ -3861,62 +3183,62 @@
       <c r="T12" s="39"/>
       <c r="U12" s="38"/>
       <c r="V12" s="38"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="88"/>
-      <c r="Y12" s="88"/>
-      <c r="Z12" s="88"/>
-      <c r="AA12" s="88"/>
-      <c r="AB12" s="88"/>
-      <c r="AC12" s="88"/>
-      <c r="AD12" s="88"/>
-      <c r="AE12" s="88"/>
-      <c r="AF12" s="89"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
       <c r="AG12" s="38"/>
-      <c r="AH12" s="40"/>
-      <c r="AI12" s="41"/>
-      <c r="AJ12" s="41"/>
-      <c r="AK12" s="41"/>
-      <c r="AL12" s="41"/>
-      <c r="AM12" s="41"/>
-      <c r="AN12" s="41"/>
-      <c r="AO12" s="41"/>
-      <c r="AP12" s="41"/>
-      <c r="AQ12" s="41"/>
-      <c r="AR12" s="41"/>
-      <c r="AS12" s="41"/>
-      <c r="AT12" s="41"/>
-      <c r="AU12" s="41"/>
-      <c r="AV12" s="41"/>
-      <c r="AW12" s="41"/>
-      <c r="AX12" s="41"/>
-      <c r="AY12" s="41"/>
-      <c r="AZ12" s="41"/>
-      <c r="BA12" s="42"/>
+      <c r="AH12" s="38"/>
+      <c r="AI12" s="38"/>
+      <c r="AJ12" s="38"/>
+      <c r="AK12" s="38"/>
+      <c r="AL12" s="38"/>
+      <c r="AM12" s="38"/>
+      <c r="AN12" s="38"/>
+      <c r="AO12" s="38"/>
+      <c r="AP12" s="38"/>
+      <c r="AQ12" s="38"/>
+      <c r="AR12" s="38"/>
+      <c r="AS12" s="38"/>
+      <c r="AT12" s="38"/>
+      <c r="AU12" s="38"/>
+      <c r="AV12" s="38"/>
+      <c r="AW12" s="38"/>
+      <c r="AX12" s="38"/>
+      <c r="AY12" s="38"/>
+      <c r="AZ12" s="38"/>
+      <c r="BA12" s="38"/>
       <c r="BB12" s="38"/>
-      <c r="BC12" s="78"/>
-      <c r="BD12" s="79"/>
-      <c r="BE12" s="79"/>
-      <c r="BF12" s="79"/>
-      <c r="BG12" s="79"/>
-      <c r="BH12" s="79"/>
-      <c r="BI12" s="79"/>
-      <c r="BJ12" s="79"/>
-      <c r="BK12" s="79"/>
-      <c r="BL12" s="79"/>
-      <c r="BM12" s="79"/>
-      <c r="BN12" s="79"/>
-      <c r="BO12" s="79"/>
-      <c r="BP12" s="79"/>
-      <c r="BQ12" s="79"/>
-      <c r="BR12" s="79"/>
-      <c r="BS12" s="79"/>
-      <c r="BT12" s="79"/>
-      <c r="BU12" s="79"/>
-      <c r="BV12" s="79"/>
-      <c r="BW12" s="79"/>
-      <c r="BX12" s="79"/>
-      <c r="BY12" s="79"/>
-      <c r="BZ12" s="80"/>
+      <c r="BC12" s="38"/>
+      <c r="BD12" s="38"/>
+      <c r="BE12" s="38"/>
+      <c r="BF12" s="38"/>
+      <c r="BG12" s="38"/>
+      <c r="BH12" s="38"/>
+      <c r="BI12" s="38"/>
+      <c r="BJ12" s="38"/>
+      <c r="BK12" s="38"/>
+      <c r="BL12" s="38"/>
+      <c r="BM12" s="38"/>
+      <c r="BN12" s="38"/>
+      <c r="BO12" s="38"/>
+      <c r="BP12" s="38"/>
+      <c r="BQ12" s="38"/>
+      <c r="BR12" s="38"/>
+      <c r="BS12" s="38"/>
+      <c r="BT12" s="38"/>
+      <c r="BU12" s="38"/>
+      <c r="BV12" s="38"/>
+      <c r="BW12" s="38"/>
+      <c r="BX12" s="38"/>
+      <c r="BY12" s="38"/>
+      <c r="BZ12" s="38"/>
       <c r="CA12" s="38"/>
       <c r="CB12" s="39"/>
     </row>
@@ -3943,6 +3265,16 @@
       <c r="T13" s="39"/>
       <c r="U13" s="38"/>
       <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="38"/>
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="38"/>
       <c r="AG13" s="38"/>
       <c r="AH13" s="38"/>
       <c r="AI13" s="38"/>
@@ -4015,66 +3347,62 @@
       <c r="T14" s="39"/>
       <c r="U14" s="38"/>
       <c r="V14" s="38"/>
-      <c r="W14" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="X14" s="82"/>
-      <c r="Y14" s="82"/>
-      <c r="Z14" s="82"/>
-      <c r="AA14" s="82"/>
-      <c r="AB14" s="82"/>
-      <c r="AC14" s="82"/>
-      <c r="AD14" s="82"/>
-      <c r="AE14" s="82"/>
-      <c r="AF14" s="83"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
       <c r="AG14" s="38"/>
-      <c r="AH14" s="34"/>
-      <c r="AI14" s="35"/>
-      <c r="AJ14" s="35"/>
-      <c r="AK14" s="35"/>
-      <c r="AL14" s="35"/>
-      <c r="AM14" s="35"/>
-      <c r="AN14" s="35"/>
-      <c r="AO14" s="35"/>
-      <c r="AP14" s="35"/>
-      <c r="AQ14" s="35"/>
-      <c r="AR14" s="35"/>
-      <c r="AS14" s="35"/>
-      <c r="AT14" s="35"/>
-      <c r="AU14" s="35"/>
-      <c r="AV14" s="35"/>
-      <c r="AW14" s="35"/>
-      <c r="AX14" s="35"/>
-      <c r="AY14" s="35"/>
-      <c r="AZ14" s="35"/>
-      <c r="BA14" s="36"/>
+      <c r="AH14" s="38"/>
+      <c r="AI14" s="38"/>
+      <c r="AJ14" s="38"/>
+      <c r="AK14" s="38"/>
+      <c r="AL14" s="38"/>
+      <c r="AM14" s="38"/>
+      <c r="AN14" s="38"/>
+      <c r="AO14" s="38"/>
+      <c r="AP14" s="38"/>
+      <c r="AQ14" s="38"/>
+      <c r="AR14" s="38"/>
+      <c r="AS14" s="38"/>
+      <c r="AT14" s="38"/>
+      <c r="AU14" s="38"/>
+      <c r="AV14" s="38"/>
+      <c r="AW14" s="38"/>
+      <c r="AX14" s="38"/>
+      <c r="AY14" s="38"/>
+      <c r="AZ14" s="38"/>
+      <c r="BA14" s="38"/>
       <c r="BB14" s="38"/>
-      <c r="BC14" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="BD14" s="73"/>
-      <c r="BE14" s="73"/>
-      <c r="BF14" s="73"/>
-      <c r="BG14" s="73"/>
-      <c r="BH14" s="73"/>
-      <c r="BI14" s="73"/>
-      <c r="BJ14" s="73"/>
-      <c r="BK14" s="73"/>
-      <c r="BL14" s="73"/>
-      <c r="BM14" s="73"/>
-      <c r="BN14" s="73"/>
-      <c r="BO14" s="73"/>
-      <c r="BP14" s="73"/>
-      <c r="BQ14" s="73"/>
-      <c r="BR14" s="73"/>
-      <c r="BS14" s="73"/>
-      <c r="BT14" s="73"/>
-      <c r="BU14" s="73"/>
-      <c r="BV14" s="73"/>
-      <c r="BW14" s="73"/>
-      <c r="BX14" s="73"/>
-      <c r="BY14" s="73"/>
-      <c r="BZ14" s="74"/>
+      <c r="BC14" s="38"/>
+      <c r="BD14" s="38"/>
+      <c r="BE14" s="38"/>
+      <c r="BF14" s="38"/>
+      <c r="BG14" s="38"/>
+      <c r="BH14" s="38"/>
+      <c r="BI14" s="38"/>
+      <c r="BJ14" s="38"/>
+      <c r="BK14" s="38"/>
+      <c r="BL14" s="38"/>
+      <c r="BM14" s="38"/>
+      <c r="BN14" s="38"/>
+      <c r="BO14" s="38"/>
+      <c r="BP14" s="38"/>
+      <c r="BQ14" s="38"/>
+      <c r="BR14" s="38"/>
+      <c r="BS14" s="38"/>
+      <c r="BT14" s="38"/>
+      <c r="BU14" s="38"/>
+      <c r="BV14" s="38"/>
+      <c r="BW14" s="38"/>
+      <c r="BX14" s="38"/>
+      <c r="BY14" s="38"/>
+      <c r="BZ14" s="38"/>
       <c r="CA14" s="38"/>
       <c r="CB14" s="39"/>
     </row>
@@ -4101,18 +3429,18 @@
       <c r="T15" s="39"/>
       <c r="U15" s="38"/>
       <c r="V15" s="38"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="85"/>
-      <c r="Y15" s="85"/>
-      <c r="Z15" s="85"/>
-      <c r="AA15" s="85"/>
-      <c r="AB15" s="85"/>
-      <c r="AC15" s="85"/>
-      <c r="AD15" s="85"/>
-      <c r="AE15" s="85"/>
-      <c r="AF15" s="86"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
       <c r="AG15" s="38"/>
-      <c r="AH15" s="37"/>
+      <c r="AH15" s="38"/>
       <c r="AI15" s="38"/>
       <c r="AJ15" s="38"/>
       <c r="AK15" s="38"/>
@@ -4131,32 +3459,32 @@
       <c r="AX15" s="38"/>
       <c r="AY15" s="38"/>
       <c r="AZ15" s="38"/>
-      <c r="BA15" s="39"/>
+      <c r="BA15" s="38"/>
       <c r="BB15" s="38"/>
-      <c r="BC15" s="75"/>
-      <c r="BD15" s="76"/>
-      <c r="BE15" s="76"/>
-      <c r="BF15" s="76"/>
-      <c r="BG15" s="76"/>
-      <c r="BH15" s="76"/>
-      <c r="BI15" s="76"/>
-      <c r="BJ15" s="76"/>
-      <c r="BK15" s="76"/>
-      <c r="BL15" s="76"/>
-      <c r="BM15" s="76"/>
-      <c r="BN15" s="76"/>
-      <c r="BO15" s="76"/>
-      <c r="BP15" s="76"/>
-      <c r="BQ15" s="76"/>
-      <c r="BR15" s="76"/>
-      <c r="BS15" s="76"/>
-      <c r="BT15" s="76"/>
-      <c r="BU15" s="76"/>
-      <c r="BV15" s="76"/>
-      <c r="BW15" s="76"/>
-      <c r="BX15" s="76"/>
-      <c r="BY15" s="76"/>
-      <c r="BZ15" s="77"/>
+      <c r="BC15" s="38"/>
+      <c r="BD15" s="38"/>
+      <c r="BE15" s="38"/>
+      <c r="BF15" s="38"/>
+      <c r="BG15" s="38"/>
+      <c r="BH15" s="38"/>
+      <c r="BI15" s="38"/>
+      <c r="BJ15" s="38"/>
+      <c r="BK15" s="38"/>
+      <c r="BL15" s="38"/>
+      <c r="BM15" s="38"/>
+      <c r="BN15" s="38"/>
+      <c r="BO15" s="38"/>
+      <c r="BP15" s="38"/>
+      <c r="BQ15" s="38"/>
+      <c r="BR15" s="38"/>
+      <c r="BS15" s="38"/>
+      <c r="BT15" s="38"/>
+      <c r="BU15" s="38"/>
+      <c r="BV15" s="38"/>
+      <c r="BW15" s="38"/>
+      <c r="BX15" s="38"/>
+      <c r="BY15" s="38"/>
+      <c r="BZ15" s="38"/>
       <c r="CA15" s="38"/>
       <c r="CB15" s="39"/>
     </row>
@@ -4183,62 +3511,62 @@
       <c r="T16" s="39"/>
       <c r="U16" s="38"/>
       <c r="V16" s="38"/>
-      <c r="W16" s="87"/>
-      <c r="X16" s="88"/>
-      <c r="Y16" s="88"/>
-      <c r="Z16" s="88"/>
-      <c r="AA16" s="88"/>
-      <c r="AB16" s="88"/>
-      <c r="AC16" s="88"/>
-      <c r="AD16" s="88"/>
-      <c r="AE16" s="88"/>
-      <c r="AF16" s="89"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38"/>
       <c r="AG16" s="38"/>
-      <c r="AH16" s="40"/>
-      <c r="AI16" s="41"/>
-      <c r="AJ16" s="41"/>
-      <c r="AK16" s="41"/>
-      <c r="AL16" s="41"/>
-      <c r="AM16" s="41"/>
-      <c r="AN16" s="41"/>
-      <c r="AO16" s="41"/>
-      <c r="AP16" s="41"/>
-      <c r="AQ16" s="41"/>
-      <c r="AR16" s="41"/>
-      <c r="AS16" s="41"/>
-      <c r="AT16" s="41"/>
-      <c r="AU16" s="41"/>
-      <c r="AV16" s="41"/>
-      <c r="AW16" s="41"/>
-      <c r="AX16" s="41"/>
-      <c r="AY16" s="41"/>
-      <c r="AZ16" s="41"/>
-      <c r="BA16" s="42"/>
+      <c r="AH16" s="38"/>
+      <c r="AI16" s="38"/>
+      <c r="AJ16" s="38"/>
+      <c r="AK16" s="38"/>
+      <c r="AL16" s="38"/>
+      <c r="AM16" s="38"/>
+      <c r="AN16" s="38"/>
+      <c r="AO16" s="38"/>
+      <c r="AP16" s="38"/>
+      <c r="AQ16" s="38"/>
+      <c r="AR16" s="38"/>
+      <c r="AS16" s="38"/>
+      <c r="AT16" s="38"/>
+      <c r="AU16" s="38"/>
+      <c r="AV16" s="38"/>
+      <c r="AW16" s="38"/>
+      <c r="AX16" s="38"/>
+      <c r="AY16" s="38"/>
+      <c r="AZ16" s="38"/>
+      <c r="BA16" s="38"/>
       <c r="BB16" s="38"/>
-      <c r="BC16" s="78"/>
-      <c r="BD16" s="79"/>
-      <c r="BE16" s="79"/>
-      <c r="BF16" s="79"/>
-      <c r="BG16" s="79"/>
-      <c r="BH16" s="79"/>
-      <c r="BI16" s="79"/>
-      <c r="BJ16" s="79"/>
-      <c r="BK16" s="79"/>
-      <c r="BL16" s="79"/>
-      <c r="BM16" s="79"/>
-      <c r="BN16" s="79"/>
-      <c r="BO16" s="79"/>
-      <c r="BP16" s="79"/>
-      <c r="BQ16" s="79"/>
-      <c r="BR16" s="79"/>
-      <c r="BS16" s="79"/>
-      <c r="BT16" s="79"/>
-      <c r="BU16" s="79"/>
-      <c r="BV16" s="79"/>
-      <c r="BW16" s="79"/>
-      <c r="BX16" s="79"/>
-      <c r="BY16" s="79"/>
-      <c r="BZ16" s="80"/>
+      <c r="BC16" s="38"/>
+      <c r="BD16" s="38"/>
+      <c r="BE16" s="38"/>
+      <c r="BF16" s="38"/>
+      <c r="BG16" s="38"/>
+      <c r="BH16" s="38"/>
+      <c r="BI16" s="38"/>
+      <c r="BJ16" s="38"/>
+      <c r="BK16" s="38"/>
+      <c r="BL16" s="38"/>
+      <c r="BM16" s="38"/>
+      <c r="BN16" s="38"/>
+      <c r="BO16" s="38"/>
+      <c r="BP16" s="38"/>
+      <c r="BQ16" s="38"/>
+      <c r="BR16" s="38"/>
+      <c r="BS16" s="38"/>
+      <c r="BT16" s="38"/>
+      <c r="BU16" s="38"/>
+      <c r="BV16" s="38"/>
+      <c r="BW16" s="38"/>
+      <c r="BX16" s="38"/>
+      <c r="BY16" s="38"/>
+      <c r="BZ16" s="38"/>
       <c r="CA16" s="38"/>
       <c r="CB16" s="39"/>
     </row>
@@ -4265,37 +3593,37 @@
       <c r="T17" s="39"/>
       <c r="U17" s="38"/>
       <c r="V17" s="38"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="43"/>
-      <c r="AA17" s="43"/>
-      <c r="AB17" s="43"/>
-      <c r="AC17" s="43"/>
-      <c r="AD17" s="43"/>
-      <c r="AE17" s="43"/>
-      <c r="AF17" s="43"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
       <c r="AG17" s="38"/>
-      <c r="AH17" s="41"/>
-      <c r="AI17" s="41"/>
-      <c r="AJ17" s="41"/>
-      <c r="AK17" s="41"/>
-      <c r="AL17" s="41"/>
-      <c r="AM17" s="41"/>
-      <c r="AN17" s="41"/>
-      <c r="AO17" s="41"/>
-      <c r="AP17" s="41"/>
-      <c r="AQ17" s="41"/>
-      <c r="AR17" s="41"/>
-      <c r="AS17" s="41"/>
-      <c r="AT17" s="41"/>
-      <c r="AU17" s="41"/>
-      <c r="AV17" s="41"/>
-      <c r="AW17" s="41"/>
-      <c r="AX17" s="41"/>
-      <c r="AY17" s="41"/>
-      <c r="AZ17" s="41"/>
-      <c r="BA17" s="41"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="38"/>
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="38"/>
+      <c r="AL17" s="38"/>
+      <c r="AM17" s="38"/>
+      <c r="AN17" s="38"/>
+      <c r="AO17" s="38"/>
+      <c r="AP17" s="38"/>
+      <c r="AQ17" s="38"/>
+      <c r="AR17" s="38"/>
+      <c r="AS17" s="38"/>
+      <c r="AT17" s="38"/>
+      <c r="AU17" s="38"/>
+      <c r="AV17" s="38"/>
+      <c r="AW17" s="38"/>
+      <c r="AX17" s="38"/>
+      <c r="AY17" s="38"/>
+      <c r="AZ17" s="38"/>
+      <c r="BA17" s="38"/>
       <c r="BB17" s="38"/>
       <c r="BC17" s="38"/>
       <c r="BD17" s="38"/>
@@ -4347,66 +3675,62 @@
       <c r="T18" s="39"/>
       <c r="U18" s="38"/>
       <c r="V18" s="38"/>
-      <c r="W18" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="X18" s="82"/>
-      <c r="Y18" s="82"/>
-      <c r="Z18" s="82"/>
-      <c r="AA18" s="82"/>
-      <c r="AB18" s="82"/>
-      <c r="AC18" s="82"/>
-      <c r="AD18" s="82"/>
-      <c r="AE18" s="82"/>
-      <c r="AF18" s="83"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
       <c r="AG18" s="38"/>
-      <c r="AH18" s="34"/>
-      <c r="AI18" s="35"/>
-      <c r="AJ18" s="35"/>
-      <c r="AK18" s="35"/>
-      <c r="AL18" s="35"/>
-      <c r="AM18" s="35"/>
-      <c r="AN18" s="35"/>
-      <c r="AO18" s="35"/>
-      <c r="AP18" s="35"/>
-      <c r="AQ18" s="35"/>
-      <c r="AR18" s="35"/>
-      <c r="AS18" s="35"/>
-      <c r="AT18" s="35"/>
-      <c r="AU18" s="35"/>
-      <c r="AV18" s="35"/>
-      <c r="AW18" s="35"/>
-      <c r="AX18" s="35"/>
-      <c r="AY18" s="35"/>
-      <c r="AZ18" s="35"/>
-      <c r="BA18" s="36"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
+      <c r="AJ18" s="38"/>
+      <c r="AK18" s="38"/>
+      <c r="AL18" s="38"/>
+      <c r="AM18" s="38"/>
+      <c r="AN18" s="38"/>
+      <c r="AO18" s="38"/>
+      <c r="AP18" s="38"/>
+      <c r="AQ18" s="38"/>
+      <c r="AR18" s="38"/>
+      <c r="AS18" s="38"/>
+      <c r="AT18" s="38"/>
+      <c r="AU18" s="38"/>
+      <c r="AV18" s="38"/>
+      <c r="AW18" s="38"/>
+      <c r="AX18" s="38"/>
+      <c r="AY18" s="38"/>
+      <c r="AZ18" s="38"/>
+      <c r="BA18" s="38"/>
       <c r="BB18" s="38"/>
-      <c r="BC18" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="BD18" s="73"/>
-      <c r="BE18" s="73"/>
-      <c r="BF18" s="73"/>
-      <c r="BG18" s="73"/>
-      <c r="BH18" s="73"/>
-      <c r="BI18" s="73"/>
-      <c r="BJ18" s="73"/>
-      <c r="BK18" s="73"/>
-      <c r="BL18" s="73"/>
-      <c r="BM18" s="73"/>
-      <c r="BN18" s="73"/>
-      <c r="BO18" s="73"/>
-      <c r="BP18" s="73"/>
-      <c r="BQ18" s="73"/>
-      <c r="BR18" s="73"/>
-      <c r="BS18" s="73"/>
-      <c r="BT18" s="73"/>
-      <c r="BU18" s="73"/>
-      <c r="BV18" s="73"/>
-      <c r="BW18" s="73"/>
-      <c r="BX18" s="73"/>
-      <c r="BY18" s="73"/>
-      <c r="BZ18" s="74"/>
+      <c r="BC18" s="38"/>
+      <c r="BD18" s="38"/>
+      <c r="BE18" s="38"/>
+      <c r="BF18" s="38"/>
+      <c r="BG18" s="38"/>
+      <c r="BH18" s="38"/>
+      <c r="BI18" s="38"/>
+      <c r="BJ18" s="38"/>
+      <c r="BK18" s="38"/>
+      <c r="BL18" s="38"/>
+      <c r="BM18" s="38"/>
+      <c r="BN18" s="38"/>
+      <c r="BO18" s="38"/>
+      <c r="BP18" s="38"/>
+      <c r="BQ18" s="38"/>
+      <c r="BR18" s="38"/>
+      <c r="BS18" s="38"/>
+      <c r="BT18" s="38"/>
+      <c r="BU18" s="38"/>
+      <c r="BV18" s="38"/>
+      <c r="BW18" s="38"/>
+      <c r="BX18" s="38"/>
+      <c r="BY18" s="38"/>
+      <c r="BZ18" s="38"/>
       <c r="CA18" s="38"/>
       <c r="CB18" s="39"/>
     </row>
@@ -4433,18 +3757,18 @@
       <c r="T19" s="39"/>
       <c r="U19" s="38"/>
       <c r="V19" s="38"/>
-      <c r="W19" s="84"/>
-      <c r="X19" s="85"/>
-      <c r="Y19" s="85"/>
-      <c r="Z19" s="85"/>
-      <c r="AA19" s="85"/>
-      <c r="AB19" s="85"/>
-      <c r="AC19" s="85"/>
-      <c r="AD19" s="85"/>
-      <c r="AE19" s="85"/>
-      <c r="AF19" s="86"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
       <c r="AG19" s="38"/>
-      <c r="AH19" s="37"/>
+      <c r="AH19" s="38"/>
       <c r="AI19" s="38"/>
       <c r="AJ19" s="38"/>
       <c r="AK19" s="38"/>
@@ -4463,32 +3787,32 @@
       <c r="AX19" s="38"/>
       <c r="AY19" s="38"/>
       <c r="AZ19" s="38"/>
-      <c r="BA19" s="39"/>
+      <c r="BA19" s="38"/>
       <c r="BB19" s="38"/>
-      <c r="BC19" s="75"/>
-      <c r="BD19" s="76"/>
-      <c r="BE19" s="76"/>
-      <c r="BF19" s="76"/>
-      <c r="BG19" s="76"/>
-      <c r="BH19" s="76"/>
-      <c r="BI19" s="76"/>
-      <c r="BJ19" s="76"/>
-      <c r="BK19" s="76"/>
-      <c r="BL19" s="76"/>
-      <c r="BM19" s="76"/>
-      <c r="BN19" s="76"/>
-      <c r="BO19" s="76"/>
-      <c r="BP19" s="76"/>
-      <c r="BQ19" s="76"/>
-      <c r="BR19" s="76"/>
-      <c r="BS19" s="76"/>
-      <c r="BT19" s="76"/>
-      <c r="BU19" s="76"/>
-      <c r="BV19" s="76"/>
-      <c r="BW19" s="76"/>
-      <c r="BX19" s="76"/>
-      <c r="BY19" s="76"/>
-      <c r="BZ19" s="77"/>
+      <c r="BC19" s="38"/>
+      <c r="BD19" s="38"/>
+      <c r="BE19" s="38"/>
+      <c r="BF19" s="38"/>
+      <c r="BG19" s="38"/>
+      <c r="BH19" s="38"/>
+      <c r="BI19" s="38"/>
+      <c r="BJ19" s="38"/>
+      <c r="BK19" s="38"/>
+      <c r="BL19" s="38"/>
+      <c r="BM19" s="38"/>
+      <c r="BN19" s="38"/>
+      <c r="BO19" s="38"/>
+      <c r="BP19" s="38"/>
+      <c r="BQ19" s="38"/>
+      <c r="BR19" s="38"/>
+      <c r="BS19" s="38"/>
+      <c r="BT19" s="38"/>
+      <c r="BU19" s="38"/>
+      <c r="BV19" s="38"/>
+      <c r="BW19" s="38"/>
+      <c r="BX19" s="38"/>
+      <c r="BY19" s="38"/>
+      <c r="BZ19" s="38"/>
       <c r="CA19" s="38"/>
       <c r="CB19" s="39"/>
     </row>
@@ -4515,62 +3839,62 @@
       <c r="T20" s="39"/>
       <c r="U20" s="38"/>
       <c r="V20" s="38"/>
-      <c r="W20" s="87"/>
-      <c r="X20" s="88"/>
-      <c r="Y20" s="88"/>
-      <c r="Z20" s="88"/>
-      <c r="AA20" s="88"/>
-      <c r="AB20" s="88"/>
-      <c r="AC20" s="88"/>
-      <c r="AD20" s="88"/>
-      <c r="AE20" s="88"/>
-      <c r="AF20" s="89"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
+      <c r="AE20" s="38"/>
+      <c r="AF20" s="38"/>
       <c r="AG20" s="38"/>
-      <c r="AH20" s="40"/>
-      <c r="AI20" s="41"/>
-      <c r="AJ20" s="41"/>
-      <c r="AK20" s="41"/>
-      <c r="AL20" s="41"/>
-      <c r="AM20" s="41"/>
-      <c r="AN20" s="41"/>
-      <c r="AO20" s="41"/>
-      <c r="AP20" s="41"/>
-      <c r="AQ20" s="41"/>
-      <c r="AR20" s="41"/>
-      <c r="AS20" s="41"/>
-      <c r="AT20" s="41"/>
-      <c r="AU20" s="41"/>
-      <c r="AV20" s="41"/>
-      <c r="AW20" s="41"/>
-      <c r="AX20" s="41"/>
-      <c r="AY20" s="41"/>
-      <c r="AZ20" s="41"/>
-      <c r="BA20" s="42"/>
+      <c r="AH20" s="38"/>
+      <c r="AI20" s="38"/>
+      <c r="AJ20" s="38"/>
+      <c r="AK20" s="38"/>
+      <c r="AL20" s="38"/>
+      <c r="AM20" s="38"/>
+      <c r="AN20" s="38"/>
+      <c r="AO20" s="38"/>
+      <c r="AP20" s="38"/>
+      <c r="AQ20" s="38"/>
+      <c r="AR20" s="38"/>
+      <c r="AS20" s="38"/>
+      <c r="AT20" s="38"/>
+      <c r="AU20" s="38"/>
+      <c r="AV20" s="38"/>
+      <c r="AW20" s="38"/>
+      <c r="AX20" s="38"/>
+      <c r="AY20" s="38"/>
+      <c r="AZ20" s="38"/>
+      <c r="BA20" s="38"/>
       <c r="BB20" s="38"/>
-      <c r="BC20" s="78"/>
-      <c r="BD20" s="79"/>
-      <c r="BE20" s="79"/>
-      <c r="BF20" s="79"/>
-      <c r="BG20" s="79"/>
-      <c r="BH20" s="79"/>
-      <c r="BI20" s="79"/>
-      <c r="BJ20" s="79"/>
-      <c r="BK20" s="79"/>
-      <c r="BL20" s="79"/>
-      <c r="BM20" s="79"/>
-      <c r="BN20" s="79"/>
-      <c r="BO20" s="79"/>
-      <c r="BP20" s="79"/>
-      <c r="BQ20" s="79"/>
-      <c r="BR20" s="79"/>
-      <c r="BS20" s="79"/>
-      <c r="BT20" s="79"/>
-      <c r="BU20" s="79"/>
-      <c r="BV20" s="79"/>
-      <c r="BW20" s="79"/>
-      <c r="BX20" s="79"/>
-      <c r="BY20" s="79"/>
-      <c r="BZ20" s="80"/>
+      <c r="BC20" s="38"/>
+      <c r="BD20" s="38"/>
+      <c r="BE20" s="38"/>
+      <c r="BF20" s="38"/>
+      <c r="BG20" s="38"/>
+      <c r="BH20" s="38"/>
+      <c r="BI20" s="38"/>
+      <c r="BJ20" s="38"/>
+      <c r="BK20" s="38"/>
+      <c r="BL20" s="38"/>
+      <c r="BM20" s="38"/>
+      <c r="BN20" s="38"/>
+      <c r="BO20" s="38"/>
+      <c r="BP20" s="38"/>
+      <c r="BQ20" s="38"/>
+      <c r="BR20" s="38"/>
+      <c r="BS20" s="38"/>
+      <c r="BT20" s="38"/>
+      <c r="BU20" s="38"/>
+      <c r="BV20" s="38"/>
+      <c r="BW20" s="38"/>
+      <c r="BX20" s="38"/>
+      <c r="BY20" s="38"/>
+      <c r="BZ20" s="38"/>
       <c r="CA20" s="38"/>
       <c r="CB20" s="39"/>
     </row>
@@ -4679,66 +4003,62 @@
       <c r="T22" s="39"/>
       <c r="U22" s="38"/>
       <c r="V22" s="38"/>
-      <c r="W22" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="X22" s="82"/>
-      <c r="Y22" s="82"/>
-      <c r="Z22" s="82"/>
-      <c r="AA22" s="82"/>
-      <c r="AB22" s="82"/>
-      <c r="AC22" s="82"/>
-      <c r="AD22" s="82"/>
-      <c r="AE22" s="82"/>
-      <c r="AF22" s="83"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="38"/>
+      <c r="AE22" s="38"/>
+      <c r="AF22" s="38"/>
       <c r="AG22" s="38"/>
-      <c r="AH22" s="34"/>
-      <c r="AI22" s="35"/>
-      <c r="AJ22" s="35"/>
-      <c r="AK22" s="35"/>
-      <c r="AL22" s="35"/>
-      <c r="AM22" s="35"/>
-      <c r="AN22" s="35"/>
-      <c r="AO22" s="35"/>
-      <c r="AP22" s="35"/>
-      <c r="AQ22" s="35"/>
-      <c r="AR22" s="35"/>
-      <c r="AS22" s="35"/>
-      <c r="AT22" s="35"/>
-      <c r="AU22" s="35"/>
-      <c r="AV22" s="35"/>
-      <c r="AW22" s="35"/>
-      <c r="AX22" s="35"/>
-      <c r="AY22" s="35"/>
-      <c r="AZ22" s="35"/>
-      <c r="BA22" s="36"/>
+      <c r="AH22" s="38"/>
+      <c r="AI22" s="38"/>
+      <c r="AJ22" s="38"/>
+      <c r="AK22" s="38"/>
+      <c r="AL22" s="38"/>
+      <c r="AM22" s="38"/>
+      <c r="AN22" s="38"/>
+      <c r="AO22" s="38"/>
+      <c r="AP22" s="38"/>
+      <c r="AQ22" s="38"/>
+      <c r="AR22" s="38"/>
+      <c r="AS22" s="38"/>
+      <c r="AT22" s="38"/>
+      <c r="AU22" s="38"/>
+      <c r="AV22" s="38"/>
+      <c r="AW22" s="38"/>
+      <c r="AX22" s="38"/>
+      <c r="AY22" s="38"/>
+      <c r="AZ22" s="38"/>
+      <c r="BA22" s="38"/>
       <c r="BB22" s="38"/>
-      <c r="BC22" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="BD22" s="73"/>
-      <c r="BE22" s="73"/>
-      <c r="BF22" s="73"/>
-      <c r="BG22" s="73"/>
-      <c r="BH22" s="73"/>
-      <c r="BI22" s="73"/>
-      <c r="BJ22" s="73"/>
-      <c r="BK22" s="73"/>
-      <c r="BL22" s="73"/>
-      <c r="BM22" s="73"/>
-      <c r="BN22" s="73"/>
-      <c r="BO22" s="73"/>
-      <c r="BP22" s="73"/>
-      <c r="BQ22" s="73"/>
-      <c r="BR22" s="73"/>
-      <c r="BS22" s="73"/>
-      <c r="BT22" s="73"/>
-      <c r="BU22" s="73"/>
-      <c r="BV22" s="73"/>
-      <c r="BW22" s="73"/>
-      <c r="BX22" s="73"/>
-      <c r="BY22" s="73"/>
-      <c r="BZ22" s="74"/>
+      <c r="BC22" s="38"/>
+      <c r="BD22" s="38"/>
+      <c r="BE22" s="38"/>
+      <c r="BF22" s="38"/>
+      <c r="BG22" s="38"/>
+      <c r="BH22" s="38"/>
+      <c r="BI22" s="38"/>
+      <c r="BJ22" s="38"/>
+      <c r="BK22" s="38"/>
+      <c r="BL22" s="38"/>
+      <c r="BM22" s="38"/>
+      <c r="BN22" s="38"/>
+      <c r="BO22" s="38"/>
+      <c r="BP22" s="38"/>
+      <c r="BQ22" s="38"/>
+      <c r="BR22" s="38"/>
+      <c r="BS22" s="38"/>
+      <c r="BT22" s="38"/>
+      <c r="BU22" s="38"/>
+      <c r="BV22" s="38"/>
+      <c r="BW22" s="38"/>
+      <c r="BX22" s="38"/>
+      <c r="BY22" s="38"/>
+      <c r="BZ22" s="38"/>
       <c r="CA22" s="38"/>
       <c r="CB22" s="39"/>
     </row>
@@ -4765,18 +4085,18 @@
       <c r="T23" s="39"/>
       <c r="U23" s="38"/>
       <c r="V23" s="38"/>
-      <c r="W23" s="84"/>
-      <c r="X23" s="85"/>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="85"/>
-      <c r="AA23" s="85"/>
-      <c r="AB23" s="85"/>
-      <c r="AC23" s="85"/>
-      <c r="AD23" s="85"/>
-      <c r="AE23" s="85"/>
-      <c r="AF23" s="86"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="38"/>
+      <c r="AE23" s="38"/>
+      <c r="AF23" s="38"/>
       <c r="AG23" s="38"/>
-      <c r="AH23" s="37"/>
+      <c r="AH23" s="38"/>
       <c r="AI23" s="38"/>
       <c r="AJ23" s="38"/>
       <c r="AK23" s="38"/>
@@ -4795,32 +4115,32 @@
       <c r="AX23" s="38"/>
       <c r="AY23" s="38"/>
       <c r="AZ23" s="38"/>
-      <c r="BA23" s="39"/>
+      <c r="BA23" s="38"/>
       <c r="BB23" s="38"/>
-      <c r="BC23" s="75"/>
-      <c r="BD23" s="76"/>
-      <c r="BE23" s="76"/>
-      <c r="BF23" s="76"/>
-      <c r="BG23" s="76"/>
-      <c r="BH23" s="76"/>
-      <c r="BI23" s="76"/>
-      <c r="BJ23" s="76"/>
-      <c r="BK23" s="76"/>
-      <c r="BL23" s="76"/>
-      <c r="BM23" s="76"/>
-      <c r="BN23" s="76"/>
-      <c r="BO23" s="76"/>
-      <c r="BP23" s="76"/>
-      <c r="BQ23" s="76"/>
-      <c r="BR23" s="76"/>
-      <c r="BS23" s="76"/>
-      <c r="BT23" s="76"/>
-      <c r="BU23" s="76"/>
-      <c r="BV23" s="76"/>
-      <c r="BW23" s="76"/>
-      <c r="BX23" s="76"/>
-      <c r="BY23" s="76"/>
-      <c r="BZ23" s="77"/>
+      <c r="BC23" s="38"/>
+      <c r="BD23" s="38"/>
+      <c r="BE23" s="38"/>
+      <c r="BF23" s="38"/>
+      <c r="BG23" s="38"/>
+      <c r="BH23" s="38"/>
+      <c r="BI23" s="38"/>
+      <c r="BJ23" s="38"/>
+      <c r="BK23" s="38"/>
+      <c r="BL23" s="38"/>
+      <c r="BM23" s="38"/>
+      <c r="BN23" s="38"/>
+      <c r="BO23" s="38"/>
+      <c r="BP23" s="38"/>
+      <c r="BQ23" s="38"/>
+      <c r="BR23" s="38"/>
+      <c r="BS23" s="38"/>
+      <c r="BT23" s="38"/>
+      <c r="BU23" s="38"/>
+      <c r="BV23" s="38"/>
+      <c r="BW23" s="38"/>
+      <c r="BX23" s="38"/>
+      <c r="BY23" s="38"/>
+      <c r="BZ23" s="38"/>
       <c r="CA23" s="38"/>
       <c r="CB23" s="39"/>
     </row>
@@ -4847,62 +4167,62 @@
       <c r="T24" s="39"/>
       <c r="U24" s="38"/>
       <c r="V24" s="38"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="88"/>
-      <c r="Y24" s="88"/>
-      <c r="Z24" s="88"/>
-      <c r="AA24" s="88"/>
-      <c r="AB24" s="88"/>
-      <c r="AC24" s="88"/>
-      <c r="AD24" s="88"/>
-      <c r="AE24" s="88"/>
-      <c r="AF24" s="89"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="38"/>
       <c r="AG24" s="38"/>
-      <c r="AH24" s="40"/>
-      <c r="AI24" s="41"/>
-      <c r="AJ24" s="41"/>
-      <c r="AK24" s="41"/>
-      <c r="AL24" s="41"/>
-      <c r="AM24" s="41"/>
-      <c r="AN24" s="41"/>
-      <c r="AO24" s="41"/>
-      <c r="AP24" s="41"/>
-      <c r="AQ24" s="41"/>
-      <c r="AR24" s="41"/>
-      <c r="AS24" s="41"/>
-      <c r="AT24" s="41"/>
-      <c r="AU24" s="41"/>
-      <c r="AV24" s="41"/>
-      <c r="AW24" s="41"/>
-      <c r="AX24" s="41"/>
-      <c r="AY24" s="41"/>
-      <c r="AZ24" s="41"/>
-      <c r="BA24" s="42"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="38"/>
+      <c r="AK24" s="38"/>
+      <c r="AL24" s="38"/>
+      <c r="AM24" s="38"/>
+      <c r="AN24" s="38"/>
+      <c r="AO24" s="38"/>
+      <c r="AP24" s="38"/>
+      <c r="AQ24" s="38"/>
+      <c r="AR24" s="38"/>
+      <c r="AS24" s="38"/>
+      <c r="AT24" s="38"/>
+      <c r="AU24" s="38"/>
+      <c r="AV24" s="38"/>
+      <c r="AW24" s="38"/>
+      <c r="AX24" s="38"/>
+      <c r="AY24" s="38"/>
+      <c r="AZ24" s="38"/>
+      <c r="BA24" s="38"/>
       <c r="BB24" s="38"/>
-      <c r="BC24" s="78"/>
-      <c r="BD24" s="79"/>
-      <c r="BE24" s="79"/>
-      <c r="BF24" s="79"/>
-      <c r="BG24" s="79"/>
-      <c r="BH24" s="79"/>
-      <c r="BI24" s="79"/>
-      <c r="BJ24" s="79"/>
-      <c r="BK24" s="79"/>
-      <c r="BL24" s="79"/>
-      <c r="BM24" s="79"/>
-      <c r="BN24" s="79"/>
-      <c r="BO24" s="79"/>
-      <c r="BP24" s="79"/>
-      <c r="BQ24" s="79"/>
-      <c r="BR24" s="79"/>
-      <c r="BS24" s="79"/>
-      <c r="BT24" s="79"/>
-      <c r="BU24" s="79"/>
-      <c r="BV24" s="79"/>
-      <c r="BW24" s="79"/>
-      <c r="BX24" s="79"/>
-      <c r="BY24" s="79"/>
-      <c r="BZ24" s="80"/>
+      <c r="BC24" s="38"/>
+      <c r="BD24" s="38"/>
+      <c r="BE24" s="38"/>
+      <c r="BF24" s="38"/>
+      <c r="BG24" s="38"/>
+      <c r="BH24" s="38"/>
+      <c r="BI24" s="38"/>
+      <c r="BJ24" s="38"/>
+      <c r="BK24" s="38"/>
+      <c r="BL24" s="38"/>
+      <c r="BM24" s="38"/>
+      <c r="BN24" s="38"/>
+      <c r="BO24" s="38"/>
+      <c r="BP24" s="38"/>
+      <c r="BQ24" s="38"/>
+      <c r="BR24" s="38"/>
+      <c r="BS24" s="38"/>
+      <c r="BT24" s="38"/>
+      <c r="BU24" s="38"/>
+      <c r="BV24" s="38"/>
+      <c r="BW24" s="38"/>
+      <c r="BX24" s="38"/>
+      <c r="BY24" s="38"/>
+      <c r="BZ24" s="38"/>
       <c r="CA24" s="38"/>
       <c r="CB24" s="39"/>
     </row>
@@ -5011,66 +4331,62 @@
       <c r="T26" s="39"/>
       <c r="U26" s="38"/>
       <c r="V26" s="38"/>
-      <c r="W26" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="X26" s="82"/>
-      <c r="Y26" s="82"/>
-      <c r="Z26" s="82"/>
-      <c r="AA26" s="82"/>
-      <c r="AB26" s="82"/>
-      <c r="AC26" s="82"/>
-      <c r="AD26" s="82"/>
-      <c r="AE26" s="82"/>
-      <c r="AF26" s="83"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="38"/>
+      <c r="AE26" s="38"/>
+      <c r="AF26" s="38"/>
       <c r="AG26" s="38"/>
-      <c r="AH26" s="34"/>
-      <c r="AI26" s="35"/>
-      <c r="AJ26" s="35"/>
-      <c r="AK26" s="35"/>
-      <c r="AL26" s="35"/>
-      <c r="AM26" s="35"/>
-      <c r="AN26" s="35"/>
-      <c r="AO26" s="35"/>
-      <c r="AP26" s="35"/>
-      <c r="AQ26" s="35"/>
-      <c r="AR26" s="35"/>
-      <c r="AS26" s="35"/>
-      <c r="AT26" s="35"/>
-      <c r="AU26" s="35"/>
-      <c r="AV26" s="35"/>
-      <c r="AW26" s="35"/>
-      <c r="AX26" s="35"/>
-      <c r="AY26" s="35"/>
-      <c r="AZ26" s="35"/>
-      <c r="BA26" s="36"/>
+      <c r="AH26" s="38"/>
+      <c r="AI26" s="38"/>
+      <c r="AJ26" s="38"/>
+      <c r="AK26" s="38"/>
+      <c r="AL26" s="38"/>
+      <c r="AM26" s="38"/>
+      <c r="AN26" s="38"/>
+      <c r="AO26" s="38"/>
+      <c r="AP26" s="38"/>
+      <c r="AQ26" s="38"/>
+      <c r="AR26" s="38"/>
+      <c r="AS26" s="38"/>
+      <c r="AT26" s="38"/>
+      <c r="AU26" s="38"/>
+      <c r="AV26" s="38"/>
+      <c r="AW26" s="38"/>
+      <c r="AX26" s="38"/>
+      <c r="AY26" s="38"/>
+      <c r="AZ26" s="38"/>
+      <c r="BA26" s="38"/>
       <c r="BB26" s="38"/>
-      <c r="BC26" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="BD26" s="73"/>
-      <c r="BE26" s="73"/>
-      <c r="BF26" s="73"/>
-      <c r="BG26" s="73"/>
-      <c r="BH26" s="73"/>
-      <c r="BI26" s="73"/>
-      <c r="BJ26" s="73"/>
-      <c r="BK26" s="73"/>
-      <c r="BL26" s="73"/>
-      <c r="BM26" s="73"/>
-      <c r="BN26" s="73"/>
-      <c r="BO26" s="73"/>
-      <c r="BP26" s="73"/>
-      <c r="BQ26" s="73"/>
-      <c r="BR26" s="73"/>
-      <c r="BS26" s="73"/>
-      <c r="BT26" s="73"/>
-      <c r="BU26" s="73"/>
-      <c r="BV26" s="73"/>
-      <c r="BW26" s="73"/>
-      <c r="BX26" s="73"/>
-      <c r="BY26" s="73"/>
-      <c r="BZ26" s="74"/>
+      <c r="BC26" s="38"/>
+      <c r="BD26" s="38"/>
+      <c r="BE26" s="38"/>
+      <c r="BF26" s="38"/>
+      <c r="BG26" s="38"/>
+      <c r="BH26" s="38"/>
+      <c r="BI26" s="38"/>
+      <c r="BJ26" s="38"/>
+      <c r="BK26" s="38"/>
+      <c r="BL26" s="38"/>
+      <c r="BM26" s="38"/>
+      <c r="BN26" s="38"/>
+      <c r="BO26" s="38"/>
+      <c r="BP26" s="38"/>
+      <c r="BQ26" s="38"/>
+      <c r="BR26" s="38"/>
+      <c r="BS26" s="38"/>
+      <c r="BT26" s="38"/>
+      <c r="BU26" s="38"/>
+      <c r="BV26" s="38"/>
+      <c r="BW26" s="38"/>
+      <c r="BX26" s="38"/>
+      <c r="BY26" s="38"/>
+      <c r="BZ26" s="38"/>
       <c r="CA26" s="38"/>
       <c r="CB26" s="39"/>
     </row>
@@ -5097,18 +4413,18 @@
       <c r="T27" s="39"/>
       <c r="U27" s="38"/>
       <c r="V27" s="38"/>
-      <c r="W27" s="84"/>
-      <c r="X27" s="85"/>
-      <c r="Y27" s="85"/>
-      <c r="Z27" s="85"/>
-      <c r="AA27" s="85"/>
-      <c r="AB27" s="85"/>
-      <c r="AC27" s="85"/>
-      <c r="AD27" s="85"/>
-      <c r="AE27" s="85"/>
-      <c r="AF27" s="86"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="38"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="38"/>
+      <c r="AE27" s="38"/>
+      <c r="AF27" s="38"/>
       <c r="AG27" s="38"/>
-      <c r="AH27" s="37"/>
+      <c r="AH27" s="38"/>
       <c r="AI27" s="38"/>
       <c r="AJ27" s="38"/>
       <c r="AK27" s="38"/>
@@ -5127,32 +4443,32 @@
       <c r="AX27" s="38"/>
       <c r="AY27" s="38"/>
       <c r="AZ27" s="38"/>
-      <c r="BA27" s="39"/>
+      <c r="BA27" s="38"/>
       <c r="BB27" s="38"/>
-      <c r="BC27" s="75"/>
-      <c r="BD27" s="76"/>
-      <c r="BE27" s="76"/>
-      <c r="BF27" s="76"/>
-      <c r="BG27" s="76"/>
-      <c r="BH27" s="76"/>
-      <c r="BI27" s="76"/>
-      <c r="BJ27" s="76"/>
-      <c r="BK27" s="76"/>
-      <c r="BL27" s="76"/>
-      <c r="BM27" s="76"/>
-      <c r="BN27" s="76"/>
-      <c r="BO27" s="76"/>
-      <c r="BP27" s="76"/>
-      <c r="BQ27" s="76"/>
-      <c r="BR27" s="76"/>
-      <c r="BS27" s="76"/>
-      <c r="BT27" s="76"/>
-      <c r="BU27" s="76"/>
-      <c r="BV27" s="76"/>
-      <c r="BW27" s="76"/>
-      <c r="BX27" s="76"/>
-      <c r="BY27" s="76"/>
-      <c r="BZ27" s="77"/>
+      <c r="BC27" s="38"/>
+      <c r="BD27" s="38"/>
+      <c r="BE27" s="38"/>
+      <c r="BF27" s="38"/>
+      <c r="BG27" s="38"/>
+      <c r="BH27" s="38"/>
+      <c r="BI27" s="38"/>
+      <c r="BJ27" s="38"/>
+      <c r="BK27" s="38"/>
+      <c r="BL27" s="38"/>
+      <c r="BM27" s="38"/>
+      <c r="BN27" s="38"/>
+      <c r="BO27" s="38"/>
+      <c r="BP27" s="38"/>
+      <c r="BQ27" s="38"/>
+      <c r="BR27" s="38"/>
+      <c r="BS27" s="38"/>
+      <c r="BT27" s="38"/>
+      <c r="BU27" s="38"/>
+      <c r="BV27" s="38"/>
+      <c r="BW27" s="38"/>
+      <c r="BX27" s="38"/>
+      <c r="BY27" s="38"/>
+      <c r="BZ27" s="38"/>
       <c r="CA27" s="38"/>
       <c r="CB27" s="39"/>
     </row>
@@ -5179,62 +4495,62 @@
       <c r="T28" s="39"/>
       <c r="U28" s="38"/>
       <c r="V28" s="38"/>
-      <c r="W28" s="87"/>
-      <c r="X28" s="88"/>
-      <c r="Y28" s="88"/>
-      <c r="Z28" s="88"/>
-      <c r="AA28" s="88"/>
-      <c r="AB28" s="88"/>
-      <c r="AC28" s="88"/>
-      <c r="AD28" s="88"/>
-      <c r="AE28" s="88"/>
-      <c r="AF28" s="89"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="38"/>
+      <c r="AC28" s="38"/>
+      <c r="AD28" s="38"/>
+      <c r="AE28" s="38"/>
+      <c r="AF28" s="38"/>
       <c r="AG28" s="38"/>
-      <c r="AH28" s="40"/>
-      <c r="AI28" s="41"/>
-      <c r="AJ28" s="41"/>
-      <c r="AK28" s="41"/>
-      <c r="AL28" s="41"/>
-      <c r="AM28" s="41"/>
-      <c r="AN28" s="41"/>
-      <c r="AO28" s="41"/>
-      <c r="AP28" s="41"/>
-      <c r="AQ28" s="41"/>
-      <c r="AR28" s="41"/>
-      <c r="AS28" s="41"/>
-      <c r="AT28" s="41"/>
-      <c r="AU28" s="41"/>
-      <c r="AV28" s="41"/>
-      <c r="AW28" s="41"/>
-      <c r="AX28" s="41"/>
-      <c r="AY28" s="41"/>
-      <c r="AZ28" s="41"/>
-      <c r="BA28" s="42"/>
+      <c r="AH28" s="38"/>
+      <c r="AI28" s="38"/>
+      <c r="AJ28" s="38"/>
+      <c r="AK28" s="38"/>
+      <c r="AL28" s="38"/>
+      <c r="AM28" s="38"/>
+      <c r="AN28" s="38"/>
+      <c r="AO28" s="38"/>
+      <c r="AP28" s="38"/>
+      <c r="AQ28" s="38"/>
+      <c r="AR28" s="38"/>
+      <c r="AS28" s="38"/>
+      <c r="AT28" s="38"/>
+      <c r="AU28" s="38"/>
+      <c r="AV28" s="38"/>
+      <c r="AW28" s="38"/>
+      <c r="AX28" s="38"/>
+      <c r="AY28" s="38"/>
+      <c r="AZ28" s="38"/>
+      <c r="BA28" s="38"/>
       <c r="BB28" s="38"/>
-      <c r="BC28" s="78"/>
-      <c r="BD28" s="79"/>
-      <c r="BE28" s="79"/>
-      <c r="BF28" s="79"/>
-      <c r="BG28" s="79"/>
-      <c r="BH28" s="79"/>
-      <c r="BI28" s="79"/>
-      <c r="BJ28" s="79"/>
-      <c r="BK28" s="79"/>
-      <c r="BL28" s="79"/>
-      <c r="BM28" s="79"/>
-      <c r="BN28" s="79"/>
-      <c r="BO28" s="79"/>
-      <c r="BP28" s="79"/>
-      <c r="BQ28" s="79"/>
-      <c r="BR28" s="79"/>
-      <c r="BS28" s="79"/>
-      <c r="BT28" s="79"/>
-      <c r="BU28" s="79"/>
-      <c r="BV28" s="79"/>
-      <c r="BW28" s="79"/>
-      <c r="BX28" s="79"/>
-      <c r="BY28" s="79"/>
-      <c r="BZ28" s="80"/>
+      <c r="BC28" s="38"/>
+      <c r="BD28" s="38"/>
+      <c r="BE28" s="38"/>
+      <c r="BF28" s="38"/>
+      <c r="BG28" s="38"/>
+      <c r="BH28" s="38"/>
+      <c r="BI28" s="38"/>
+      <c r="BJ28" s="38"/>
+      <c r="BK28" s="38"/>
+      <c r="BL28" s="38"/>
+      <c r="BM28" s="38"/>
+      <c r="BN28" s="38"/>
+      <c r="BO28" s="38"/>
+      <c r="BP28" s="38"/>
+      <c r="BQ28" s="38"/>
+      <c r="BR28" s="38"/>
+      <c r="BS28" s="38"/>
+      <c r="BT28" s="38"/>
+      <c r="BU28" s="38"/>
+      <c r="BV28" s="38"/>
+      <c r="BW28" s="38"/>
+      <c r="BX28" s="38"/>
+      <c r="BY28" s="38"/>
+      <c r="BZ28" s="38"/>
       <c r="CA28" s="38"/>
       <c r="CB28" s="39"/>
     </row>
@@ -6161,9 +5477,7 @@
       <c r="R40" s="38"/>
       <c r="S40" s="38"/>
       <c r="T40" s="39"/>
-      <c r="U40" s="38" t="s">
-        <v>15</v>
-      </c>
+      <c r="U40" s="38"/>
       <c r="V40" s="38"/>
       <c r="W40" s="38"/>
       <c r="X40" s="38"/>
@@ -7045,19 +6359,3543 @@
       <c r="CB50" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="BC26:BZ28"/>
-    <mergeCell ref="BC6:BZ8"/>
-    <mergeCell ref="BC10:BZ12"/>
-    <mergeCell ref="BC14:BZ16"/>
-    <mergeCell ref="BC18:BZ20"/>
-    <mergeCell ref="BC22:BZ24"/>
-    <mergeCell ref="W26:AF28"/>
-    <mergeCell ref="W22:AF24"/>
-    <mergeCell ref="W18:AF20"/>
-    <mergeCell ref="W14:AF16"/>
-    <mergeCell ref="W10:AF12"/>
-    <mergeCell ref="W6:AF8"/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3E7DCE-2AE7-4B77-9D5A-4CDC761170F1}">
+  <dimension ref="A1:CB45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AO9" sqref="AO9:AQ11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="9.9499999999999993" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="1.625" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="35"/>
+      <c r="BD1" s="35"/>
+      <c r="BE1" s="35"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="35"/>
+      <c r="BH1" s="35"/>
+      <c r="BI1" s="35"/>
+      <c r="BJ1" s="35"/>
+      <c r="BK1" s="35"/>
+      <c r="BL1" s="35"/>
+      <c r="BM1" s="35"/>
+      <c r="BN1" s="35"/>
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="35"/>
+      <c r="BQ1" s="35"/>
+      <c r="BR1" s="35"/>
+      <c r="BS1" s="35"/>
+      <c r="BT1" s="35"/>
+      <c r="BU1" s="35"/>
+      <c r="BV1" s="35"/>
+      <c r="BW1" s="35"/>
+      <c r="BX1" s="35"/>
+      <c r="BY1" s="35"/>
+      <c r="BZ1" s="35"/>
+      <c r="CA1" s="35"/>
+      <c r="CB1" s="36"/>
+    </row>
+    <row r="2" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="38"/>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="38"/>
+      <c r="BC2" s="38"/>
+      <c r="BD2" s="38"/>
+      <c r="BE2" s="38"/>
+      <c r="BF2" s="38"/>
+      <c r="BG2" s="38"/>
+      <c r="BH2" s="38"/>
+      <c r="BI2" s="38"/>
+      <c r="BJ2" s="38"/>
+      <c r="BK2" s="38"/>
+      <c r="BL2" s="38"/>
+      <c r="BM2" s="38"/>
+      <c r="BN2" s="38"/>
+      <c r="BO2" s="38"/>
+      <c r="BP2" s="38"/>
+      <c r="BQ2" s="38"/>
+      <c r="BR2" s="38"/>
+      <c r="BS2" s="38"/>
+      <c r="BT2" s="38"/>
+      <c r="BU2" s="38"/>
+      <c r="BV2" s="38"/>
+      <c r="BW2" s="38"/>
+      <c r="BX2" s="38"/>
+      <c r="BY2" s="38"/>
+      <c r="BZ2" s="38"/>
+      <c r="CA2" s="38"/>
+      <c r="CB2" s="39"/>
+    </row>
+    <row r="3" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="65"/>
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="65"/>
+      <c r="AT3" s="65"/>
+      <c r="AU3" s="65"/>
+      <c r="AV3" s="65"/>
+      <c r="AW3" s="65"/>
+      <c r="AX3" s="65"/>
+      <c r="AY3" s="65"/>
+      <c r="AZ3" s="65"/>
+      <c r="BA3" s="65"/>
+      <c r="BB3" s="65"/>
+      <c r="BC3" s="65"/>
+      <c r="BD3" s="65"/>
+      <c r="BE3" s="65"/>
+      <c r="BF3" s="65"/>
+      <c r="BG3" s="65"/>
+      <c r="BH3" s="65"/>
+      <c r="BI3" s="65"/>
+      <c r="BJ3" s="65"/>
+      <c r="BK3" s="65"/>
+      <c r="BL3" s="65"/>
+      <c r="BM3" s="65"/>
+      <c r="BN3" s="65"/>
+      <c r="BO3" s="65"/>
+      <c r="BP3" s="65"/>
+      <c r="BQ3" s="65"/>
+      <c r="BR3" s="65"/>
+      <c r="BS3" s="65"/>
+      <c r="BT3" s="65"/>
+      <c r="BU3" s="65"/>
+      <c r="BV3" s="65"/>
+      <c r="BW3" s="65"/>
+      <c r="BX3" s="65"/>
+      <c r="BY3" s="65"/>
+      <c r="BZ3" s="66"/>
+      <c r="CA3" s="38"/>
+      <c r="CB3" s="39"/>
+    </row>
+    <row r="4" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="63"/>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="63"/>
+      <c r="AN4" s="63"/>
+      <c r="AO4" s="63"/>
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="63"/>
+      <c r="AR4" s="63"/>
+      <c r="AS4" s="63"/>
+      <c r="AT4" s="63"/>
+      <c r="AU4" s="63"/>
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="63"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="63"/>
+      <c r="AZ4" s="63"/>
+      <c r="BA4" s="63"/>
+      <c r="BB4" s="63"/>
+      <c r="BC4" s="63"/>
+      <c r="BD4" s="63"/>
+      <c r="BE4" s="63"/>
+      <c r="BF4" s="63"/>
+      <c r="BG4" s="63"/>
+      <c r="BH4" s="63"/>
+      <c r="BI4" s="63"/>
+      <c r="BJ4" s="63"/>
+      <c r="BK4" s="63"/>
+      <c r="BL4" s="63"/>
+      <c r="BM4" s="63"/>
+      <c r="BN4" s="63"/>
+      <c r="BO4" s="63"/>
+      <c r="BP4" s="63"/>
+      <c r="BQ4" s="63"/>
+      <c r="BR4" s="63"/>
+      <c r="BS4" s="63"/>
+      <c r="BT4" s="63"/>
+      <c r="BU4" s="63"/>
+      <c r="BV4" s="63"/>
+      <c r="BW4" s="63"/>
+      <c r="BX4" s="63"/>
+      <c r="BY4" s="63"/>
+      <c r="BZ4" s="68"/>
+      <c r="CA4" s="38"/>
+      <c r="CB4" s="39"/>
+    </row>
+    <row r="5" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="69"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="70"/>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="70"/>
+      <c r="AD5" s="70"/>
+      <c r="AE5" s="70"/>
+      <c r="AF5" s="70"/>
+      <c r="AG5" s="70"/>
+      <c r="AH5" s="70"/>
+      <c r="AI5" s="70"/>
+      <c r="AJ5" s="70"/>
+      <c r="AK5" s="70"/>
+      <c r="AL5" s="70"/>
+      <c r="AM5" s="70"/>
+      <c r="AN5" s="70"/>
+      <c r="AO5" s="70"/>
+      <c r="AP5" s="70"/>
+      <c r="AQ5" s="70"/>
+      <c r="AR5" s="70"/>
+      <c r="AS5" s="70"/>
+      <c r="AT5" s="70"/>
+      <c r="AU5" s="70"/>
+      <c r="AV5" s="70"/>
+      <c r="AW5" s="70"/>
+      <c r="AX5" s="70"/>
+      <c r="AY5" s="70"/>
+      <c r="AZ5" s="70"/>
+      <c r="BA5" s="70"/>
+      <c r="BB5" s="70"/>
+      <c r="BC5" s="70"/>
+      <c r="BD5" s="70"/>
+      <c r="BE5" s="70"/>
+      <c r="BF5" s="70"/>
+      <c r="BG5" s="70"/>
+      <c r="BH5" s="70"/>
+      <c r="BI5" s="70"/>
+      <c r="BJ5" s="70"/>
+      <c r="BK5" s="70"/>
+      <c r="BL5" s="70"/>
+      <c r="BM5" s="70"/>
+      <c r="BN5" s="70"/>
+      <c r="BO5" s="70"/>
+      <c r="BP5" s="70"/>
+      <c r="BQ5" s="70"/>
+      <c r="BR5" s="70"/>
+      <c r="BS5" s="70"/>
+      <c r="BT5" s="70"/>
+      <c r="BU5" s="70"/>
+      <c r="BV5" s="70"/>
+      <c r="BW5" s="70"/>
+      <c r="BX5" s="70"/>
+      <c r="BY5" s="70"/>
+      <c r="BZ5" s="71"/>
+      <c r="CA5" s="38"/>
+      <c r="CB5" s="39"/>
+    </row>
+    <row r="6" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="38"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="38"/>
+      <c r="AT6" s="38"/>
+      <c r="AU6" s="38"/>
+      <c r="AV6" s="38"/>
+      <c r="AW6" s="38"/>
+      <c r="AX6" s="38"/>
+      <c r="AY6" s="38"/>
+      <c r="AZ6" s="38"/>
+      <c r="BA6" s="38"/>
+      <c r="BB6" s="38"/>
+      <c r="BC6" s="38"/>
+      <c r="BD6" s="38"/>
+      <c r="BE6" s="38"/>
+      <c r="BF6" s="38"/>
+      <c r="BG6" s="38"/>
+      <c r="BH6" s="38"/>
+      <c r="BI6" s="38"/>
+      <c r="BJ6" s="38"/>
+      <c r="BK6" s="38"/>
+      <c r="BL6" s="38"/>
+      <c r="BM6" s="38"/>
+      <c r="BN6" s="38"/>
+      <c r="BO6" s="38"/>
+      <c r="BP6" s="38"/>
+      <c r="BQ6" s="38"/>
+      <c r="BR6" s="38"/>
+      <c r="BS6" s="38"/>
+      <c r="BT6" s="38"/>
+      <c r="BU6" s="38"/>
+      <c r="BV6" s="38"/>
+      <c r="BW6" s="38"/>
+      <c r="BX6" s="38"/>
+      <c r="BY6" s="38"/>
+      <c r="BZ6" s="38"/>
+      <c r="CA6" s="38"/>
+      <c r="CB6" s="39"/>
+    </row>
+    <row r="7" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A7" s="37"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="38"/>
+      <c r="AJ7" s="38"/>
+      <c r="AK7" s="38"/>
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="38"/>
+      <c r="AO7" s="38"/>
+      <c r="AP7" s="38"/>
+      <c r="AQ7" s="38"/>
+      <c r="AR7" s="38"/>
+      <c r="AS7" s="38"/>
+      <c r="AT7" s="38"/>
+      <c r="AU7" s="38"/>
+      <c r="AV7" s="38"/>
+      <c r="AW7" s="38"/>
+      <c r="AX7" s="38"/>
+      <c r="AY7" s="38"/>
+      <c r="AZ7" s="38"/>
+      <c r="BA7" s="38"/>
+      <c r="BB7" s="38"/>
+      <c r="BC7" s="38"/>
+      <c r="BD7" s="38"/>
+      <c r="BE7" s="38"/>
+      <c r="BF7" s="38"/>
+      <c r="BG7" s="38"/>
+      <c r="BH7" s="38"/>
+      <c r="BI7" s="38"/>
+      <c r="BJ7" s="38"/>
+      <c r="BK7" s="38"/>
+      <c r="BL7" s="38"/>
+      <c r="BM7" s="38"/>
+      <c r="BN7" s="38"/>
+      <c r="BO7" s="38"/>
+      <c r="BP7" s="38"/>
+      <c r="BQ7" s="38"/>
+      <c r="BR7" s="38"/>
+      <c r="BS7" s="38"/>
+      <c r="BT7" s="38"/>
+      <c r="BU7" s="38"/>
+      <c r="BV7" s="38"/>
+      <c r="BW7" s="38"/>
+      <c r="BX7" s="38"/>
+      <c r="BY7" s="38"/>
+      <c r="BZ7" s="38"/>
+      <c r="CA7" s="38"/>
+      <c r="CB7" s="39"/>
+    </row>
+    <row r="8" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+      <c r="AI8" s="38"/>
+      <c r="AJ8" s="38"/>
+      <c r="AK8" s="38"/>
+      <c r="AL8" s="38"/>
+      <c r="AM8" s="38"/>
+      <c r="AN8" s="38"/>
+      <c r="AO8" s="38"/>
+      <c r="AP8" s="38"/>
+      <c r="AQ8" s="38"/>
+      <c r="AR8" s="38"/>
+      <c r="AS8" s="38"/>
+      <c r="AT8" s="38"/>
+      <c r="AU8" s="38"/>
+      <c r="AV8" s="38"/>
+      <c r="AW8" s="38"/>
+      <c r="AX8" s="38"/>
+      <c r="AY8" s="38"/>
+      <c r="AZ8" s="38"/>
+      <c r="BA8" s="38"/>
+      <c r="BB8" s="38"/>
+      <c r="BC8" s="38"/>
+      <c r="BD8" s="38"/>
+      <c r="BE8" s="38"/>
+      <c r="BF8" s="38"/>
+      <c r="BG8" s="38"/>
+      <c r="BH8" s="38"/>
+      <c r="BI8" s="38"/>
+      <c r="BJ8" s="38"/>
+      <c r="BK8" s="38"/>
+      <c r="BL8" s="38"/>
+      <c r="BM8" s="38"/>
+      <c r="BN8" s="38"/>
+      <c r="BO8" s="38"/>
+      <c r="BP8" s="38"/>
+      <c r="BQ8" s="38"/>
+      <c r="BR8" s="38"/>
+      <c r="BS8" s="38"/>
+      <c r="BT8" s="38"/>
+      <c r="BU8" s="38"/>
+      <c r="BV8" s="38"/>
+      <c r="BW8" s="38"/>
+      <c r="BX8" s="38"/>
+      <c r="BY8" s="38"/>
+      <c r="BZ8" s="38"/>
+      <c r="CA8" s="38"/>
+      <c r="CB8" s="39"/>
+    </row>
+    <row r="9" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="61"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="61"/>
+      <c r="AF9" s="61"/>
+      <c r="AG9" s="61"/>
+      <c r="AH9" s="61"/>
+      <c r="AI9" s="61"/>
+      <c r="AJ9" s="61"/>
+      <c r="AK9" s="61"/>
+      <c r="AL9" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM9" s="62"/>
+      <c r="AN9" s="62"/>
+      <c r="AO9" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP9" s="62"/>
+      <c r="AQ9" s="62"/>
+      <c r="AR9" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS9" s="61"/>
+      <c r="AT9" s="61"/>
+      <c r="AU9" s="61"/>
+      <c r="AV9" s="61"/>
+      <c r="AW9" s="61"/>
+      <c r="AX9" s="61"/>
+      <c r="AY9" s="61"/>
+      <c r="AZ9" s="61"/>
+      <c r="BA9" s="61"/>
+      <c r="BB9" s="61"/>
+      <c r="BC9" s="61"/>
+      <c r="BD9" s="61"/>
+      <c r="BE9" s="61"/>
+      <c r="BF9" s="61"/>
+      <c r="BG9" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="BH9" s="63"/>
+      <c r="BI9" s="63"/>
+      <c r="BJ9" s="63"/>
+      <c r="BK9" s="63"/>
+      <c r="BL9" s="63"/>
+      <c r="BM9" s="63"/>
+      <c r="BN9" s="63"/>
+      <c r="BO9" s="63"/>
+      <c r="BP9" s="63"/>
+      <c r="BQ9" s="63"/>
+      <c r="BR9" s="63"/>
+      <c r="BS9" s="63"/>
+      <c r="BT9" s="63"/>
+      <c r="BU9" s="63"/>
+      <c r="BV9" s="63"/>
+      <c r="BW9" s="63"/>
+      <c r="BX9" s="63"/>
+      <c r="BY9" s="63"/>
+      <c r="BZ9" s="63"/>
+      <c r="CA9" s="38"/>
+      <c r="CB9" s="39"/>
+    </row>
+    <row r="10" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="61"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="61"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="61"/>
+      <c r="AI10" s="61"/>
+      <c r="AJ10" s="61"/>
+      <c r="AK10" s="61"/>
+      <c r="AL10" s="62"/>
+      <c r="AM10" s="62"/>
+      <c r="AN10" s="62"/>
+      <c r="AO10" s="62"/>
+      <c r="AP10" s="62"/>
+      <c r="AQ10" s="62"/>
+      <c r="AR10" s="61"/>
+      <c r="AS10" s="61"/>
+      <c r="AT10" s="61"/>
+      <c r="AU10" s="61"/>
+      <c r="AV10" s="61"/>
+      <c r="AW10" s="61"/>
+      <c r="AX10" s="61"/>
+      <c r="AY10" s="61"/>
+      <c r="AZ10" s="61"/>
+      <c r="BA10" s="61"/>
+      <c r="BB10" s="61"/>
+      <c r="BC10" s="61"/>
+      <c r="BD10" s="61"/>
+      <c r="BE10" s="61"/>
+      <c r="BF10" s="61"/>
+      <c r="BG10" s="63"/>
+      <c r="BH10" s="63"/>
+      <c r="BI10" s="63"/>
+      <c r="BJ10" s="63"/>
+      <c r="BK10" s="63"/>
+      <c r="BL10" s="63"/>
+      <c r="BM10" s="63"/>
+      <c r="BN10" s="63"/>
+      <c r="BO10" s="63"/>
+      <c r="BP10" s="63"/>
+      <c r="BQ10" s="63"/>
+      <c r="BR10" s="63"/>
+      <c r="BS10" s="63"/>
+      <c r="BT10" s="63"/>
+      <c r="BU10" s="63"/>
+      <c r="BV10" s="63"/>
+      <c r="BW10" s="63"/>
+      <c r="BX10" s="63"/>
+      <c r="BY10" s="63"/>
+      <c r="BZ10" s="63"/>
+      <c r="CA10" s="38"/>
+      <c r="CB10" s="39"/>
+    </row>
+    <row r="11" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="73"/>
+      <c r="AB11" s="73"/>
+      <c r="AC11" s="73"/>
+      <c r="AD11" s="73"/>
+      <c r="AE11" s="73"/>
+      <c r="AF11" s="73"/>
+      <c r="AG11" s="73"/>
+      <c r="AH11" s="73"/>
+      <c r="AI11" s="73"/>
+      <c r="AJ11" s="73"/>
+      <c r="AK11" s="73"/>
+      <c r="AL11" s="62"/>
+      <c r="AM11" s="62"/>
+      <c r="AN11" s="62"/>
+      <c r="AO11" s="62"/>
+      <c r="AP11" s="62"/>
+      <c r="AQ11" s="62"/>
+      <c r="AR11" s="73"/>
+      <c r="AS11" s="73"/>
+      <c r="AT11" s="73"/>
+      <c r="AU11" s="73"/>
+      <c r="AV11" s="73"/>
+      <c r="AW11" s="73"/>
+      <c r="AX11" s="73"/>
+      <c r="AY11" s="73"/>
+      <c r="AZ11" s="73"/>
+      <c r="BA11" s="73"/>
+      <c r="BB11" s="73"/>
+      <c r="BC11" s="73"/>
+      <c r="BD11" s="73"/>
+      <c r="BE11" s="73"/>
+      <c r="BF11" s="73"/>
+      <c r="BG11" s="63"/>
+      <c r="BH11" s="63"/>
+      <c r="BI11" s="63"/>
+      <c r="BJ11" s="63"/>
+      <c r="BK11" s="63"/>
+      <c r="BL11" s="63"/>
+      <c r="BM11" s="63"/>
+      <c r="BN11" s="63"/>
+      <c r="BO11" s="63"/>
+      <c r="BP11" s="63"/>
+      <c r="BQ11" s="63"/>
+      <c r="BR11" s="63"/>
+      <c r="BS11" s="63"/>
+      <c r="BT11" s="63"/>
+      <c r="BU11" s="63"/>
+      <c r="BV11" s="63"/>
+      <c r="BW11" s="63"/>
+      <c r="BX11" s="63"/>
+      <c r="BY11" s="63"/>
+      <c r="BZ11" s="63"/>
+      <c r="CA11" s="38"/>
+      <c r="CB11" s="39"/>
+    </row>
+    <row r="12" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="38"/>
+      <c r="AI12" s="38"/>
+      <c r="AJ12" s="38"/>
+      <c r="AK12" s="38"/>
+      <c r="AL12" s="38"/>
+      <c r="AM12" s="38"/>
+      <c r="AN12" s="38"/>
+      <c r="AO12" s="38"/>
+      <c r="AP12" s="38"/>
+      <c r="AQ12" s="38"/>
+      <c r="AR12" s="38"/>
+      <c r="AS12" s="38"/>
+      <c r="AT12" s="38"/>
+      <c r="AU12" s="38"/>
+      <c r="AV12" s="38"/>
+      <c r="AW12" s="38"/>
+      <c r="AX12" s="38"/>
+      <c r="AY12" s="38"/>
+      <c r="AZ12" s="38"/>
+      <c r="BA12" s="38"/>
+      <c r="BB12" s="38"/>
+      <c r="BC12" s="38"/>
+      <c r="BD12" s="38"/>
+      <c r="BE12" s="38"/>
+      <c r="BF12" s="38"/>
+      <c r="BG12" s="38"/>
+      <c r="BH12" s="38"/>
+      <c r="BI12" s="38"/>
+      <c r="BJ12" s="38"/>
+      <c r="BK12" s="38"/>
+      <c r="BL12" s="38"/>
+      <c r="BM12" s="38"/>
+      <c r="BN12" s="38"/>
+      <c r="BO12" s="38"/>
+      <c r="BP12" s="38"/>
+      <c r="BQ12" s="38"/>
+      <c r="BR12" s="38"/>
+      <c r="BS12" s="38"/>
+      <c r="BT12" s="38"/>
+      <c r="BU12" s="38"/>
+      <c r="BV12" s="38"/>
+      <c r="BW12" s="38"/>
+      <c r="BX12" s="38"/>
+      <c r="BY12" s="38"/>
+      <c r="BZ12" s="38"/>
+      <c r="CA12" s="38"/>
+      <c r="CB12" s="39"/>
+    </row>
+    <row r="13" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="BZ13" s="38"/>
+      <c r="CA13" s="38"/>
+      <c r="CB13" s="39"/>
+    </row>
+    <row r="14" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A14" s="37"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="BZ14" s="38"/>
+      <c r="CA14" s="38"/>
+      <c r="CB14" s="39"/>
+    </row>
+    <row r="15" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="BZ15" s="38"/>
+      <c r="CA15" s="38"/>
+      <c r="CB15" s="39"/>
+    </row>
+    <row r="16" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A16" s="37"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="38"/>
+      <c r="AI16" s="38"/>
+      <c r="AJ16" s="38"/>
+      <c r="AK16" s="38"/>
+      <c r="AL16" s="38"/>
+      <c r="AM16" s="38"/>
+      <c r="AN16" s="38"/>
+      <c r="AO16" s="38"/>
+      <c r="AP16" s="38"/>
+      <c r="AQ16" s="38"/>
+      <c r="AR16" s="38"/>
+      <c r="AS16" s="38"/>
+      <c r="AT16" s="38"/>
+      <c r="AU16" s="38"/>
+      <c r="AV16" s="38"/>
+      <c r="AW16" s="38"/>
+      <c r="AX16" s="38"/>
+      <c r="AY16" s="38"/>
+      <c r="AZ16" s="38"/>
+      <c r="BA16" s="38"/>
+      <c r="BB16" s="38"/>
+      <c r="BC16" s="38"/>
+      <c r="BD16" s="38"/>
+      <c r="BE16" s="38"/>
+      <c r="BF16" s="38"/>
+      <c r="BG16" s="38"/>
+      <c r="BH16" s="38"/>
+      <c r="BI16" s="38"/>
+      <c r="BJ16" s="38"/>
+      <c r="BK16" s="38"/>
+      <c r="BL16" s="38"/>
+      <c r="BM16" s="38"/>
+      <c r="BN16" s="38"/>
+      <c r="BO16" s="38"/>
+      <c r="BP16" s="38"/>
+      <c r="BQ16" s="38"/>
+      <c r="BR16" s="38"/>
+      <c r="BS16" s="38"/>
+      <c r="BT16" s="38"/>
+      <c r="BU16" s="38"/>
+      <c r="BV16" s="38"/>
+      <c r="BW16" s="38"/>
+      <c r="BX16" s="38"/>
+      <c r="BY16" s="38"/>
+      <c r="BZ16" s="38"/>
+      <c r="CA16" s="38"/>
+      <c r="CB16" s="39"/>
+    </row>
+    <row r="17" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="38"/>
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="38"/>
+      <c r="AL17" s="38"/>
+      <c r="AM17" s="38"/>
+      <c r="AN17" s="38"/>
+      <c r="AO17" s="38"/>
+      <c r="AP17" s="38"/>
+      <c r="AQ17" s="38"/>
+      <c r="AR17" s="38"/>
+      <c r="AS17" s="38"/>
+      <c r="AT17" s="38"/>
+      <c r="AU17" s="38"/>
+      <c r="AV17" s="38"/>
+      <c r="AW17" s="38"/>
+      <c r="AX17" s="38"/>
+      <c r="AY17" s="38"/>
+      <c r="AZ17" s="38"/>
+      <c r="BA17" s="38"/>
+      <c r="BB17" s="38"/>
+      <c r="BC17" s="38"/>
+      <c r="BD17" s="38"/>
+      <c r="BE17" s="38"/>
+      <c r="BF17" s="38"/>
+      <c r="BG17" s="38"/>
+      <c r="BH17" s="38"/>
+      <c r="BI17" s="38"/>
+      <c r="BJ17" s="38"/>
+      <c r="BK17" s="38"/>
+      <c r="BL17" s="38"/>
+      <c r="BM17" s="38"/>
+      <c r="BN17" s="38"/>
+      <c r="BO17" s="38"/>
+      <c r="BP17" s="38"/>
+      <c r="BQ17" s="38"/>
+      <c r="BR17" s="38"/>
+      <c r="BS17" s="38"/>
+      <c r="BT17" s="38"/>
+      <c r="BU17" s="38"/>
+      <c r="BV17" s="38"/>
+      <c r="BW17" s="38"/>
+      <c r="BX17" s="38"/>
+      <c r="BY17" s="38"/>
+      <c r="BZ17" s="38"/>
+      <c r="CA17" s="38"/>
+      <c r="CB17" s="39"/>
+    </row>
+    <row r="18" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
+      <c r="AJ18" s="38"/>
+      <c r="AK18" s="38"/>
+      <c r="AL18" s="38"/>
+      <c r="AM18" s="38"/>
+      <c r="AN18" s="38"/>
+      <c r="AO18" s="38"/>
+      <c r="AP18" s="38"/>
+      <c r="AQ18" s="38"/>
+      <c r="AR18" s="38"/>
+      <c r="AS18" s="38"/>
+      <c r="AT18" s="38"/>
+      <c r="AU18" s="38"/>
+      <c r="AV18" s="38"/>
+      <c r="AW18" s="38"/>
+      <c r="AX18" s="38"/>
+      <c r="AY18" s="38"/>
+      <c r="AZ18" s="38"/>
+      <c r="BA18" s="38"/>
+      <c r="BB18" s="38"/>
+      <c r="BC18" s="38"/>
+      <c r="BD18" s="38"/>
+      <c r="BE18" s="38"/>
+      <c r="BF18" s="38"/>
+      <c r="BG18" s="38"/>
+      <c r="BH18" s="38"/>
+      <c r="BI18" s="38"/>
+      <c r="BJ18" s="38"/>
+      <c r="BK18" s="38"/>
+      <c r="BL18" s="38"/>
+      <c r="BM18" s="38"/>
+      <c r="BN18" s="38"/>
+      <c r="BO18" s="38"/>
+      <c r="BP18" s="38"/>
+      <c r="BQ18" s="38"/>
+      <c r="BR18" s="38"/>
+      <c r="BS18" s="38"/>
+      <c r="BT18" s="38"/>
+      <c r="BU18" s="38"/>
+      <c r="BV18" s="38"/>
+      <c r="BW18" s="38"/>
+      <c r="BX18" s="38"/>
+      <c r="BY18" s="38"/>
+      <c r="BZ18" s="38"/>
+      <c r="CA18" s="38"/>
+      <c r="CB18" s="39"/>
+    </row>
+    <row r="19" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="38"/>
+      <c r="AJ19" s="38"/>
+      <c r="AK19" s="38"/>
+      <c r="AL19" s="38"/>
+      <c r="AM19" s="38"/>
+      <c r="AN19" s="38"/>
+      <c r="AO19" s="38"/>
+      <c r="AP19" s="38"/>
+      <c r="AQ19" s="38"/>
+      <c r="AR19" s="38"/>
+      <c r="AS19" s="38"/>
+      <c r="AT19" s="38"/>
+      <c r="AU19" s="38"/>
+      <c r="AV19" s="38"/>
+      <c r="AW19" s="38"/>
+      <c r="AX19" s="38"/>
+      <c r="AY19" s="38"/>
+      <c r="AZ19" s="38"/>
+      <c r="BA19" s="38"/>
+      <c r="BB19" s="38"/>
+      <c r="BC19" s="38"/>
+      <c r="BD19" s="38"/>
+      <c r="BE19" s="38"/>
+      <c r="BF19" s="38"/>
+      <c r="BG19" s="38"/>
+      <c r="BH19" s="38"/>
+      <c r="BI19" s="38"/>
+      <c r="BJ19" s="38"/>
+      <c r="BK19" s="38"/>
+      <c r="BL19" s="38"/>
+      <c r="BM19" s="38"/>
+      <c r="BN19" s="38"/>
+      <c r="BO19" s="38"/>
+      <c r="BP19" s="38"/>
+      <c r="BQ19" s="38"/>
+      <c r="BR19" s="38"/>
+      <c r="BS19" s="38"/>
+      <c r="BT19" s="38"/>
+      <c r="BU19" s="38"/>
+      <c r="BV19" s="38"/>
+      <c r="BW19" s="38"/>
+      <c r="BX19" s="38"/>
+      <c r="BY19" s="38"/>
+      <c r="BZ19" s="38"/>
+      <c r="CA19" s="38"/>
+      <c r="CB19" s="39"/>
+    </row>
+    <row r="20" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A20" s="37"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
+      <c r="AE20" s="38"/>
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="38"/>
+      <c r="AH20" s="38"/>
+      <c r="AI20" s="38"/>
+      <c r="AJ20" s="38"/>
+      <c r="AK20" s="38"/>
+      <c r="AL20" s="38"/>
+      <c r="AM20" s="38"/>
+      <c r="AN20" s="38"/>
+      <c r="AO20" s="38"/>
+      <c r="AP20" s="38"/>
+      <c r="AQ20" s="38"/>
+      <c r="AR20" s="38"/>
+      <c r="AS20" s="38"/>
+      <c r="AT20" s="38"/>
+      <c r="AU20" s="38"/>
+      <c r="AV20" s="38"/>
+      <c r="AW20" s="38"/>
+      <c r="AX20" s="38"/>
+      <c r="AY20" s="38"/>
+      <c r="AZ20" s="38"/>
+      <c r="BA20" s="38"/>
+      <c r="BB20" s="38"/>
+      <c r="BC20" s="38"/>
+      <c r="BD20" s="38"/>
+      <c r="BE20" s="38"/>
+      <c r="BF20" s="38"/>
+      <c r="BG20" s="38"/>
+      <c r="BH20" s="38"/>
+      <c r="BI20" s="38"/>
+      <c r="BJ20" s="38"/>
+      <c r="BK20" s="38"/>
+      <c r="BL20" s="38"/>
+      <c r="BM20" s="38"/>
+      <c r="BN20" s="38"/>
+      <c r="BO20" s="38"/>
+      <c r="BP20" s="38"/>
+      <c r="BQ20" s="38"/>
+      <c r="BR20" s="38"/>
+      <c r="BS20" s="38"/>
+      <c r="BT20" s="38"/>
+      <c r="BU20" s="38"/>
+      <c r="BV20" s="38"/>
+      <c r="BW20" s="38"/>
+      <c r="BX20" s="38"/>
+      <c r="BY20" s="38"/>
+      <c r="BZ20" s="38"/>
+      <c r="CA20" s="38"/>
+      <c r="CB20" s="39"/>
+    </row>
+    <row r="21" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A21" s="37"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="38"/>
+      <c r="AE21" s="38"/>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="38"/>
+      <c r="AJ21" s="38"/>
+      <c r="AK21" s="38"/>
+      <c r="AL21" s="38"/>
+      <c r="AM21" s="38"/>
+      <c r="AN21" s="38"/>
+      <c r="AO21" s="38"/>
+      <c r="AP21" s="38"/>
+      <c r="AQ21" s="38"/>
+      <c r="AR21" s="38"/>
+      <c r="AS21" s="38"/>
+      <c r="AT21" s="38"/>
+      <c r="AU21" s="38"/>
+      <c r="AV21" s="38"/>
+      <c r="AW21" s="38"/>
+      <c r="AX21" s="38"/>
+      <c r="AY21" s="38"/>
+      <c r="AZ21" s="38"/>
+      <c r="BA21" s="38"/>
+      <c r="BB21" s="38"/>
+      <c r="BC21" s="38"/>
+      <c r="BD21" s="38"/>
+      <c r="BE21" s="38"/>
+      <c r="BF21" s="38"/>
+      <c r="BG21" s="38"/>
+      <c r="BH21" s="38"/>
+      <c r="BI21" s="38"/>
+      <c r="BJ21" s="38"/>
+      <c r="BK21" s="38"/>
+      <c r="BL21" s="38"/>
+      <c r="BM21" s="38"/>
+      <c r="BN21" s="38"/>
+      <c r="BO21" s="38"/>
+      <c r="BP21" s="38"/>
+      <c r="BQ21" s="38"/>
+      <c r="BR21" s="38"/>
+      <c r="BS21" s="38"/>
+      <c r="BT21" s="38"/>
+      <c r="BU21" s="38"/>
+      <c r="BV21" s="38"/>
+      <c r="BW21" s="38"/>
+      <c r="BX21" s="38"/>
+      <c r="BY21" s="38"/>
+      <c r="BZ21" s="38"/>
+      <c r="CA21" s="38"/>
+      <c r="CB21" s="39"/>
+    </row>
+    <row r="22" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A22" s="37"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="38"/>
+      <c r="AE22" s="38"/>
+      <c r="AF22" s="38"/>
+      <c r="AG22" s="38"/>
+      <c r="AH22" s="38"/>
+      <c r="AI22" s="38"/>
+      <c r="AJ22" s="38"/>
+      <c r="AK22" s="38"/>
+      <c r="AL22" s="38"/>
+      <c r="AM22" s="38"/>
+      <c r="AN22" s="38"/>
+      <c r="AO22" s="38"/>
+      <c r="AP22" s="38"/>
+      <c r="AQ22" s="38"/>
+      <c r="AR22" s="38"/>
+      <c r="AS22" s="38"/>
+      <c r="AT22" s="38"/>
+      <c r="AU22" s="38"/>
+      <c r="AV22" s="38"/>
+      <c r="AW22" s="38"/>
+      <c r="AX22" s="38"/>
+      <c r="AY22" s="38"/>
+      <c r="AZ22" s="38"/>
+      <c r="BA22" s="38"/>
+      <c r="BB22" s="38"/>
+      <c r="BC22" s="38"/>
+      <c r="BD22" s="38"/>
+      <c r="BE22" s="38"/>
+      <c r="BF22" s="38"/>
+      <c r="BG22" s="38"/>
+      <c r="BH22" s="38"/>
+      <c r="BI22" s="38"/>
+      <c r="BJ22" s="38"/>
+      <c r="BK22" s="38"/>
+      <c r="BL22" s="38"/>
+      <c r="BM22" s="38"/>
+      <c r="BN22" s="38"/>
+      <c r="BO22" s="38"/>
+      <c r="BP22" s="38"/>
+      <c r="BQ22" s="38"/>
+      <c r="BR22" s="38"/>
+      <c r="BS22" s="38"/>
+      <c r="BT22" s="38"/>
+      <c r="BU22" s="38"/>
+      <c r="BV22" s="38"/>
+      <c r="BW22" s="38"/>
+      <c r="BX22" s="38"/>
+      <c r="BY22" s="38"/>
+      <c r="BZ22" s="38"/>
+      <c r="CA22" s="38"/>
+      <c r="CB22" s="39"/>
+    </row>
+    <row r="23" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A23" s="37"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="38"/>
+      <c r="AE23" s="38"/>
+      <c r="AF23" s="38"/>
+      <c r="AG23" s="38"/>
+      <c r="AH23" s="38"/>
+      <c r="AI23" s="38"/>
+      <c r="AJ23" s="38"/>
+      <c r="AK23" s="38"/>
+      <c r="AL23" s="38"/>
+      <c r="AM23" s="38"/>
+      <c r="AN23" s="38"/>
+      <c r="AO23" s="38"/>
+      <c r="AP23" s="38"/>
+      <c r="AQ23" s="38"/>
+      <c r="AR23" s="38"/>
+      <c r="AS23" s="38"/>
+      <c r="AT23" s="38"/>
+      <c r="AU23" s="38"/>
+      <c r="AV23" s="38"/>
+      <c r="AW23" s="38"/>
+      <c r="AX23" s="38"/>
+      <c r="AY23" s="38"/>
+      <c r="AZ23" s="38"/>
+      <c r="BA23" s="38"/>
+      <c r="BB23" s="38"/>
+      <c r="BC23" s="38"/>
+      <c r="BD23" s="38"/>
+      <c r="BE23" s="38"/>
+      <c r="BF23" s="38"/>
+      <c r="BG23" s="38"/>
+      <c r="BH23" s="38"/>
+      <c r="BI23" s="38"/>
+      <c r="BJ23" s="38"/>
+      <c r="BK23" s="38"/>
+      <c r="BL23" s="38"/>
+      <c r="BM23" s="38"/>
+      <c r="BN23" s="38"/>
+      <c r="BO23" s="38"/>
+      <c r="BP23" s="38"/>
+      <c r="BQ23" s="38"/>
+      <c r="BR23" s="38"/>
+      <c r="BS23" s="38"/>
+      <c r="BT23" s="38"/>
+      <c r="BU23" s="38"/>
+      <c r="BV23" s="38"/>
+      <c r="BW23" s="38"/>
+      <c r="BX23" s="38"/>
+      <c r="BY23" s="38"/>
+      <c r="BZ23" s="38"/>
+      <c r="CA23" s="38"/>
+      <c r="CB23" s="39"/>
+    </row>
+    <row r="24" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A24" s="37"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="38"/>
+      <c r="AK24" s="38"/>
+      <c r="AL24" s="38"/>
+      <c r="AM24" s="38"/>
+      <c r="AN24" s="38"/>
+      <c r="AO24" s="38"/>
+      <c r="AP24" s="38"/>
+      <c r="AQ24" s="38"/>
+      <c r="AR24" s="38"/>
+      <c r="AS24" s="38"/>
+      <c r="AT24" s="38"/>
+      <c r="AU24" s="38"/>
+      <c r="AV24" s="38"/>
+      <c r="AW24" s="38"/>
+      <c r="AX24" s="38"/>
+      <c r="AY24" s="38"/>
+      <c r="AZ24" s="38"/>
+      <c r="BA24" s="38"/>
+      <c r="BB24" s="38"/>
+      <c r="BC24" s="38"/>
+      <c r="BD24" s="38"/>
+      <c r="BE24" s="38"/>
+      <c r="BF24" s="38"/>
+      <c r="BG24" s="38"/>
+      <c r="BH24" s="38"/>
+      <c r="BI24" s="38"/>
+      <c r="BJ24" s="38"/>
+      <c r="BK24" s="38"/>
+      <c r="BL24" s="38"/>
+      <c r="BM24" s="38"/>
+      <c r="BN24" s="38"/>
+      <c r="BO24" s="38"/>
+      <c r="BP24" s="38"/>
+      <c r="BQ24" s="38"/>
+      <c r="BR24" s="38"/>
+      <c r="BS24" s="38"/>
+      <c r="BT24" s="38"/>
+      <c r="BU24" s="38"/>
+      <c r="BV24" s="38"/>
+      <c r="BW24" s="38"/>
+      <c r="BX24" s="38"/>
+      <c r="BY24" s="38"/>
+      <c r="BZ24" s="38"/>
+      <c r="CA24" s="38"/>
+      <c r="CB24" s="39"/>
+    </row>
+    <row r="25" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A25" s="37"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="38"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="38"/>
+      <c r="AE25" s="38"/>
+      <c r="AF25" s="38"/>
+      <c r="AG25" s="38"/>
+      <c r="AH25" s="38"/>
+      <c r="AI25" s="38"/>
+      <c r="AJ25" s="38"/>
+      <c r="AK25" s="38"/>
+      <c r="AL25" s="38"/>
+      <c r="AM25" s="38"/>
+      <c r="AN25" s="38"/>
+      <c r="AO25" s="38"/>
+      <c r="AP25" s="38"/>
+      <c r="AQ25" s="38"/>
+      <c r="AR25" s="38"/>
+      <c r="AS25" s="38"/>
+      <c r="AT25" s="38"/>
+      <c r="AU25" s="38"/>
+      <c r="AV25" s="38"/>
+      <c r="AW25" s="38"/>
+      <c r="AX25" s="38"/>
+      <c r="AY25" s="38"/>
+      <c r="AZ25" s="38"/>
+      <c r="BA25" s="38"/>
+      <c r="BB25" s="38"/>
+      <c r="BC25" s="38"/>
+      <c r="BD25" s="38"/>
+      <c r="BE25" s="38"/>
+      <c r="BF25" s="38"/>
+      <c r="BG25" s="38"/>
+      <c r="BH25" s="38"/>
+      <c r="BI25" s="38"/>
+      <c r="BJ25" s="38"/>
+      <c r="BK25" s="38"/>
+      <c r="BL25" s="38"/>
+      <c r="BM25" s="38"/>
+      <c r="BN25" s="38"/>
+      <c r="BO25" s="38"/>
+      <c r="BP25" s="38"/>
+      <c r="BQ25" s="38"/>
+      <c r="BR25" s="38"/>
+      <c r="BS25" s="38"/>
+      <c r="BT25" s="38"/>
+      <c r="BU25" s="38"/>
+      <c r="BV25" s="38"/>
+      <c r="BW25" s="38"/>
+      <c r="BX25" s="38"/>
+      <c r="BY25" s="38"/>
+      <c r="BZ25" s="38"/>
+      <c r="CA25" s="38"/>
+      <c r="CB25" s="39"/>
+    </row>
+    <row r="26" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A26" s="37"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="38"/>
+      <c r="AE26" s="38"/>
+      <c r="AF26" s="38"/>
+      <c r="AG26" s="38"/>
+      <c r="AH26" s="38"/>
+      <c r="AI26" s="38"/>
+      <c r="AJ26" s="38"/>
+      <c r="AK26" s="38"/>
+      <c r="AL26" s="38"/>
+      <c r="AM26" s="38"/>
+      <c r="AN26" s="38"/>
+      <c r="AO26" s="38"/>
+      <c r="AP26" s="38"/>
+      <c r="AQ26" s="38"/>
+      <c r="AR26" s="38"/>
+      <c r="AS26" s="38"/>
+      <c r="AT26" s="38"/>
+      <c r="AU26" s="38"/>
+      <c r="AV26" s="38"/>
+      <c r="AW26" s="38"/>
+      <c r="AX26" s="38"/>
+      <c r="AY26" s="38"/>
+      <c r="AZ26" s="38"/>
+      <c r="BA26" s="38"/>
+      <c r="BB26" s="38"/>
+      <c r="BC26" s="38"/>
+      <c r="BD26" s="38"/>
+      <c r="BE26" s="38"/>
+      <c r="BF26" s="38"/>
+      <c r="BG26" s="38"/>
+      <c r="BH26" s="38"/>
+      <c r="BI26" s="38"/>
+      <c r="BJ26" s="38"/>
+      <c r="BK26" s="38"/>
+      <c r="BL26" s="38"/>
+      <c r="BM26" s="38"/>
+      <c r="BN26" s="38"/>
+      <c r="BO26" s="38"/>
+      <c r="BP26" s="38"/>
+      <c r="BQ26" s="38"/>
+      <c r="BR26" s="38"/>
+      <c r="BS26" s="38"/>
+      <c r="BT26" s="38"/>
+      <c r="BU26" s="38"/>
+      <c r="BV26" s="38"/>
+      <c r="BW26" s="38"/>
+      <c r="BX26" s="38"/>
+      <c r="BY26" s="38"/>
+      <c r="BZ26" s="38"/>
+      <c r="CA26" s="38"/>
+      <c r="CB26" s="39"/>
+    </row>
+    <row r="27" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A27" s="37"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="38"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="38"/>
+      <c r="AE27" s="38"/>
+      <c r="AF27" s="38"/>
+      <c r="AG27" s="38"/>
+      <c r="AH27" s="38"/>
+      <c r="AI27" s="38"/>
+      <c r="AJ27" s="38"/>
+      <c r="AK27" s="38"/>
+      <c r="AL27" s="38"/>
+      <c r="AM27" s="38"/>
+      <c r="AN27" s="38"/>
+      <c r="AO27" s="38"/>
+      <c r="AP27" s="38"/>
+      <c r="AQ27" s="38"/>
+      <c r="AR27" s="38"/>
+      <c r="AS27" s="38"/>
+      <c r="AT27" s="38"/>
+      <c r="AU27" s="38"/>
+      <c r="AV27" s="38"/>
+      <c r="AW27" s="38"/>
+      <c r="AX27" s="38"/>
+      <c r="AY27" s="38"/>
+      <c r="AZ27" s="38"/>
+      <c r="BA27" s="38"/>
+      <c r="BB27" s="38"/>
+      <c r="BC27" s="38"/>
+      <c r="BD27" s="38"/>
+      <c r="BE27" s="38"/>
+      <c r="BF27" s="38"/>
+      <c r="BG27" s="38"/>
+      <c r="BH27" s="38"/>
+      <c r="BI27" s="38"/>
+      <c r="BJ27" s="38"/>
+      <c r="BK27" s="38"/>
+      <c r="BL27" s="38"/>
+      <c r="BM27" s="38"/>
+      <c r="BN27" s="38"/>
+      <c r="BO27" s="38"/>
+      <c r="BP27" s="38"/>
+      <c r="BQ27" s="38"/>
+      <c r="BR27" s="38"/>
+      <c r="BS27" s="38"/>
+      <c r="BT27" s="38"/>
+      <c r="BU27" s="38"/>
+      <c r="BV27" s="38"/>
+      <c r="BW27" s="38"/>
+      <c r="BX27" s="38"/>
+      <c r="BY27" s="38"/>
+      <c r="BZ27" s="38"/>
+      <c r="CA27" s="38"/>
+      <c r="CB27" s="39"/>
+    </row>
+    <row r="28" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A28" s="37"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="38"/>
+      <c r="AC28" s="38"/>
+      <c r="AD28" s="38"/>
+      <c r="AE28" s="38"/>
+      <c r="AF28" s="38"/>
+      <c r="AG28" s="38"/>
+      <c r="AH28" s="38"/>
+      <c r="AI28" s="38"/>
+      <c r="AJ28" s="38"/>
+      <c r="AK28" s="38"/>
+      <c r="AL28" s="38"/>
+      <c r="AM28" s="38"/>
+      <c r="AN28" s="38"/>
+      <c r="AO28" s="38"/>
+      <c r="AP28" s="38"/>
+      <c r="AQ28" s="38"/>
+      <c r="AR28" s="38"/>
+      <c r="AS28" s="38"/>
+      <c r="AT28" s="38"/>
+      <c r="AU28" s="38"/>
+      <c r="AV28" s="38"/>
+      <c r="AW28" s="38"/>
+      <c r="AX28" s="38"/>
+      <c r="AY28" s="38"/>
+      <c r="AZ28" s="38"/>
+      <c r="BA28" s="38"/>
+      <c r="BB28" s="38"/>
+      <c r="BC28" s="38"/>
+      <c r="BD28" s="38"/>
+      <c r="BE28" s="38"/>
+      <c r="BF28" s="38"/>
+      <c r="BG28" s="38"/>
+      <c r="BH28" s="38"/>
+      <c r="BI28" s="38"/>
+      <c r="BJ28" s="38"/>
+      <c r="BK28" s="38"/>
+      <c r="BL28" s="38"/>
+      <c r="BM28" s="38"/>
+      <c r="BN28" s="38"/>
+      <c r="BO28" s="38"/>
+      <c r="BP28" s="38"/>
+      <c r="BQ28" s="38"/>
+      <c r="BR28" s="38"/>
+      <c r="BS28" s="38"/>
+      <c r="BT28" s="38"/>
+      <c r="BU28" s="38"/>
+      <c r="BV28" s="38"/>
+      <c r="BW28" s="38"/>
+      <c r="BX28" s="38"/>
+      <c r="BY28" s="38"/>
+      <c r="BZ28" s="38"/>
+      <c r="CA28" s="38"/>
+      <c r="CB28" s="39"/>
+    </row>
+    <row r="29" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A29" s="37"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="38"/>
+      <c r="AC29" s="38"/>
+      <c r="AD29" s="38"/>
+      <c r="AE29" s="38"/>
+      <c r="AF29" s="38"/>
+      <c r="AG29" s="38"/>
+      <c r="AH29" s="38"/>
+      <c r="AI29" s="38"/>
+      <c r="AJ29" s="38"/>
+      <c r="AK29" s="38"/>
+      <c r="AL29" s="38"/>
+      <c r="AM29" s="38"/>
+      <c r="AN29" s="38"/>
+      <c r="AO29" s="38"/>
+      <c r="AP29" s="38"/>
+      <c r="AQ29" s="38"/>
+      <c r="AR29" s="38"/>
+      <c r="AS29" s="38"/>
+      <c r="AT29" s="38"/>
+      <c r="AU29" s="38"/>
+      <c r="AV29" s="38"/>
+      <c r="AW29" s="38"/>
+      <c r="AX29" s="38"/>
+      <c r="AY29" s="38"/>
+      <c r="AZ29" s="38"/>
+      <c r="BA29" s="38"/>
+      <c r="BB29" s="38"/>
+      <c r="BC29" s="38"/>
+      <c r="BD29" s="38"/>
+      <c r="BE29" s="38"/>
+      <c r="BF29" s="38"/>
+      <c r="BG29" s="38"/>
+      <c r="BH29" s="38"/>
+      <c r="BI29" s="38"/>
+      <c r="BJ29" s="38"/>
+      <c r="BK29" s="38"/>
+      <c r="BL29" s="38"/>
+      <c r="BM29" s="38"/>
+      <c r="BN29" s="38"/>
+      <c r="BO29" s="38"/>
+      <c r="BP29" s="38"/>
+      <c r="BQ29" s="38"/>
+      <c r="BR29" s="38"/>
+      <c r="BS29" s="38"/>
+      <c r="BT29" s="38"/>
+      <c r="BU29" s="38"/>
+      <c r="BV29" s="38"/>
+      <c r="BW29" s="38"/>
+      <c r="BX29" s="38"/>
+      <c r="BY29" s="38"/>
+      <c r="BZ29" s="38"/>
+      <c r="CA29" s="38"/>
+      <c r="CB29" s="39"/>
+    </row>
+    <row r="30" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A30" s="37"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="38"/>
+      <c r="AA30" s="38"/>
+      <c r="AB30" s="38"/>
+      <c r="AC30" s="38"/>
+      <c r="AD30" s="38"/>
+      <c r="AE30" s="38"/>
+      <c r="AF30" s="38"/>
+      <c r="AG30" s="38"/>
+      <c r="AH30" s="38"/>
+      <c r="AI30" s="38"/>
+      <c r="AJ30" s="38"/>
+      <c r="AK30" s="38"/>
+      <c r="AL30" s="38"/>
+      <c r="AM30" s="38"/>
+      <c r="AN30" s="38"/>
+      <c r="AO30" s="38"/>
+      <c r="AP30" s="38"/>
+      <c r="AQ30" s="38"/>
+      <c r="AR30" s="38"/>
+      <c r="AS30" s="38"/>
+      <c r="AT30" s="38"/>
+      <c r="AU30" s="38"/>
+      <c r="AV30" s="38"/>
+      <c r="AW30" s="38"/>
+      <c r="AX30" s="38"/>
+      <c r="AY30" s="38"/>
+      <c r="AZ30" s="38"/>
+      <c r="BA30" s="38"/>
+      <c r="BB30" s="38"/>
+      <c r="BC30" s="38"/>
+      <c r="BD30" s="38"/>
+      <c r="BE30" s="38"/>
+      <c r="BF30" s="38"/>
+      <c r="BG30" s="38"/>
+      <c r="BH30" s="38"/>
+      <c r="BI30" s="38"/>
+      <c r="BJ30" s="38"/>
+      <c r="BK30" s="38"/>
+      <c r="BL30" s="38"/>
+      <c r="BM30" s="38"/>
+      <c r="BN30" s="38"/>
+      <c r="BO30" s="38"/>
+      <c r="BP30" s="38"/>
+      <c r="BQ30" s="38"/>
+      <c r="BR30" s="38"/>
+      <c r="BS30" s="38"/>
+      <c r="BT30" s="38"/>
+      <c r="BU30" s="38"/>
+      <c r="BV30" s="38"/>
+      <c r="BW30" s="38"/>
+      <c r="BX30" s="38"/>
+      <c r="BY30" s="38"/>
+      <c r="BZ30" s="38"/>
+      <c r="CA30" s="38"/>
+      <c r="CB30" s="39"/>
+    </row>
+    <row r="31" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A31" s="37"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="38"/>
+      <c r="Z31" s="38"/>
+      <c r="AA31" s="38"/>
+      <c r="AB31" s="38"/>
+      <c r="AC31" s="38"/>
+      <c r="AD31" s="38"/>
+      <c r="AE31" s="38"/>
+      <c r="AF31" s="38"/>
+      <c r="AG31" s="38"/>
+      <c r="AH31" s="38"/>
+      <c r="AI31" s="38"/>
+      <c r="AJ31" s="38"/>
+      <c r="AK31" s="38"/>
+      <c r="AL31" s="38"/>
+      <c r="AM31" s="38"/>
+      <c r="AN31" s="38"/>
+      <c r="AO31" s="38"/>
+      <c r="AP31" s="38"/>
+      <c r="AQ31" s="38"/>
+      <c r="AR31" s="38"/>
+      <c r="AS31" s="38"/>
+      <c r="AT31" s="38"/>
+      <c r="AU31" s="38"/>
+      <c r="AV31" s="38"/>
+      <c r="AW31" s="38"/>
+      <c r="AX31" s="38"/>
+      <c r="AY31" s="38"/>
+      <c r="AZ31" s="38"/>
+      <c r="BA31" s="38"/>
+      <c r="BB31" s="38"/>
+      <c r="BC31" s="38"/>
+      <c r="BD31" s="38"/>
+      <c r="BE31" s="38"/>
+      <c r="BF31" s="38"/>
+      <c r="BG31" s="38"/>
+      <c r="BH31" s="38"/>
+      <c r="BI31" s="38"/>
+      <c r="BJ31" s="38"/>
+      <c r="BK31" s="38"/>
+      <c r="BL31" s="38"/>
+      <c r="BM31" s="38"/>
+      <c r="BN31" s="38"/>
+      <c r="BO31" s="38"/>
+      <c r="BP31" s="38"/>
+      <c r="BQ31" s="38"/>
+      <c r="BR31" s="38"/>
+      <c r="BS31" s="38"/>
+      <c r="BT31" s="38"/>
+      <c r="BU31" s="38"/>
+      <c r="BV31" s="38"/>
+      <c r="BW31" s="38"/>
+      <c r="BX31" s="38"/>
+      <c r="BY31" s="38"/>
+      <c r="BZ31" s="38"/>
+      <c r="CA31" s="38"/>
+      <c r="CB31" s="39"/>
+    </row>
+    <row r="32" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A32" s="37"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="38"/>
+      <c r="AB32" s="38"/>
+      <c r="AC32" s="38"/>
+      <c r="AD32" s="38"/>
+      <c r="AE32" s="38"/>
+      <c r="AF32" s="38"/>
+      <c r="AG32" s="38"/>
+      <c r="AH32" s="38"/>
+      <c r="AI32" s="38"/>
+      <c r="AJ32" s="38"/>
+      <c r="AK32" s="38"/>
+      <c r="AL32" s="38"/>
+      <c r="AM32" s="38"/>
+      <c r="AN32" s="38"/>
+      <c r="AO32" s="38"/>
+      <c r="AP32" s="38"/>
+      <c r="AQ32" s="38"/>
+      <c r="AR32" s="38"/>
+      <c r="AS32" s="38"/>
+      <c r="AT32" s="38"/>
+      <c r="AU32" s="38"/>
+      <c r="AV32" s="38"/>
+      <c r="AW32" s="38"/>
+      <c r="AX32" s="38"/>
+      <c r="AY32" s="38"/>
+      <c r="AZ32" s="38"/>
+      <c r="BA32" s="38"/>
+      <c r="BB32" s="38"/>
+      <c r="BC32" s="38"/>
+      <c r="BD32" s="38"/>
+      <c r="BE32" s="38"/>
+      <c r="BF32" s="38"/>
+      <c r="BG32" s="38"/>
+      <c r="BH32" s="38"/>
+      <c r="BI32" s="38"/>
+      <c r="BJ32" s="38"/>
+      <c r="BK32" s="38"/>
+      <c r="BL32" s="38"/>
+      <c r="BM32" s="38"/>
+      <c r="BN32" s="38"/>
+      <c r="BO32" s="38"/>
+      <c r="BP32" s="38"/>
+      <c r="BQ32" s="38"/>
+      <c r="BR32" s="38"/>
+      <c r="BS32" s="38"/>
+      <c r="BT32" s="38"/>
+      <c r="BU32" s="38"/>
+      <c r="BV32" s="38"/>
+      <c r="BW32" s="38"/>
+      <c r="BX32" s="38"/>
+      <c r="BY32" s="38"/>
+      <c r="BZ32" s="38"/>
+      <c r="CA32" s="38"/>
+      <c r="CB32" s="39"/>
+    </row>
+    <row r="33" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A33" s="37"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="38"/>
+      <c r="Z33" s="38"/>
+      <c r="AA33" s="38"/>
+      <c r="AB33" s="38"/>
+      <c r="AC33" s="38"/>
+      <c r="AD33" s="38"/>
+      <c r="AE33" s="38"/>
+      <c r="AF33" s="38"/>
+      <c r="AG33" s="38"/>
+      <c r="AH33" s="38"/>
+      <c r="AI33" s="38"/>
+      <c r="AJ33" s="38"/>
+      <c r="AK33" s="38"/>
+      <c r="AL33" s="38"/>
+      <c r="AM33" s="38"/>
+      <c r="AN33" s="38"/>
+      <c r="AO33" s="38"/>
+      <c r="AP33" s="38"/>
+      <c r="AQ33" s="38"/>
+      <c r="AR33" s="38"/>
+      <c r="AS33" s="38"/>
+      <c r="AT33" s="38"/>
+      <c r="AU33" s="38"/>
+      <c r="AV33" s="38"/>
+      <c r="AW33" s="38"/>
+      <c r="AX33" s="38"/>
+      <c r="AY33" s="38"/>
+      <c r="AZ33" s="38"/>
+      <c r="BA33" s="38"/>
+      <c r="BB33" s="38"/>
+      <c r="BC33" s="38"/>
+      <c r="BD33" s="38"/>
+      <c r="BE33" s="38"/>
+      <c r="BF33" s="38"/>
+      <c r="BG33" s="38"/>
+      <c r="BH33" s="38"/>
+      <c r="BI33" s="38"/>
+      <c r="BJ33" s="38"/>
+      <c r="BK33" s="38"/>
+      <c r="BL33" s="38"/>
+      <c r="BM33" s="38"/>
+      <c r="BN33" s="38"/>
+      <c r="BO33" s="38"/>
+      <c r="BP33" s="38"/>
+      <c r="BQ33" s="38"/>
+      <c r="BR33" s="38"/>
+      <c r="BS33" s="38"/>
+      <c r="BT33" s="38"/>
+      <c r="BU33" s="38"/>
+      <c r="BV33" s="38"/>
+      <c r="BW33" s="38"/>
+      <c r="BX33" s="38"/>
+      <c r="BY33" s="38"/>
+      <c r="BZ33" s="38"/>
+      <c r="CA33" s="38"/>
+      <c r="CB33" s="39"/>
+    </row>
+    <row r="34" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A34" s="37"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="38"/>
+      <c r="AC34" s="38"/>
+      <c r="AD34" s="38"/>
+      <c r="AE34" s="38"/>
+      <c r="AF34" s="38"/>
+      <c r="AG34" s="38"/>
+      <c r="AH34" s="38"/>
+      <c r="AI34" s="38"/>
+      <c r="AJ34" s="38"/>
+      <c r="AK34" s="38"/>
+      <c r="AL34" s="38"/>
+      <c r="AM34" s="38"/>
+      <c r="AN34" s="38"/>
+      <c r="AO34" s="38"/>
+      <c r="AP34" s="38"/>
+      <c r="AQ34" s="38"/>
+      <c r="AR34" s="38"/>
+      <c r="AS34" s="38"/>
+      <c r="AT34" s="38"/>
+      <c r="AU34" s="38"/>
+      <c r="AV34" s="38"/>
+      <c r="AW34" s="38"/>
+      <c r="AX34" s="38"/>
+      <c r="AY34" s="38"/>
+      <c r="AZ34" s="38"/>
+      <c r="BA34" s="38"/>
+      <c r="BB34" s="38"/>
+      <c r="BC34" s="38"/>
+      <c r="BD34" s="38"/>
+      <c r="BE34" s="38"/>
+      <c r="BF34" s="38"/>
+      <c r="BG34" s="38"/>
+      <c r="BH34" s="38"/>
+      <c r="BI34" s="38"/>
+      <c r="BJ34" s="38"/>
+      <c r="BK34" s="38"/>
+      <c r="BL34" s="38"/>
+      <c r="BM34" s="38"/>
+      <c r="BN34" s="38"/>
+      <c r="BO34" s="38"/>
+      <c r="BP34" s="38"/>
+      <c r="BQ34" s="38"/>
+      <c r="BR34" s="38"/>
+      <c r="BS34" s="38"/>
+      <c r="BT34" s="38"/>
+      <c r="BU34" s="38"/>
+      <c r="BV34" s="38"/>
+      <c r="BW34" s="38"/>
+      <c r="BX34" s="38"/>
+      <c r="BY34" s="38"/>
+      <c r="BZ34" s="38"/>
+      <c r="CA34" s="38"/>
+      <c r="CB34" s="39"/>
+    </row>
+    <row r="35" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A35" s="37"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="38"/>
+      <c r="Y35" s="38"/>
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="38"/>
+      <c r="AB35" s="38"/>
+      <c r="AC35" s="38"/>
+      <c r="AD35" s="38"/>
+      <c r="AE35" s="38"/>
+      <c r="AF35" s="38"/>
+      <c r="AG35" s="38"/>
+      <c r="AH35" s="38"/>
+      <c r="AI35" s="38"/>
+      <c r="AJ35" s="38"/>
+      <c r="AK35" s="38"/>
+      <c r="AL35" s="38"/>
+      <c r="AM35" s="38"/>
+      <c r="AN35" s="38"/>
+      <c r="AO35" s="38"/>
+      <c r="AP35" s="38"/>
+      <c r="AQ35" s="38"/>
+      <c r="AR35" s="38"/>
+      <c r="AS35" s="38"/>
+      <c r="AT35" s="38"/>
+      <c r="AU35" s="38"/>
+      <c r="AV35" s="38"/>
+      <c r="AW35" s="38"/>
+      <c r="AX35" s="38"/>
+      <c r="AY35" s="38"/>
+      <c r="AZ35" s="38"/>
+      <c r="BA35" s="38"/>
+      <c r="BB35" s="38"/>
+      <c r="BC35" s="38"/>
+      <c r="BD35" s="38"/>
+      <c r="BE35" s="38"/>
+      <c r="BF35" s="38"/>
+      <c r="BG35" s="38"/>
+      <c r="BH35" s="38"/>
+      <c r="BI35" s="38"/>
+      <c r="BJ35" s="38"/>
+      <c r="BK35" s="38"/>
+      <c r="BL35" s="38"/>
+      <c r="BM35" s="38"/>
+      <c r="BN35" s="38"/>
+      <c r="BO35" s="38"/>
+      <c r="BP35" s="38"/>
+      <c r="BQ35" s="38"/>
+      <c r="BR35" s="38"/>
+      <c r="BS35" s="38"/>
+      <c r="BT35" s="38"/>
+      <c r="BU35" s="38"/>
+      <c r="BV35" s="38"/>
+      <c r="BW35" s="38"/>
+      <c r="BX35" s="38"/>
+      <c r="BY35" s="38"/>
+      <c r="BZ35" s="38"/>
+      <c r="CA35" s="38"/>
+      <c r="CB35" s="39"/>
+    </row>
+    <row r="36" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A36" s="37"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="38"/>
+      <c r="Y36" s="38"/>
+      <c r="Z36" s="38"/>
+      <c r="AA36" s="38"/>
+      <c r="AB36" s="38"/>
+      <c r="AC36" s="38"/>
+      <c r="AD36" s="38"/>
+      <c r="AE36" s="38"/>
+      <c r="AF36" s="38"/>
+      <c r="AG36" s="38"/>
+      <c r="AH36" s="38"/>
+      <c r="AI36" s="38"/>
+      <c r="AJ36" s="38"/>
+      <c r="AK36" s="38"/>
+      <c r="AL36" s="38"/>
+      <c r="AM36" s="38"/>
+      <c r="AN36" s="38"/>
+      <c r="AO36" s="38"/>
+      <c r="AP36" s="38"/>
+      <c r="AQ36" s="38"/>
+      <c r="AR36" s="38"/>
+      <c r="AS36" s="38"/>
+      <c r="AT36" s="38"/>
+      <c r="AU36" s="38"/>
+      <c r="AV36" s="38"/>
+      <c r="AW36" s="38"/>
+      <c r="AX36" s="38"/>
+      <c r="AY36" s="38"/>
+      <c r="AZ36" s="38"/>
+      <c r="BA36" s="38"/>
+      <c r="BB36" s="38"/>
+      <c r="BC36" s="38"/>
+      <c r="BD36" s="38"/>
+      <c r="BE36" s="38"/>
+      <c r="BF36" s="38"/>
+      <c r="BG36" s="38"/>
+      <c r="BH36" s="38"/>
+      <c r="BI36" s="38"/>
+      <c r="BJ36" s="38"/>
+      <c r="BK36" s="38"/>
+      <c r="BL36" s="38"/>
+      <c r="BM36" s="38"/>
+      <c r="BN36" s="38"/>
+      <c r="BO36" s="38"/>
+      <c r="BP36" s="38"/>
+      <c r="BQ36" s="38"/>
+      <c r="BR36" s="38"/>
+      <c r="BS36" s="38"/>
+      <c r="BT36" s="38"/>
+      <c r="BU36" s="38"/>
+      <c r="BV36" s="38"/>
+      <c r="BW36" s="38"/>
+      <c r="BX36" s="38"/>
+      <c r="BY36" s="38"/>
+      <c r="BZ36" s="38"/>
+      <c r="CA36" s="38"/>
+      <c r="CB36" s="39"/>
+    </row>
+    <row r="37" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A37" s="37"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="38"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="38"/>
+      <c r="Y37" s="38"/>
+      <c r="Z37" s="38"/>
+      <c r="AA37" s="38"/>
+      <c r="AB37" s="38"/>
+      <c r="AC37" s="38"/>
+      <c r="AD37" s="38"/>
+      <c r="AE37" s="38"/>
+      <c r="AF37" s="38"/>
+      <c r="AG37" s="38"/>
+      <c r="AH37" s="38"/>
+      <c r="AI37" s="38"/>
+      <c r="AJ37" s="38"/>
+      <c r="AK37" s="38"/>
+      <c r="AL37" s="38"/>
+      <c r="AM37" s="38"/>
+      <c r="AN37" s="38"/>
+      <c r="AO37" s="38"/>
+      <c r="AP37" s="38"/>
+      <c r="AQ37" s="38"/>
+      <c r="AR37" s="38"/>
+      <c r="AS37" s="38"/>
+      <c r="AT37" s="38"/>
+      <c r="AU37" s="38"/>
+      <c r="AV37" s="38"/>
+      <c r="AW37" s="38"/>
+      <c r="AX37" s="38"/>
+      <c r="AY37" s="38"/>
+      <c r="AZ37" s="38"/>
+      <c r="BA37" s="38"/>
+      <c r="BB37" s="38"/>
+      <c r="BC37" s="38"/>
+      <c r="BD37" s="38"/>
+      <c r="BE37" s="38"/>
+      <c r="BF37" s="38"/>
+      <c r="BG37" s="38"/>
+      <c r="BH37" s="38"/>
+      <c r="BI37" s="38"/>
+      <c r="BJ37" s="38"/>
+      <c r="BK37" s="38"/>
+      <c r="BL37" s="38"/>
+      <c r="BM37" s="38"/>
+      <c r="BN37" s="38"/>
+      <c r="BO37" s="38"/>
+      <c r="BP37" s="38"/>
+      <c r="BQ37" s="38"/>
+      <c r="BR37" s="38"/>
+      <c r="BS37" s="38"/>
+      <c r="BT37" s="38"/>
+      <c r="BU37" s="38"/>
+      <c r="BV37" s="38"/>
+      <c r="BW37" s="38"/>
+      <c r="BX37" s="38"/>
+      <c r="BY37" s="38"/>
+      <c r="BZ37" s="38"/>
+      <c r="CA37" s="38"/>
+      <c r="CB37" s="39"/>
+    </row>
+    <row r="38" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A38" s="37"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="38"/>
+      <c r="Y38" s="38"/>
+      <c r="Z38" s="38"/>
+      <c r="AA38" s="38"/>
+      <c r="AB38" s="38"/>
+      <c r="AC38" s="38"/>
+      <c r="AD38" s="38"/>
+      <c r="AE38" s="38"/>
+      <c r="AF38" s="38"/>
+      <c r="AG38" s="38"/>
+      <c r="AH38" s="38"/>
+      <c r="AI38" s="38"/>
+      <c r="AJ38" s="38"/>
+      <c r="AK38" s="38"/>
+      <c r="AL38" s="38"/>
+      <c r="AM38" s="38"/>
+      <c r="AN38" s="38"/>
+      <c r="AO38" s="38"/>
+      <c r="AP38" s="38"/>
+      <c r="AQ38" s="38"/>
+      <c r="AR38" s="38"/>
+      <c r="AS38" s="38"/>
+      <c r="AT38" s="38"/>
+      <c r="AU38" s="38"/>
+      <c r="AV38" s="38"/>
+      <c r="AW38" s="38"/>
+      <c r="AX38" s="38"/>
+      <c r="AY38" s="38"/>
+      <c r="AZ38" s="38"/>
+      <c r="BA38" s="38"/>
+      <c r="BB38" s="38"/>
+      <c r="BC38" s="38"/>
+      <c r="BD38" s="38"/>
+      <c r="BE38" s="38"/>
+      <c r="BF38" s="38"/>
+      <c r="BG38" s="38"/>
+      <c r="BH38" s="38"/>
+      <c r="BI38" s="38"/>
+      <c r="BJ38" s="38"/>
+      <c r="BK38" s="38"/>
+      <c r="BL38" s="38"/>
+      <c r="BM38" s="38"/>
+      <c r="BN38" s="38"/>
+      <c r="BO38" s="38"/>
+      <c r="BP38" s="38"/>
+      <c r="BQ38" s="38"/>
+      <c r="BR38" s="38"/>
+      <c r="BS38" s="38"/>
+      <c r="BT38" s="38"/>
+      <c r="BU38" s="38"/>
+      <c r="BV38" s="38"/>
+      <c r="BW38" s="38"/>
+      <c r="BX38" s="38"/>
+      <c r="BY38" s="38"/>
+      <c r="BZ38" s="38"/>
+      <c r="CA38" s="38"/>
+      <c r="CB38" s="39"/>
+    </row>
+    <row r="39" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A39" s="37"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="38"/>
+      <c r="Z39" s="38"/>
+      <c r="AA39" s="38"/>
+      <c r="AB39" s="38"/>
+      <c r="AC39" s="38"/>
+      <c r="AD39" s="38"/>
+      <c r="AE39" s="38"/>
+      <c r="AF39" s="38"/>
+      <c r="AG39" s="38"/>
+      <c r="AH39" s="38"/>
+      <c r="AI39" s="38"/>
+      <c r="AJ39" s="38"/>
+      <c r="AK39" s="38"/>
+      <c r="AL39" s="38"/>
+      <c r="AM39" s="38"/>
+      <c r="AN39" s="38"/>
+      <c r="AO39" s="38"/>
+      <c r="AP39" s="38"/>
+      <c r="AQ39" s="38"/>
+      <c r="AR39" s="38"/>
+      <c r="AS39" s="38"/>
+      <c r="AT39" s="38"/>
+      <c r="AU39" s="38"/>
+      <c r="AV39" s="38"/>
+      <c r="AW39" s="38"/>
+      <c r="AX39" s="38"/>
+      <c r="AY39" s="38"/>
+      <c r="AZ39" s="38"/>
+      <c r="BA39" s="38"/>
+      <c r="BB39" s="38"/>
+      <c r="BC39" s="38"/>
+      <c r="BD39" s="38"/>
+      <c r="BE39" s="38"/>
+      <c r="BF39" s="38"/>
+      <c r="BG39" s="38"/>
+      <c r="BH39" s="38"/>
+      <c r="BI39" s="38"/>
+      <c r="BJ39" s="38"/>
+      <c r="BK39" s="38"/>
+      <c r="BL39" s="38"/>
+      <c r="BM39" s="38"/>
+      <c r="BN39" s="38"/>
+      <c r="BO39" s="38"/>
+      <c r="BP39" s="38"/>
+      <c r="BQ39" s="38"/>
+      <c r="BR39" s="38"/>
+      <c r="BS39" s="38"/>
+      <c r="BT39" s="38"/>
+      <c r="BU39" s="38"/>
+      <c r="BV39" s="38"/>
+      <c r="BW39" s="38"/>
+      <c r="BX39" s="38"/>
+      <c r="BY39" s="38"/>
+      <c r="BZ39" s="38"/>
+      <c r="CA39" s="38"/>
+      <c r="CB39" s="39"/>
+    </row>
+    <row r="40" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A40" s="37"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="38"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="38"/>
+      <c r="Y40" s="38"/>
+      <c r="Z40" s="38"/>
+      <c r="AA40" s="38"/>
+      <c r="AB40" s="38"/>
+      <c r="AC40" s="38"/>
+      <c r="AD40" s="38"/>
+      <c r="AE40" s="38"/>
+      <c r="AF40" s="38"/>
+      <c r="AG40" s="38"/>
+      <c r="AH40" s="38"/>
+      <c r="AI40" s="38"/>
+      <c r="AJ40" s="38"/>
+      <c r="AK40" s="38"/>
+      <c r="AL40" s="38"/>
+      <c r="AM40" s="38"/>
+      <c r="AN40" s="38"/>
+      <c r="AO40" s="38"/>
+      <c r="AP40" s="38"/>
+      <c r="AQ40" s="38"/>
+      <c r="AR40" s="38"/>
+      <c r="AS40" s="38"/>
+      <c r="AT40" s="38"/>
+      <c r="AU40" s="38"/>
+      <c r="AV40" s="38"/>
+      <c r="AW40" s="38"/>
+      <c r="AX40" s="38"/>
+      <c r="AY40" s="38"/>
+      <c r="AZ40" s="38"/>
+      <c r="BA40" s="38"/>
+      <c r="BB40" s="38"/>
+      <c r="BC40" s="38"/>
+      <c r="BD40" s="38"/>
+      <c r="BE40" s="38"/>
+      <c r="BF40" s="38"/>
+      <c r="BG40" s="38"/>
+      <c r="BH40" s="38"/>
+      <c r="BI40" s="38"/>
+      <c r="BJ40" s="38"/>
+      <c r="BK40" s="38"/>
+      <c r="BL40" s="38"/>
+      <c r="BM40" s="38"/>
+      <c r="BN40" s="38"/>
+      <c r="BO40" s="38"/>
+      <c r="BP40" s="38"/>
+      <c r="BQ40" s="38"/>
+      <c r="BR40" s="38"/>
+      <c r="BS40" s="38"/>
+      <c r="BT40" s="38"/>
+      <c r="BU40" s="38"/>
+      <c r="BV40" s="38"/>
+      <c r="BW40" s="38"/>
+      <c r="BX40" s="38"/>
+      <c r="BY40" s="38"/>
+      <c r="BZ40" s="38"/>
+      <c r="CA40" s="38"/>
+      <c r="CB40" s="39"/>
+    </row>
+    <row r="41" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A41" s="37"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="38"/>
+      <c r="W41" s="38"/>
+      <c r="X41" s="38"/>
+      <c r="Y41" s="38"/>
+      <c r="Z41" s="38"/>
+      <c r="AA41" s="38"/>
+      <c r="AB41" s="38"/>
+      <c r="AC41" s="38"/>
+      <c r="AD41" s="38"/>
+      <c r="AE41" s="38"/>
+      <c r="AF41" s="38"/>
+      <c r="AG41" s="38"/>
+      <c r="AH41" s="38"/>
+      <c r="AI41" s="38"/>
+      <c r="AJ41" s="38"/>
+      <c r="AK41" s="38"/>
+      <c r="AL41" s="38"/>
+      <c r="AM41" s="38"/>
+      <c r="AN41" s="38"/>
+      <c r="AO41" s="38"/>
+      <c r="AP41" s="38"/>
+      <c r="AQ41" s="38"/>
+      <c r="AR41" s="38"/>
+      <c r="AS41" s="38"/>
+      <c r="AT41" s="38"/>
+      <c r="AU41" s="38"/>
+      <c r="AV41" s="38"/>
+      <c r="AW41" s="38"/>
+      <c r="AX41" s="38"/>
+      <c r="AY41" s="38"/>
+      <c r="AZ41" s="38"/>
+      <c r="BA41" s="38"/>
+      <c r="BB41" s="38"/>
+      <c r="BC41" s="38"/>
+      <c r="BD41" s="38"/>
+      <c r="BE41" s="38"/>
+      <c r="BF41" s="38"/>
+      <c r="BG41" s="38"/>
+      <c r="BH41" s="38"/>
+      <c r="BI41" s="38"/>
+      <c r="BJ41" s="38"/>
+      <c r="BK41" s="38"/>
+      <c r="BL41" s="38"/>
+      <c r="BM41" s="38"/>
+      <c r="BN41" s="38"/>
+      <c r="BO41" s="38"/>
+      <c r="BP41" s="38"/>
+      <c r="BQ41" s="38"/>
+      <c r="BR41" s="38"/>
+      <c r="BS41" s="38"/>
+      <c r="BT41" s="38"/>
+      <c r="BU41" s="38"/>
+      <c r="BV41" s="38"/>
+      <c r="BW41" s="38"/>
+      <c r="BX41" s="38"/>
+      <c r="BY41" s="38"/>
+      <c r="BZ41" s="38"/>
+      <c r="CA41" s="38"/>
+      <c r="CB41" s="39"/>
+    </row>
+    <row r="42" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A42" s="37"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="38"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="38"/>
+      <c r="V42" s="38"/>
+      <c r="W42" s="38"/>
+      <c r="X42" s="38"/>
+      <c r="Y42" s="38"/>
+      <c r="Z42" s="38"/>
+      <c r="AA42" s="38"/>
+      <c r="AB42" s="38"/>
+      <c r="AC42" s="38"/>
+      <c r="AD42" s="38"/>
+      <c r="AE42" s="38"/>
+      <c r="AF42" s="38"/>
+      <c r="AG42" s="38"/>
+      <c r="AH42" s="38"/>
+      <c r="AI42" s="38"/>
+      <c r="AJ42" s="38"/>
+      <c r="AK42" s="38"/>
+      <c r="AL42" s="38"/>
+      <c r="AM42" s="38"/>
+      <c r="AN42" s="38"/>
+      <c r="AO42" s="38"/>
+      <c r="AP42" s="38"/>
+      <c r="AQ42" s="38"/>
+      <c r="AR42" s="38"/>
+      <c r="AS42" s="38"/>
+      <c r="AT42" s="38"/>
+      <c r="AU42" s="38"/>
+      <c r="AV42" s="38"/>
+      <c r="AW42" s="38"/>
+      <c r="AX42" s="38"/>
+      <c r="AY42" s="38"/>
+      <c r="AZ42" s="38"/>
+      <c r="BA42" s="38"/>
+      <c r="BB42" s="38"/>
+      <c r="BC42" s="38"/>
+      <c r="BD42" s="38"/>
+      <c r="BE42" s="38"/>
+      <c r="BF42" s="38"/>
+      <c r="BG42" s="38"/>
+      <c r="BH42" s="38"/>
+      <c r="BI42" s="38"/>
+      <c r="BJ42" s="38"/>
+      <c r="BK42" s="38"/>
+      <c r="BL42" s="38"/>
+      <c r="BM42" s="38"/>
+      <c r="BN42" s="38"/>
+      <c r="BO42" s="38"/>
+      <c r="BP42" s="38"/>
+      <c r="BQ42" s="38"/>
+      <c r="BR42" s="38"/>
+      <c r="BS42" s="38"/>
+      <c r="BT42" s="38"/>
+      <c r="BU42" s="38"/>
+      <c r="BV42" s="38"/>
+      <c r="BW42" s="38"/>
+      <c r="BX42" s="38"/>
+      <c r="BY42" s="38"/>
+      <c r="BZ42" s="38"/>
+      <c r="CA42" s="38"/>
+      <c r="CB42" s="39"/>
+    </row>
+    <row r="43" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A43" s="37"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="38"/>
+      <c r="U43" s="38"/>
+      <c r="V43" s="38"/>
+      <c r="W43" s="38"/>
+      <c r="X43" s="38"/>
+      <c r="Y43" s="38"/>
+      <c r="Z43" s="38"/>
+      <c r="AA43" s="38"/>
+      <c r="AB43" s="38"/>
+      <c r="AC43" s="38"/>
+      <c r="AD43" s="38"/>
+      <c r="AE43" s="38"/>
+      <c r="AF43" s="38"/>
+      <c r="AG43" s="38"/>
+      <c r="AH43" s="38"/>
+      <c r="AI43" s="38"/>
+      <c r="AJ43" s="38"/>
+      <c r="AK43" s="38"/>
+      <c r="AL43" s="38"/>
+      <c r="AM43" s="38"/>
+      <c r="AN43" s="38"/>
+      <c r="AO43" s="38"/>
+      <c r="AP43" s="38"/>
+      <c r="AQ43" s="38"/>
+      <c r="AR43" s="38"/>
+      <c r="AS43" s="38"/>
+      <c r="AT43" s="38"/>
+      <c r="AU43" s="38"/>
+      <c r="AV43" s="38"/>
+      <c r="AW43" s="38"/>
+      <c r="AX43" s="38"/>
+      <c r="AY43" s="38"/>
+      <c r="AZ43" s="38"/>
+      <c r="BA43" s="38"/>
+      <c r="BB43" s="38"/>
+      <c r="BC43" s="38"/>
+      <c r="BD43" s="38"/>
+      <c r="BE43" s="38"/>
+      <c r="BF43" s="38"/>
+      <c r="BG43" s="38"/>
+      <c r="BH43" s="38"/>
+      <c r="BI43" s="38"/>
+      <c r="BJ43" s="38"/>
+      <c r="BK43" s="38"/>
+      <c r="BL43" s="38"/>
+      <c r="BM43" s="38"/>
+      <c r="BN43" s="38"/>
+      <c r="BO43" s="38"/>
+      <c r="BP43" s="38"/>
+      <c r="BQ43" s="38"/>
+      <c r="BR43" s="38"/>
+      <c r="BS43" s="38"/>
+      <c r="BT43" s="38"/>
+      <c r="BU43" s="38"/>
+      <c r="BV43" s="38"/>
+      <c r="BW43" s="38"/>
+      <c r="BX43" s="38"/>
+      <c r="BY43" s="38"/>
+      <c r="BZ43" s="38"/>
+      <c r="CA43" s="38"/>
+      <c r="CB43" s="39"/>
+    </row>
+    <row r="44" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A44" s="37"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="38"/>
+      <c r="R44" s="38"/>
+      <c r="S44" s="38"/>
+      <c r="T44" s="38"/>
+      <c r="U44" s="38"/>
+      <c r="V44" s="38"/>
+      <c r="W44" s="38"/>
+      <c r="X44" s="38"/>
+      <c r="Y44" s="38"/>
+      <c r="Z44" s="38"/>
+      <c r="AA44" s="38"/>
+      <c r="AB44" s="38"/>
+      <c r="AC44" s="38"/>
+      <c r="AD44" s="38"/>
+      <c r="AE44" s="38"/>
+      <c r="AF44" s="38"/>
+      <c r="AG44" s="38"/>
+      <c r="AH44" s="38"/>
+      <c r="AI44" s="38"/>
+      <c r="AJ44" s="38"/>
+      <c r="AK44" s="38"/>
+      <c r="AL44" s="38"/>
+      <c r="AM44" s="38"/>
+      <c r="AN44" s="38"/>
+      <c r="AO44" s="38"/>
+      <c r="AP44" s="38"/>
+      <c r="AQ44" s="38"/>
+      <c r="AR44" s="38"/>
+      <c r="AS44" s="38"/>
+      <c r="AT44" s="38"/>
+      <c r="AU44" s="38"/>
+      <c r="AV44" s="38"/>
+      <c r="AW44" s="38"/>
+      <c r="AX44" s="38"/>
+      <c r="AY44" s="38"/>
+      <c r="AZ44" s="38"/>
+      <c r="BA44" s="38"/>
+      <c r="BB44" s="38"/>
+      <c r="BC44" s="38"/>
+      <c r="BD44" s="38"/>
+      <c r="BE44" s="38"/>
+      <c r="BF44" s="38"/>
+      <c r="BG44" s="38"/>
+      <c r="BH44" s="38"/>
+      <c r="BI44" s="38"/>
+      <c r="BJ44" s="38"/>
+      <c r="BK44" s="38"/>
+      <c r="BL44" s="38"/>
+      <c r="BM44" s="38"/>
+      <c r="BN44" s="38"/>
+      <c r="BO44" s="38"/>
+      <c r="BP44" s="38"/>
+      <c r="BQ44" s="38"/>
+      <c r="BR44" s="38"/>
+      <c r="BS44" s="38"/>
+      <c r="BT44" s="38"/>
+      <c r="BU44" s="38"/>
+      <c r="BV44" s="38"/>
+      <c r="BW44" s="38"/>
+      <c r="BX44" s="38"/>
+      <c r="BY44" s="38"/>
+      <c r="BZ44" s="38"/>
+      <c r="CA44" s="38"/>
+      <c r="CB44" s="39"/>
+    </row>
+    <row r="45" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A45" s="40"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="41"/>
+      <c r="T45" s="41"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="41"/>
+      <c r="W45" s="41"/>
+      <c r="X45" s="41"/>
+      <c r="Y45" s="41"/>
+      <c r="Z45" s="41"/>
+      <c r="AA45" s="41"/>
+      <c r="AB45" s="41"/>
+      <c r="AC45" s="41"/>
+      <c r="AD45" s="41"/>
+      <c r="AE45" s="41"/>
+      <c r="AF45" s="41"/>
+      <c r="AG45" s="41"/>
+      <c r="AH45" s="41"/>
+      <c r="AI45" s="41"/>
+      <c r="AJ45" s="41"/>
+      <c r="AK45" s="41"/>
+      <c r="AL45" s="41"/>
+      <c r="AM45" s="41"/>
+      <c r="AN45" s="41"/>
+      <c r="AO45" s="41"/>
+      <c r="AP45" s="41"/>
+      <c r="AQ45" s="41"/>
+      <c r="AR45" s="41"/>
+      <c r="AS45" s="41"/>
+      <c r="AT45" s="41"/>
+      <c r="AU45" s="41"/>
+      <c r="AV45" s="41"/>
+      <c r="AW45" s="41"/>
+      <c r="AX45" s="41"/>
+      <c r="AY45" s="41"/>
+      <c r="AZ45" s="41"/>
+      <c r="BA45" s="41"/>
+      <c r="BB45" s="41"/>
+      <c r="BC45" s="41"/>
+      <c r="BD45" s="41"/>
+      <c r="BE45" s="41"/>
+      <c r="BF45" s="41"/>
+      <c r="BG45" s="41"/>
+      <c r="BH45" s="41"/>
+      <c r="BI45" s="41"/>
+      <c r="BJ45" s="41"/>
+      <c r="BK45" s="41"/>
+      <c r="BL45" s="41"/>
+      <c r="BM45" s="41"/>
+      <c r="BN45" s="41"/>
+      <c r="BO45" s="41"/>
+      <c r="BP45" s="41"/>
+      <c r="BQ45" s="41"/>
+      <c r="BR45" s="41"/>
+      <c r="BS45" s="41"/>
+      <c r="BT45" s="41"/>
+      <c r="BU45" s="41"/>
+      <c r="BV45" s="41"/>
+      <c r="BW45" s="41"/>
+      <c r="BX45" s="41"/>
+      <c r="BY45" s="41"/>
+      <c r="BZ45" s="41"/>
+      <c r="CA45" s="41"/>
+      <c r="CB45" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="X3:BZ5"/>
+    <mergeCell ref="BG9:BZ11"/>
+    <mergeCell ref="C3:V5"/>
+    <mergeCell ref="C9:L11"/>
+    <mergeCell ref="M9:V11"/>
+    <mergeCell ref="W9:AK11"/>
+    <mergeCell ref="AL9:AN11"/>
+    <mergeCell ref="AO9:AQ11"/>
+    <mergeCell ref="AR9:BF11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7499,12 +10337,12 @@
     <row r="19" spans="1:21">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -7524,10 +10362,10 @@
     <row r="20" spans="1:21">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>

--- a/test2/レイアウト.xlsx
+++ b/test2/レイアウト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7084F89-7E6E-4B48-9742-F766977A27CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60EDD3F-B805-44FC-ABD8-4E22E5BE0429}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>フィールド名</t>
     <rPh sb="5" eb="6">
@@ -100,35 +100,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>対象テーブル</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ツリービューで指定されたテーブル</t>
-    <rPh sb="7" eb="9">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>条件１</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フィールド</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hogehoge</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>に</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -140,14 +111,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fugafuga</t>
+    <t>フィールド</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>を含むレコード</t>
+    <t>を持つレコード</t>
     <rPh sb="1" eb="2">
-      <t>フク</t>
+      <t>モ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>または</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AND</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -178,15 +161,33 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -354,11 +355,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -446,6 +484,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -463,24 +519,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -501,43 +539,75 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1444,6 +1514,876 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>35721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>96656</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>96659</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="二等辺三角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90180D19-82DA-4F54-8C67-65CE0C3AB024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9203531" y="2297909"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>35721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>96656</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>96659</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="二等辺三角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33244A5B-324B-4E90-8936-A37B8E549A53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="9203531" y="2059784"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>35721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>96656</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>96659</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="二等辺三角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8716EBB-6C0B-4433-9025-BA77E3A2C1A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9203531" y="1107284"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>35721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>96656</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>96659</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="二等辺三角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79D3017B-F549-4835-8CF7-05B8D3FA78C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2536031" y="2297909"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>35721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>96656</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>96659</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="二等辺三角形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D22B9A9-C5AA-418B-8FBC-3BA1E8D82ABA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8965406" y="1821659"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>35721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>96656</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>96659</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="二等辺三角形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17749BC0-0826-40AB-B361-9766E6D1523C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="9203531" y="1583534"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>35721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>96656</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>96659</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="二等辺三角形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB08D95-F1E2-4C30-9722-C78DBC76D3E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9203531" y="392909"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>35721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>96656</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>96659</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="二等辺三角形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0311198E-8726-4ACC-93B1-2799CE0A8DD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2536031" y="1821659"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="楕円 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F2EFEC9-FC0F-4668-B569-479F123765A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6310313" y="238125"/>
+          <a:ext cx="238125" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="楕円 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14E29CE2-CEC5-4C9D-8F0A-74BCAB073C35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6310313" y="238125"/>
+          <a:ext cx="238125" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="楕円 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B3D632B-CEF9-477B-BFB9-6F41860B8A10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6310313" y="238125"/>
+          <a:ext cx="238125" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="楕円 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C4A79B-6C9D-4A58-BD60-7B393DAAAC1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2500313" y="833438"/>
+          <a:ext cx="238125" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="楕円 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E942F3EE-6389-4D95-AA03-78C1CB70195C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6310313" y="833438"/>
+          <a:ext cx="238125" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1863,12 +2803,12 @@
     <row r="7" spans="1:21">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="19"/>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
@@ -1888,10 +2828,10 @@
     <row r="8" spans="1:21">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="26"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
@@ -1911,12 +2851,12 @@
     <row r="9" spans="1:21">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="19"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -1936,10 +2876,10 @@
     <row r="10" spans="1:21">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="26"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
@@ -1959,12 +2899,12 @@
     <row r="11" spans="1:21">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="51"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="19"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
@@ -1984,10 +2924,10 @@
     <row r="12" spans="1:21">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
       <c r="G12" s="26"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
@@ -2159,12 +3099,12 @@
     <row r="19" spans="1:21">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -2174,22 +3114,22 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="43" t="s">
+      <c r="P19" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="45"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="51"/>
       <c r="T19" s="6"/>
       <c r="U19" s="7"/>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="48"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -2199,10 +3139,10 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="48"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="54"/>
       <c r="T20" s="6"/>
       <c r="U20" s="7"/>
     </row>
@@ -6368,10 +7308,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3E7DCE-2AE7-4B77-9D5A-4CDC761170F1}">
-  <dimension ref="A1:CB45"/>
+  <dimension ref="A1:CB66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AO9" sqref="AO9:AQ11"/>
+      <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="9.9499999999999993" customHeight="1"/>
@@ -6399,7 +7339,7 @@
       <c r="Q1" s="35"/>
       <c r="R1" s="35"/>
       <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
+      <c r="T1" s="36"/>
       <c r="U1" s="35"/>
       <c r="V1" s="35"/>
       <c r="W1" s="35"/>
@@ -6481,7 +7421,7 @@
       <c r="Q2" s="38"/>
       <c r="R2" s="38"/>
       <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
+      <c r="T2" s="39"/>
       <c r="U2" s="38"/>
       <c r="V2" s="38"/>
       <c r="W2" s="38"/>
@@ -6546,251 +7486,215 @@
     <row r="3" spans="1:80" ht="9.9499999999999993" customHeight="1">
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AP3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="64" t="s">
+      <c r="AQ3" s="88"/>
+      <c r="AR3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="65"/>
-      <c r="AR3" s="65"/>
-      <c r="AS3" s="65"/>
-      <c r="AT3" s="65"/>
-      <c r="AU3" s="65"/>
-      <c r="AV3" s="65"/>
-      <c r="AW3" s="65"/>
-      <c r="AX3" s="65"/>
-      <c r="AY3" s="65"/>
-      <c r="AZ3" s="65"/>
-      <c r="BA3" s="65"/>
-      <c r="BB3" s="65"/>
-      <c r="BC3" s="65"/>
-      <c r="BD3" s="65"/>
-      <c r="BE3" s="65"/>
-      <c r="BF3" s="65"/>
-      <c r="BG3" s="65"/>
-      <c r="BH3" s="65"/>
-      <c r="BI3" s="65"/>
-      <c r="BJ3" s="65"/>
-      <c r="BK3" s="65"/>
-      <c r="BL3" s="65"/>
-      <c r="BM3" s="65"/>
-      <c r="BN3" s="65"/>
-      <c r="BO3" s="65"/>
-      <c r="BP3" s="65"/>
-      <c r="BQ3" s="65"/>
-      <c r="BR3" s="65"/>
-      <c r="BS3" s="65"/>
-      <c r="BT3" s="65"/>
-      <c r="BU3" s="65"/>
-      <c r="BV3" s="65"/>
-      <c r="BW3" s="65"/>
-      <c r="BX3" s="65"/>
-      <c r="BY3" s="65"/>
-      <c r="BZ3" s="66"/>
-      <c r="CA3" s="38"/>
+      <c r="AS3" s="89"/>
+      <c r="BB3" s="93"/>
+      <c r="BC3" s="93"/>
+      <c r="BD3" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE3" s="90"/>
+      <c r="BF3" s="90"/>
+      <c r="BG3" s="90"/>
+      <c r="BH3" s="90"/>
+      <c r="BI3" s="90"/>
+      <c r="BJ3" s="90"/>
+      <c r="BK3" s="90"/>
+      <c r="BL3" s="90"/>
+      <c r="BM3" s="90"/>
+      <c r="BN3" s="90"/>
+      <c r="BO3" s="90"/>
+      <c r="BP3" s="90"/>
+      <c r="BQ3" s="90"/>
+      <c r="BR3" s="90"/>
+      <c r="BS3" s="90"/>
+      <c r="BT3" s="90"/>
+      <c r="BU3" s="90"/>
+      <c r="BV3" s="90"/>
+      <c r="BW3" s="90"/>
+      <c r="BX3" s="90"/>
+      <c r="BY3" s="90"/>
+      <c r="BZ3" s="90"/>
+      <c r="CA3" s="90"/>
       <c r="CB3" s="39"/>
     </row>
     <row r="4" spans="1:80" ht="9.9499999999999993" customHeight="1">
       <c r="A4" s="37"/>
       <c r="B4" s="38"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="63"/>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="63"/>
-      <c r="AL4" s="63"/>
-      <c r="AM4" s="63"/>
-      <c r="AN4" s="63"/>
-      <c r="AO4" s="63"/>
-      <c r="AP4" s="63"/>
-      <c r="AQ4" s="63"/>
-      <c r="AR4" s="63"/>
-      <c r="AS4" s="63"/>
-      <c r="AT4" s="63"/>
-      <c r="AU4" s="63"/>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="63"/>
-      <c r="AZ4" s="63"/>
-      <c r="BA4" s="63"/>
-      <c r="BB4" s="63"/>
-      <c r="BC4" s="63"/>
-      <c r="BD4" s="63"/>
-      <c r="BE4" s="63"/>
-      <c r="BF4" s="63"/>
-      <c r="BG4" s="63"/>
-      <c r="BH4" s="63"/>
-      <c r="BI4" s="63"/>
-      <c r="BJ4" s="63"/>
-      <c r="BK4" s="63"/>
-      <c r="BL4" s="63"/>
-      <c r="BM4" s="63"/>
-      <c r="BN4" s="63"/>
-      <c r="BO4" s="63"/>
-      <c r="BP4" s="63"/>
-      <c r="BQ4" s="63"/>
-      <c r="BR4" s="63"/>
-      <c r="BS4" s="63"/>
-      <c r="BT4" s="63"/>
-      <c r="BU4" s="63"/>
-      <c r="BV4" s="63"/>
-      <c r="BW4" s="63"/>
-      <c r="BX4" s="63"/>
-      <c r="BY4" s="63"/>
-      <c r="BZ4" s="68"/>
-      <c r="CA4" s="38"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="91"/>
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="88"/>
+      <c r="AR4" s="89"/>
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="41"/>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="41"/>
+      <c r="AX4" s="41"/>
+      <c r="AY4" s="41"/>
+      <c r="AZ4" s="41"/>
+      <c r="BA4" s="41"/>
+      <c r="BB4" s="66"/>
+      <c r="BC4" s="66"/>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="90"/>
+      <c r="BF4" s="90"/>
+      <c r="BG4" s="90"/>
+      <c r="BH4" s="90"/>
+      <c r="BI4" s="90"/>
+      <c r="BJ4" s="90"/>
+      <c r="BK4" s="90"/>
+      <c r="BL4" s="90"/>
+      <c r="BM4" s="90"/>
+      <c r="BN4" s="90"/>
+      <c r="BO4" s="90"/>
+      <c r="BP4" s="90"/>
+      <c r="BQ4" s="90"/>
+      <c r="BR4" s="90"/>
+      <c r="BS4" s="90"/>
+      <c r="BT4" s="90"/>
+      <c r="BU4" s="90"/>
+      <c r="BV4" s="90"/>
+      <c r="BW4" s="90"/>
+      <c r="BX4" s="90"/>
+      <c r="BY4" s="90"/>
+      <c r="BZ4" s="90"/>
+      <c r="CA4" s="90"/>
       <c r="CB4" s="39"/>
     </row>
     <row r="5" spans="1:80" ht="9.9499999999999993" customHeight="1">
       <c r="A5" s="37"/>
       <c r="B5" s="38"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="70"/>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="70"/>
-      <c r="AD5" s="70"/>
-      <c r="AE5" s="70"/>
-      <c r="AF5" s="70"/>
-      <c r="AG5" s="70"/>
-      <c r="AH5" s="70"/>
-      <c r="AI5" s="70"/>
-      <c r="AJ5" s="70"/>
-      <c r="AK5" s="70"/>
-      <c r="AL5" s="70"/>
-      <c r="AM5" s="70"/>
-      <c r="AN5" s="70"/>
-      <c r="AO5" s="70"/>
-      <c r="AP5" s="70"/>
-      <c r="AQ5" s="70"/>
-      <c r="AR5" s="70"/>
-      <c r="AS5" s="70"/>
-      <c r="AT5" s="70"/>
-      <c r="AU5" s="70"/>
-      <c r="AV5" s="70"/>
-      <c r="AW5" s="70"/>
-      <c r="AX5" s="70"/>
-      <c r="AY5" s="70"/>
-      <c r="AZ5" s="70"/>
-      <c r="BA5" s="70"/>
-      <c r="BB5" s="70"/>
-      <c r="BC5" s="70"/>
-      <c r="BD5" s="70"/>
-      <c r="BE5" s="70"/>
-      <c r="BF5" s="70"/>
-      <c r="BG5" s="70"/>
-      <c r="BH5" s="70"/>
-      <c r="BI5" s="70"/>
-      <c r="BJ5" s="70"/>
-      <c r="BK5" s="70"/>
-      <c r="BL5" s="70"/>
-      <c r="BM5" s="70"/>
-      <c r="BN5" s="70"/>
-      <c r="BO5" s="70"/>
-      <c r="BP5" s="70"/>
-      <c r="BQ5" s="70"/>
-      <c r="BR5" s="70"/>
-      <c r="BS5" s="70"/>
-      <c r="BT5" s="70"/>
-      <c r="BU5" s="70"/>
-      <c r="BV5" s="70"/>
-      <c r="BW5" s="70"/>
-      <c r="BX5" s="70"/>
-      <c r="BY5" s="70"/>
-      <c r="BZ5" s="71"/>
-      <c r="CA5" s="38"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="64"/>
+      <c r="AP5" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ5" s="91"/>
+      <c r="AR5" s="91"/>
+      <c r="AS5" s="91"/>
+      <c r="BB5" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC5" s="89"/>
+      <c r="BD5" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE5" s="90"/>
+      <c r="BF5" s="90"/>
+      <c r="BG5" s="90"/>
+      <c r="BH5" s="90"/>
+      <c r="BI5" s="90"/>
+      <c r="BJ5" s="90"/>
+      <c r="BK5" s="90"/>
+      <c r="BL5" s="90"/>
+      <c r="BM5" s="90"/>
+      <c r="BN5" s="90"/>
+      <c r="BO5" s="90"/>
+      <c r="BP5" s="90"/>
+      <c r="BQ5" s="90"/>
+      <c r="BR5" s="90"/>
+      <c r="BS5" s="90"/>
+      <c r="BT5" s="90"/>
+      <c r="BU5" s="90"/>
+      <c r="BV5" s="90"/>
+      <c r="BW5" s="90"/>
+      <c r="BX5" s="90"/>
+      <c r="BY5" s="90"/>
+      <c r="BZ5" s="90"/>
+      <c r="CA5" s="90"/>
       <c r="CB5" s="39"/>
     </row>
     <row r="6" spans="1:80" ht="9.9499999999999993" customHeight="1">
@@ -6813,66 +7717,46 @@
       <c r="Q6" s="38"/>
       <c r="R6" s="38"/>
       <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
+      <c r="T6" s="39"/>
       <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="38"/>
-      <c r="AN6" s="38"/>
-      <c r="AO6" s="38"/>
-      <c r="AP6" s="38"/>
-      <c r="AQ6" s="38"/>
-      <c r="AR6" s="38"/>
-      <c r="AS6" s="38"/>
-      <c r="AT6" s="38"/>
-      <c r="AU6" s="38"/>
-      <c r="AV6" s="38"/>
-      <c r="AW6" s="38"/>
-      <c r="AX6" s="38"/>
-      <c r="AY6" s="38"/>
-      <c r="AZ6" s="38"/>
-      <c r="BA6" s="38"/>
-      <c r="BB6" s="38"/>
-      <c r="BC6" s="38"/>
-      <c r="BD6" s="38"/>
-      <c r="BE6" s="38"/>
-      <c r="BF6" s="38"/>
-      <c r="BG6" s="38"/>
-      <c r="BH6" s="38"/>
-      <c r="BI6" s="38"/>
-      <c r="BJ6" s="38"/>
-      <c r="BK6" s="38"/>
-      <c r="BL6" s="38"/>
-      <c r="BM6" s="38"/>
-      <c r="BN6" s="38"/>
-      <c r="BO6" s="38"/>
-      <c r="BP6" s="38"/>
-      <c r="BQ6" s="38"/>
-      <c r="BR6" s="38"/>
-      <c r="BS6" s="38"/>
-      <c r="BT6" s="38"/>
-      <c r="BU6" s="38"/>
-      <c r="BV6" s="38"/>
-      <c r="BW6" s="38"/>
-      <c r="BX6" s="38"/>
-      <c r="BY6" s="38"/>
-      <c r="BZ6" s="38"/>
-      <c r="CA6" s="38"/>
+      <c r="AP6" s="91"/>
+      <c r="AQ6" s="91"/>
+      <c r="AR6" s="91"/>
+      <c r="AS6" s="91"/>
+      <c r="AT6" s="41"/>
+      <c r="AU6" s="41"/>
+      <c r="AV6" s="41"/>
+      <c r="AW6" s="41"/>
+      <c r="AX6" s="41"/>
+      <c r="AY6" s="41"/>
+      <c r="AZ6" s="41"/>
+      <c r="BA6" s="41"/>
+      <c r="BB6" s="92"/>
+      <c r="BC6" s="92"/>
+      <c r="BD6" s="90"/>
+      <c r="BE6" s="90"/>
+      <c r="BF6" s="90"/>
+      <c r="BG6" s="90"/>
+      <c r="BH6" s="90"/>
+      <c r="BI6" s="90"/>
+      <c r="BJ6" s="90"/>
+      <c r="BK6" s="90"/>
+      <c r="BL6" s="90"/>
+      <c r="BM6" s="90"/>
+      <c r="BN6" s="90"/>
+      <c r="BO6" s="90"/>
+      <c r="BP6" s="90"/>
+      <c r="BQ6" s="90"/>
+      <c r="BR6" s="90"/>
+      <c r="BS6" s="90"/>
+      <c r="BT6" s="90"/>
+      <c r="BU6" s="90"/>
+      <c r="BV6" s="90"/>
+      <c r="BW6" s="90"/>
+      <c r="BX6" s="90"/>
+      <c r="BY6" s="90"/>
+      <c r="BZ6" s="90"/>
+      <c r="CA6" s="90"/>
       <c r="CB6" s="39"/>
     </row>
     <row r="7" spans="1:80" ht="9.9499999999999993" customHeight="1">
@@ -6895,66 +7779,8 @@
       <c r="Q7" s="38"/>
       <c r="R7" s="38"/>
       <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
+      <c r="T7" s="39"/>
       <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="38"/>
-      <c r="AQ7" s="38"/>
-      <c r="AR7" s="38"/>
-      <c r="AS7" s="38"/>
-      <c r="AT7" s="38"/>
-      <c r="AU7" s="38"/>
-      <c r="AV7" s="38"/>
-      <c r="AW7" s="38"/>
-      <c r="AX7" s="38"/>
-      <c r="AY7" s="38"/>
-      <c r="AZ7" s="38"/>
-      <c r="BA7" s="38"/>
-      <c r="BB7" s="38"/>
-      <c r="BC7" s="38"/>
-      <c r="BD7" s="38"/>
-      <c r="BE7" s="38"/>
-      <c r="BF7" s="38"/>
-      <c r="BG7" s="38"/>
-      <c r="BH7" s="38"/>
-      <c r="BI7" s="38"/>
-      <c r="BJ7" s="38"/>
-      <c r="BK7" s="38"/>
-      <c r="BL7" s="38"/>
-      <c r="BM7" s="38"/>
-      <c r="BN7" s="38"/>
-      <c r="BO7" s="38"/>
-      <c r="BP7" s="38"/>
-      <c r="BQ7" s="38"/>
-      <c r="BR7" s="38"/>
-      <c r="BS7" s="38"/>
-      <c r="BT7" s="38"/>
-      <c r="BU7" s="38"/>
-      <c r="BV7" s="38"/>
-      <c r="BW7" s="38"/>
-      <c r="BX7" s="38"/>
-      <c r="BY7" s="38"/>
-      <c r="BZ7" s="38"/>
-      <c r="CA7" s="38"/>
       <c r="CB7" s="39"/>
     </row>
     <row r="8" spans="1:80" ht="9.9499999999999993" customHeight="1">
@@ -6977,326 +7803,242 @@
       <c r="Q8" s="38"/>
       <c r="R8" s="38"/>
       <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
+      <c r="T8" s="39"/>
       <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="38"/>
-      <c r="AI8" s="38"/>
-      <c r="AJ8" s="38"/>
-      <c r="AK8" s="38"/>
-      <c r="AL8" s="38"/>
-      <c r="AM8" s="38"/>
-      <c r="AN8" s="38"/>
-      <c r="AO8" s="38"/>
-      <c r="AP8" s="38"/>
-      <c r="AQ8" s="38"/>
-      <c r="AR8" s="38"/>
-      <c r="AS8" s="38"/>
-      <c r="AT8" s="38"/>
-      <c r="AU8" s="38"/>
-      <c r="AV8" s="38"/>
-      <c r="AW8" s="38"/>
-      <c r="AX8" s="38"/>
-      <c r="AY8" s="38"/>
-      <c r="AZ8" s="38"/>
-      <c r="BA8" s="38"/>
-      <c r="BB8" s="38"/>
-      <c r="BC8" s="38"/>
-      <c r="BD8" s="38"/>
-      <c r="BE8" s="38"/>
-      <c r="BF8" s="38"/>
-      <c r="BG8" s="38"/>
-      <c r="BH8" s="38"/>
-      <c r="BI8" s="38"/>
-      <c r="BJ8" s="38"/>
-      <c r="BK8" s="38"/>
-      <c r="BL8" s="38"/>
-      <c r="BM8" s="38"/>
-      <c r="BN8" s="38"/>
-      <c r="BO8" s="38"/>
-      <c r="BP8" s="38"/>
-      <c r="BQ8" s="38"/>
-      <c r="BR8" s="38"/>
-      <c r="BS8" s="38"/>
-      <c r="BT8" s="38"/>
-      <c r="BU8" s="38"/>
-      <c r="BV8" s="38"/>
-      <c r="BW8" s="38"/>
-      <c r="BX8" s="38"/>
-      <c r="BY8" s="38"/>
-      <c r="BZ8" s="38"/>
-      <c r="CA8" s="38"/>
+      <c r="V8" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="W8" s="61"/>
+      <c r="X8" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="91"/>
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="91"/>
+      <c r="AC8" s="91"/>
+      <c r="AD8" s="91"/>
+      <c r="AE8" s="91"/>
+      <c r="AP8" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ8" s="88"/>
+      <c r="AR8" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS8" s="89"/>
+      <c r="BB8" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC8" s="89"/>
+      <c r="BD8" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE8" s="90"/>
+      <c r="BF8" s="90"/>
+      <c r="BG8" s="90"/>
+      <c r="BH8" s="90"/>
+      <c r="BI8" s="90"/>
+      <c r="BJ8" s="90"/>
+      <c r="BK8" s="90"/>
+      <c r="BL8" s="90"/>
+      <c r="BM8" s="90"/>
+      <c r="BN8" s="90"/>
+      <c r="BO8" s="90"/>
+      <c r="BP8" s="90"/>
+      <c r="BQ8" s="90"/>
+      <c r="BR8" s="90"/>
+      <c r="BS8" s="90"/>
+      <c r="BT8" s="90"/>
+      <c r="BU8" s="90"/>
+      <c r="BV8" s="90"/>
+      <c r="BW8" s="90"/>
+      <c r="BX8" s="90"/>
+      <c r="BY8" s="90"/>
+      <c r="BZ8" s="90"/>
+      <c r="CA8" s="90"/>
       <c r="CB8" s="39"/>
     </row>
     <row r="9" spans="1:80" ht="9.9499999999999993" customHeight="1">
       <c r="A9" s="37"/>
       <c r="B9" s="38"/>
-      <c r="C9" s="72" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="61"/>
-      <c r="AA9" s="61"/>
-      <c r="AB9" s="61"/>
-      <c r="AC9" s="61"/>
-      <c r="AD9" s="61"/>
-      <c r="AE9" s="61"/>
-      <c r="AF9" s="61"/>
-      <c r="AG9" s="61"/>
-      <c r="AH9" s="61"/>
-      <c r="AI9" s="61"/>
-      <c r="AJ9" s="61"/>
-      <c r="AK9" s="61"/>
-      <c r="AL9" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM9" s="62"/>
-      <c r="AN9" s="62"/>
-      <c r="AO9" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP9" s="62"/>
-      <c r="AQ9" s="62"/>
-      <c r="AR9" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="AS9" s="61"/>
-      <c r="AT9" s="61"/>
-      <c r="AU9" s="61"/>
-      <c r="AV9" s="61"/>
-      <c r="AW9" s="61"/>
-      <c r="AX9" s="61"/>
-      <c r="AY9" s="61"/>
-      <c r="AZ9" s="61"/>
-      <c r="BA9" s="61"/>
-      <c r="BB9" s="61"/>
-      <c r="BC9" s="61"/>
-      <c r="BD9" s="61"/>
-      <c r="BE9" s="61"/>
-      <c r="BF9" s="61"/>
-      <c r="BG9" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="BH9" s="63"/>
-      <c r="BI9" s="63"/>
-      <c r="BJ9" s="63"/>
-      <c r="BK9" s="63"/>
-      <c r="BL9" s="63"/>
-      <c r="BM9" s="63"/>
-      <c r="BN9" s="63"/>
-      <c r="BO9" s="63"/>
-      <c r="BP9" s="63"/>
-      <c r="BQ9" s="63"/>
-      <c r="BR9" s="63"/>
-      <c r="BS9" s="63"/>
-      <c r="BT9" s="63"/>
-      <c r="BU9" s="63"/>
-      <c r="BV9" s="63"/>
-      <c r="BW9" s="63"/>
-      <c r="BX9" s="63"/>
-      <c r="BY9" s="63"/>
-      <c r="BZ9" s="63"/>
-      <c r="CA9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="91"/>
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="91"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="91"/>
+      <c r="AD9" s="91"/>
+      <c r="AE9" s="91"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="41"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="41"/>
+      <c r="AK9" s="41"/>
+      <c r="AL9" s="41"/>
+      <c r="AM9" s="41"/>
+      <c r="AN9" s="41"/>
+      <c r="AO9" s="41"/>
+      <c r="AP9" s="88"/>
+      <c r="AQ9" s="88"/>
+      <c r="AR9" s="89"/>
+      <c r="AS9" s="89"/>
+      <c r="AT9" s="41"/>
+      <c r="AU9" s="41"/>
+      <c r="AV9" s="41"/>
+      <c r="AW9" s="41"/>
+      <c r="AX9" s="41"/>
+      <c r="AY9" s="41"/>
+      <c r="AZ9" s="41"/>
+      <c r="BA9" s="41"/>
+      <c r="BB9" s="92"/>
+      <c r="BC9" s="92"/>
+      <c r="BD9" s="90"/>
+      <c r="BE9" s="90"/>
+      <c r="BF9" s="90"/>
+      <c r="BG9" s="90"/>
+      <c r="BH9" s="90"/>
+      <c r="BI9" s="90"/>
+      <c r="BJ9" s="90"/>
+      <c r="BK9" s="90"/>
+      <c r="BL9" s="90"/>
+      <c r="BM9" s="90"/>
+      <c r="BN9" s="90"/>
+      <c r="BO9" s="90"/>
+      <c r="BP9" s="90"/>
+      <c r="BQ9" s="90"/>
+      <c r="BR9" s="90"/>
+      <c r="BS9" s="90"/>
+      <c r="BT9" s="90"/>
+      <c r="BU9" s="90"/>
+      <c r="BV9" s="90"/>
+      <c r="BW9" s="90"/>
+      <c r="BX9" s="90"/>
+      <c r="BY9" s="90"/>
+      <c r="BZ9" s="90"/>
+      <c r="CA9" s="90"/>
       <c r="CB9" s="39"/>
     </row>
     <row r="10" spans="1:80" ht="9.9499999999999993" customHeight="1">
       <c r="A10" s="37"/>
       <c r="B10" s="38"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="61"/>
-      <c r="AA10" s="61"/>
-      <c r="AB10" s="61"/>
-      <c r="AC10" s="61"/>
-      <c r="AD10" s="61"/>
-      <c r="AE10" s="61"/>
-      <c r="AF10" s="61"/>
-      <c r="AG10" s="61"/>
-      <c r="AH10" s="61"/>
-      <c r="AI10" s="61"/>
-      <c r="AJ10" s="61"/>
-      <c r="AK10" s="61"/>
-      <c r="AL10" s="62"/>
-      <c r="AM10" s="62"/>
-      <c r="AN10" s="62"/>
-      <c r="AO10" s="62"/>
-      <c r="AP10" s="62"/>
-      <c r="AQ10" s="62"/>
-      <c r="AR10" s="61"/>
-      <c r="AS10" s="61"/>
-      <c r="AT10" s="61"/>
-      <c r="AU10" s="61"/>
-      <c r="AV10" s="61"/>
-      <c r="AW10" s="61"/>
-      <c r="AX10" s="61"/>
-      <c r="AY10" s="61"/>
-      <c r="AZ10" s="61"/>
-      <c r="BA10" s="61"/>
-      <c r="BB10" s="61"/>
-      <c r="BC10" s="61"/>
-      <c r="BD10" s="61"/>
-      <c r="BE10" s="61"/>
-      <c r="BF10" s="61"/>
-      <c r="BG10" s="63"/>
-      <c r="BH10" s="63"/>
-      <c r="BI10" s="63"/>
-      <c r="BJ10" s="63"/>
-      <c r="BK10" s="63"/>
-      <c r="BL10" s="63"/>
-      <c r="BM10" s="63"/>
-      <c r="BN10" s="63"/>
-      <c r="BO10" s="63"/>
-      <c r="BP10" s="63"/>
-      <c r="BQ10" s="63"/>
-      <c r="BR10" s="63"/>
-      <c r="BS10" s="63"/>
-      <c r="BT10" s="63"/>
-      <c r="BU10" s="63"/>
-      <c r="BV10" s="63"/>
-      <c r="BW10" s="63"/>
-      <c r="BX10" s="63"/>
-      <c r="BY10" s="63"/>
-      <c r="BZ10" s="63"/>
-      <c r="CA10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="38"/>
       <c r="CB10" s="39"/>
     </row>
     <row r="11" spans="1:80" ht="9.9499999999999993" customHeight="1">
       <c r="A11" s="37"/>
       <c r="B11" s="38"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="73"/>
-      <c r="AA11" s="73"/>
-      <c r="AB11" s="73"/>
-      <c r="AC11" s="73"/>
-      <c r="AD11" s="73"/>
-      <c r="AE11" s="73"/>
-      <c r="AF11" s="73"/>
-      <c r="AG11" s="73"/>
-      <c r="AH11" s="73"/>
-      <c r="AI11" s="73"/>
-      <c r="AJ11" s="73"/>
-      <c r="AK11" s="73"/>
-      <c r="AL11" s="62"/>
-      <c r="AM11" s="62"/>
-      <c r="AN11" s="62"/>
-      <c r="AO11" s="62"/>
-      <c r="AP11" s="62"/>
-      <c r="AQ11" s="62"/>
-      <c r="AR11" s="73"/>
-      <c r="AS11" s="73"/>
-      <c r="AT11" s="73"/>
-      <c r="AU11" s="73"/>
-      <c r="AV11" s="73"/>
-      <c r="AW11" s="73"/>
-      <c r="AX11" s="73"/>
-      <c r="AY11" s="73"/>
-      <c r="AZ11" s="73"/>
-      <c r="BA11" s="73"/>
-      <c r="BB11" s="73"/>
-      <c r="BC11" s="73"/>
-      <c r="BD11" s="73"/>
-      <c r="BE11" s="73"/>
-      <c r="BF11" s="73"/>
-      <c r="BG11" s="63"/>
-      <c r="BH11" s="63"/>
-      <c r="BI11" s="63"/>
-      <c r="BJ11" s="63"/>
-      <c r="BK11" s="63"/>
-      <c r="BL11" s="63"/>
-      <c r="BM11" s="63"/>
-      <c r="BN11" s="63"/>
-      <c r="BO11" s="63"/>
-      <c r="BP11" s="63"/>
-      <c r="BQ11" s="63"/>
-      <c r="BR11" s="63"/>
-      <c r="BS11" s="63"/>
-      <c r="BT11" s="63"/>
-      <c r="BU11" s="63"/>
-      <c r="BV11" s="63"/>
-      <c r="BW11" s="63"/>
-      <c r="BX11" s="63"/>
-      <c r="BY11" s="63"/>
-      <c r="BZ11" s="63"/>
-      <c r="CA11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="W11" s="61"/>
+      <c r="X11" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y11" s="91"/>
+      <c r="Z11" s="91"/>
+      <c r="AA11" s="91"/>
+      <c r="AB11" s="91"/>
+      <c r="AC11" s="91"/>
+      <c r="AD11" s="91"/>
+      <c r="AE11" s="91"/>
+      <c r="AP11" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ11" s="88"/>
+      <c r="AR11" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS11" s="89"/>
+      <c r="BB11" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC11" s="89"/>
+      <c r="BD11" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE11" s="90"/>
+      <c r="BF11" s="90"/>
+      <c r="BG11" s="90"/>
+      <c r="BH11" s="90"/>
+      <c r="BI11" s="90"/>
+      <c r="BJ11" s="90"/>
+      <c r="BK11" s="90"/>
+      <c r="BL11" s="90"/>
+      <c r="BM11" s="90"/>
+      <c r="BN11" s="90"/>
+      <c r="BO11" s="90"/>
+      <c r="BP11" s="90"/>
+      <c r="BQ11" s="90"/>
+      <c r="BR11" s="90"/>
+      <c r="BS11" s="90"/>
+      <c r="BT11" s="90"/>
+      <c r="BU11" s="90"/>
+      <c r="BV11" s="90"/>
+      <c r="BW11" s="90"/>
+      <c r="BX11" s="90"/>
+      <c r="BY11" s="90"/>
+      <c r="BZ11" s="90"/>
+      <c r="CA11" s="90"/>
       <c r="CB11" s="39"/>
     </row>
     <row r="12" spans="1:80" ht="9.9499999999999993" customHeight="1">
@@ -7319,66 +8061,66 @@
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
       <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
+      <c r="T12" s="39"/>
       <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="38"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="38"/>
-      <c r="AI12" s="38"/>
-      <c r="AJ12" s="38"/>
-      <c r="AK12" s="38"/>
-      <c r="AL12" s="38"/>
-      <c r="AM12" s="38"/>
-      <c r="AN12" s="38"/>
-      <c r="AO12" s="38"/>
-      <c r="AP12" s="38"/>
-      <c r="AQ12" s="38"/>
-      <c r="AR12" s="38"/>
-      <c r="AS12" s="38"/>
-      <c r="AT12" s="38"/>
-      <c r="AU12" s="38"/>
-      <c r="AV12" s="38"/>
-      <c r="AW12" s="38"/>
-      <c r="AX12" s="38"/>
-      <c r="AY12" s="38"/>
-      <c r="AZ12" s="38"/>
-      <c r="BA12" s="38"/>
-      <c r="BB12" s="38"/>
-      <c r="BC12" s="38"/>
-      <c r="BD12" s="38"/>
-      <c r="BE12" s="38"/>
-      <c r="BF12" s="38"/>
-      <c r="BG12" s="38"/>
-      <c r="BH12" s="38"/>
-      <c r="BI12" s="38"/>
-      <c r="BJ12" s="38"/>
-      <c r="BK12" s="38"/>
-      <c r="BL12" s="38"/>
-      <c r="BM12" s="38"/>
-      <c r="BN12" s="38"/>
-      <c r="BO12" s="38"/>
-      <c r="BP12" s="38"/>
-      <c r="BQ12" s="38"/>
-      <c r="BR12" s="38"/>
-      <c r="BS12" s="38"/>
-      <c r="BT12" s="38"/>
-      <c r="BU12" s="38"/>
-      <c r="BV12" s="38"/>
-      <c r="BW12" s="38"/>
-      <c r="BX12" s="38"/>
-      <c r="BY12" s="38"/>
-      <c r="BZ12" s="38"/>
-      <c r="CA12" s="38"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="91"/>
+      <c r="Y12" s="91"/>
+      <c r="Z12" s="91"/>
+      <c r="AA12" s="91"/>
+      <c r="AB12" s="91"/>
+      <c r="AC12" s="91"/>
+      <c r="AD12" s="91"/>
+      <c r="AE12" s="91"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="41"/>
+      <c r="AI12" s="41"/>
+      <c r="AJ12" s="41"/>
+      <c r="AK12" s="41"/>
+      <c r="AL12" s="41"/>
+      <c r="AM12" s="41"/>
+      <c r="AN12" s="41"/>
+      <c r="AO12" s="41"/>
+      <c r="AP12" s="88"/>
+      <c r="AQ12" s="88"/>
+      <c r="AR12" s="89"/>
+      <c r="AS12" s="89"/>
+      <c r="AT12" s="41"/>
+      <c r="AU12" s="41"/>
+      <c r="AV12" s="41"/>
+      <c r="AW12" s="41"/>
+      <c r="AX12" s="41"/>
+      <c r="AY12" s="41"/>
+      <c r="AZ12" s="41"/>
+      <c r="BA12" s="41"/>
+      <c r="BB12" s="92"/>
+      <c r="BC12" s="92"/>
+      <c r="BD12" s="90"/>
+      <c r="BE12" s="90"/>
+      <c r="BF12" s="90"/>
+      <c r="BG12" s="90"/>
+      <c r="BH12" s="90"/>
+      <c r="BI12" s="90"/>
+      <c r="BJ12" s="90"/>
+      <c r="BK12" s="90"/>
+      <c r="BL12" s="90"/>
+      <c r="BM12" s="90"/>
+      <c r="BN12" s="90"/>
+      <c r="BO12" s="90"/>
+      <c r="BP12" s="90"/>
+      <c r="BQ12" s="90"/>
+      <c r="BR12" s="90"/>
+      <c r="BS12" s="90"/>
+      <c r="BT12" s="90"/>
+      <c r="BU12" s="90"/>
+      <c r="BV12" s="90"/>
+      <c r="BW12" s="90"/>
+      <c r="BX12" s="90"/>
+      <c r="BY12" s="90"/>
+      <c r="BZ12" s="90"/>
+      <c r="CA12" s="90"/>
       <c r="CB12" s="39"/>
     </row>
     <row r="13" spans="1:80" ht="9.9499999999999993" customHeight="1">
@@ -7395,8 +8137,14 @@
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
-      <c r="BZ13" s="38"/>
-      <c r="CA13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="38"/>
       <c r="CB13" s="39"/>
     </row>
     <row r="14" spans="1:80" ht="9.9499999999999993" customHeight="1">
@@ -7413,8 +8161,14 @@
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
-      <c r="BZ14" s="38"/>
-      <c r="CA14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="38"/>
       <c r="CB14" s="39"/>
     </row>
     <row r="15" spans="1:80" ht="9.9499999999999993" customHeight="1">
@@ -7431,8 +8185,14 @@
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
-      <c r="BZ15" s="38"/>
-      <c r="CA15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="38"/>
       <c r="CB15" s="39"/>
     </row>
     <row r="16" spans="1:80" ht="9.9499999999999993" customHeight="1">
@@ -7455,56 +8215,8 @@
       <c r="Q16" s="38"/>
       <c r="R16" s="38"/>
       <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
+      <c r="T16" s="39"/>
       <c r="U16" s="38"/>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="38"/>
-      <c r="AH16" s="38"/>
-      <c r="AI16" s="38"/>
-      <c r="AJ16" s="38"/>
-      <c r="AK16" s="38"/>
-      <c r="AL16" s="38"/>
-      <c r="AM16" s="38"/>
-      <c r="AN16" s="38"/>
-      <c r="AO16" s="38"/>
-      <c r="AP16" s="38"/>
-      <c r="AQ16" s="38"/>
-      <c r="AR16" s="38"/>
-      <c r="AS16" s="38"/>
-      <c r="AT16" s="38"/>
-      <c r="AU16" s="38"/>
-      <c r="AV16" s="38"/>
-      <c r="AW16" s="38"/>
-      <c r="AX16" s="38"/>
-      <c r="AY16" s="38"/>
-      <c r="AZ16" s="38"/>
-      <c r="BA16" s="38"/>
-      <c r="BB16" s="38"/>
-      <c r="BC16" s="38"/>
-      <c r="BD16" s="38"/>
-      <c r="BE16" s="38"/>
-      <c r="BF16" s="38"/>
-      <c r="BG16" s="38"/>
-      <c r="BH16" s="38"/>
-      <c r="BI16" s="38"/>
-      <c r="BJ16" s="38"/>
-      <c r="BK16" s="38"/>
-      <c r="BL16" s="38"/>
-      <c r="BM16" s="38"/>
-      <c r="BN16" s="38"/>
-      <c r="BO16" s="38"/>
-      <c r="BP16" s="38"/>
-      <c r="BQ16" s="38"/>
-      <c r="BR16" s="38"/>
-      <c r="BS16" s="38"/>
-      <c r="BT16" s="38"/>
-      <c r="BU16" s="38"/>
-      <c r="BV16" s="38"/>
-      <c r="BW16" s="38"/>
-      <c r="BX16" s="38"/>
-      <c r="BY16" s="38"/>
-      <c r="BZ16" s="38"/>
-      <c r="CA16" s="38"/>
       <c r="CB16" s="39"/>
     </row>
     <row r="17" spans="1:80" ht="9.9499999999999993" customHeight="1">
@@ -7527,66 +8239,8 @@
       <c r="Q17" s="38"/>
       <c r="R17" s="38"/>
       <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
+      <c r="T17" s="39"/>
       <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="38"/>
-      <c r="AE17" s="38"/>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="38"/>
-      <c r="AI17" s="38"/>
-      <c r="AJ17" s="38"/>
-      <c r="AK17" s="38"/>
-      <c r="AL17" s="38"/>
-      <c r="AM17" s="38"/>
-      <c r="AN17" s="38"/>
-      <c r="AO17" s="38"/>
-      <c r="AP17" s="38"/>
-      <c r="AQ17" s="38"/>
-      <c r="AR17" s="38"/>
-      <c r="AS17" s="38"/>
-      <c r="AT17" s="38"/>
-      <c r="AU17" s="38"/>
-      <c r="AV17" s="38"/>
-      <c r="AW17" s="38"/>
-      <c r="AX17" s="38"/>
-      <c r="AY17" s="38"/>
-      <c r="AZ17" s="38"/>
-      <c r="BA17" s="38"/>
-      <c r="BB17" s="38"/>
-      <c r="BC17" s="38"/>
-      <c r="BD17" s="38"/>
-      <c r="BE17" s="38"/>
-      <c r="BF17" s="38"/>
-      <c r="BG17" s="38"/>
-      <c r="BH17" s="38"/>
-      <c r="BI17" s="38"/>
-      <c r="BJ17" s="38"/>
-      <c r="BK17" s="38"/>
-      <c r="BL17" s="38"/>
-      <c r="BM17" s="38"/>
-      <c r="BN17" s="38"/>
-      <c r="BO17" s="38"/>
-      <c r="BP17" s="38"/>
-      <c r="BQ17" s="38"/>
-      <c r="BR17" s="38"/>
-      <c r="BS17" s="38"/>
-      <c r="BT17" s="38"/>
-      <c r="BU17" s="38"/>
-      <c r="BV17" s="38"/>
-      <c r="BW17" s="38"/>
-      <c r="BX17" s="38"/>
-      <c r="BY17" s="38"/>
-      <c r="BZ17" s="38"/>
-      <c r="CA17" s="38"/>
       <c r="CB17" s="39"/>
     </row>
     <row r="18" spans="1:80" ht="9.9499999999999993" customHeight="1">
@@ -7609,66 +8263,8 @@
       <c r="Q18" s="38"/>
       <c r="R18" s="38"/>
       <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
+      <c r="T18" s="39"/>
       <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="38"/>
-      <c r="AG18" s="38"/>
-      <c r="AH18" s="38"/>
-      <c r="AI18" s="38"/>
-      <c r="AJ18" s="38"/>
-      <c r="AK18" s="38"/>
-      <c r="AL18" s="38"/>
-      <c r="AM18" s="38"/>
-      <c r="AN18" s="38"/>
-      <c r="AO18" s="38"/>
-      <c r="AP18" s="38"/>
-      <c r="AQ18" s="38"/>
-      <c r="AR18" s="38"/>
-      <c r="AS18" s="38"/>
-      <c r="AT18" s="38"/>
-      <c r="AU18" s="38"/>
-      <c r="AV18" s="38"/>
-      <c r="AW18" s="38"/>
-      <c r="AX18" s="38"/>
-      <c r="AY18" s="38"/>
-      <c r="AZ18" s="38"/>
-      <c r="BA18" s="38"/>
-      <c r="BB18" s="38"/>
-      <c r="BC18" s="38"/>
-      <c r="BD18" s="38"/>
-      <c r="BE18" s="38"/>
-      <c r="BF18" s="38"/>
-      <c r="BG18" s="38"/>
-      <c r="BH18" s="38"/>
-      <c r="BI18" s="38"/>
-      <c r="BJ18" s="38"/>
-      <c r="BK18" s="38"/>
-      <c r="BL18" s="38"/>
-      <c r="BM18" s="38"/>
-      <c r="BN18" s="38"/>
-      <c r="BO18" s="38"/>
-      <c r="BP18" s="38"/>
-      <c r="BQ18" s="38"/>
-      <c r="BR18" s="38"/>
-      <c r="BS18" s="38"/>
-      <c r="BT18" s="38"/>
-      <c r="BU18" s="38"/>
-      <c r="BV18" s="38"/>
-      <c r="BW18" s="38"/>
-      <c r="BX18" s="38"/>
-      <c r="BY18" s="38"/>
-      <c r="BZ18" s="38"/>
-      <c r="CA18" s="38"/>
       <c r="CB18" s="39"/>
     </row>
     <row r="19" spans="1:80" ht="9.9499999999999993" customHeight="1">
@@ -7691,66 +8287,8 @@
       <c r="Q19" s="38"/>
       <c r="R19" s="38"/>
       <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
+      <c r="T19" s="39"/>
       <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="38"/>
-      <c r="AH19" s="38"/>
-      <c r="AI19" s="38"/>
-      <c r="AJ19" s="38"/>
-      <c r="AK19" s="38"/>
-      <c r="AL19" s="38"/>
-      <c r="AM19" s="38"/>
-      <c r="AN19" s="38"/>
-      <c r="AO19" s="38"/>
-      <c r="AP19" s="38"/>
-      <c r="AQ19" s="38"/>
-      <c r="AR19" s="38"/>
-      <c r="AS19" s="38"/>
-      <c r="AT19" s="38"/>
-      <c r="AU19" s="38"/>
-      <c r="AV19" s="38"/>
-      <c r="AW19" s="38"/>
-      <c r="AX19" s="38"/>
-      <c r="AY19" s="38"/>
-      <c r="AZ19" s="38"/>
-      <c r="BA19" s="38"/>
-      <c r="BB19" s="38"/>
-      <c r="BC19" s="38"/>
-      <c r="BD19" s="38"/>
-      <c r="BE19" s="38"/>
-      <c r="BF19" s="38"/>
-      <c r="BG19" s="38"/>
-      <c r="BH19" s="38"/>
-      <c r="BI19" s="38"/>
-      <c r="BJ19" s="38"/>
-      <c r="BK19" s="38"/>
-      <c r="BL19" s="38"/>
-      <c r="BM19" s="38"/>
-      <c r="BN19" s="38"/>
-      <c r="BO19" s="38"/>
-      <c r="BP19" s="38"/>
-      <c r="BQ19" s="38"/>
-      <c r="BR19" s="38"/>
-      <c r="BS19" s="38"/>
-      <c r="BT19" s="38"/>
-      <c r="BU19" s="38"/>
-      <c r="BV19" s="38"/>
-      <c r="BW19" s="38"/>
-      <c r="BX19" s="38"/>
-      <c r="BY19" s="38"/>
-      <c r="BZ19" s="38"/>
-      <c r="CA19" s="38"/>
       <c r="CB19" s="39"/>
     </row>
     <row r="20" spans="1:80" ht="9.9499999999999993" customHeight="1">
@@ -7773,66 +8311,8 @@
       <c r="Q20" s="38"/>
       <c r="R20" s="38"/>
       <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
+      <c r="T20" s="39"/>
       <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="38"/>
-      <c r="AE20" s="38"/>
-      <c r="AF20" s="38"/>
-      <c r="AG20" s="38"/>
-      <c r="AH20" s="38"/>
-      <c r="AI20" s="38"/>
-      <c r="AJ20" s="38"/>
-      <c r="AK20" s="38"/>
-      <c r="AL20" s="38"/>
-      <c r="AM20" s="38"/>
-      <c r="AN20" s="38"/>
-      <c r="AO20" s="38"/>
-      <c r="AP20" s="38"/>
-      <c r="AQ20" s="38"/>
-      <c r="AR20" s="38"/>
-      <c r="AS20" s="38"/>
-      <c r="AT20" s="38"/>
-      <c r="AU20" s="38"/>
-      <c r="AV20" s="38"/>
-      <c r="AW20" s="38"/>
-      <c r="AX20" s="38"/>
-      <c r="AY20" s="38"/>
-      <c r="AZ20" s="38"/>
-      <c r="BA20" s="38"/>
-      <c r="BB20" s="38"/>
-      <c r="BC20" s="38"/>
-      <c r="BD20" s="38"/>
-      <c r="BE20" s="38"/>
-      <c r="BF20" s="38"/>
-      <c r="BG20" s="38"/>
-      <c r="BH20" s="38"/>
-      <c r="BI20" s="38"/>
-      <c r="BJ20" s="38"/>
-      <c r="BK20" s="38"/>
-      <c r="BL20" s="38"/>
-      <c r="BM20" s="38"/>
-      <c r="BN20" s="38"/>
-      <c r="BO20" s="38"/>
-      <c r="BP20" s="38"/>
-      <c r="BQ20" s="38"/>
-      <c r="BR20" s="38"/>
-      <c r="BS20" s="38"/>
-      <c r="BT20" s="38"/>
-      <c r="BU20" s="38"/>
-      <c r="BV20" s="38"/>
-      <c r="BW20" s="38"/>
-      <c r="BX20" s="38"/>
-      <c r="BY20" s="38"/>
-      <c r="BZ20" s="38"/>
-      <c r="CA20" s="38"/>
       <c r="CB20" s="39"/>
     </row>
     <row r="21" spans="1:80" ht="9.9499999999999993" customHeight="1">
@@ -7855,66 +8335,8 @@
       <c r="Q21" s="38"/>
       <c r="R21" s="38"/>
       <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
+      <c r="T21" s="39"/>
       <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="38"/>
-      <c r="AE21" s="38"/>
-      <c r="AF21" s="38"/>
-      <c r="AG21" s="38"/>
-      <c r="AH21" s="38"/>
-      <c r="AI21" s="38"/>
-      <c r="AJ21" s="38"/>
-      <c r="AK21" s="38"/>
-      <c r="AL21" s="38"/>
-      <c r="AM21" s="38"/>
-      <c r="AN21" s="38"/>
-      <c r="AO21" s="38"/>
-      <c r="AP21" s="38"/>
-      <c r="AQ21" s="38"/>
-      <c r="AR21" s="38"/>
-      <c r="AS21" s="38"/>
-      <c r="AT21" s="38"/>
-      <c r="AU21" s="38"/>
-      <c r="AV21" s="38"/>
-      <c r="AW21" s="38"/>
-      <c r="AX21" s="38"/>
-      <c r="AY21" s="38"/>
-      <c r="AZ21" s="38"/>
-      <c r="BA21" s="38"/>
-      <c r="BB21" s="38"/>
-      <c r="BC21" s="38"/>
-      <c r="BD21" s="38"/>
-      <c r="BE21" s="38"/>
-      <c r="BF21" s="38"/>
-      <c r="BG21" s="38"/>
-      <c r="BH21" s="38"/>
-      <c r="BI21" s="38"/>
-      <c r="BJ21" s="38"/>
-      <c r="BK21" s="38"/>
-      <c r="BL21" s="38"/>
-      <c r="BM21" s="38"/>
-      <c r="BN21" s="38"/>
-      <c r="BO21" s="38"/>
-      <c r="BP21" s="38"/>
-      <c r="BQ21" s="38"/>
-      <c r="BR21" s="38"/>
-      <c r="BS21" s="38"/>
-      <c r="BT21" s="38"/>
-      <c r="BU21" s="38"/>
-      <c r="BV21" s="38"/>
-      <c r="BW21" s="38"/>
-      <c r="BX21" s="38"/>
-      <c r="BY21" s="38"/>
-      <c r="BZ21" s="38"/>
-      <c r="CA21" s="38"/>
       <c r="CB21" s="39"/>
     </row>
     <row r="22" spans="1:80" ht="9.9499999999999993" customHeight="1">
@@ -7937,66 +8359,8 @@
       <c r="Q22" s="38"/>
       <c r="R22" s="38"/>
       <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
+      <c r="T22" s="39"/>
       <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="38"/>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="38"/>
-      <c r="AE22" s="38"/>
-      <c r="AF22" s="38"/>
-      <c r="AG22" s="38"/>
-      <c r="AH22" s="38"/>
-      <c r="AI22" s="38"/>
-      <c r="AJ22" s="38"/>
-      <c r="AK22" s="38"/>
-      <c r="AL22" s="38"/>
-      <c r="AM22" s="38"/>
-      <c r="AN22" s="38"/>
-      <c r="AO22" s="38"/>
-      <c r="AP22" s="38"/>
-      <c r="AQ22" s="38"/>
-      <c r="AR22" s="38"/>
-      <c r="AS22" s="38"/>
-      <c r="AT22" s="38"/>
-      <c r="AU22" s="38"/>
-      <c r="AV22" s="38"/>
-      <c r="AW22" s="38"/>
-      <c r="AX22" s="38"/>
-      <c r="AY22" s="38"/>
-      <c r="AZ22" s="38"/>
-      <c r="BA22" s="38"/>
-      <c r="BB22" s="38"/>
-      <c r="BC22" s="38"/>
-      <c r="BD22" s="38"/>
-      <c r="BE22" s="38"/>
-      <c r="BF22" s="38"/>
-      <c r="BG22" s="38"/>
-      <c r="BH22" s="38"/>
-      <c r="BI22" s="38"/>
-      <c r="BJ22" s="38"/>
-      <c r="BK22" s="38"/>
-      <c r="BL22" s="38"/>
-      <c r="BM22" s="38"/>
-      <c r="BN22" s="38"/>
-      <c r="BO22" s="38"/>
-      <c r="BP22" s="38"/>
-      <c r="BQ22" s="38"/>
-      <c r="BR22" s="38"/>
-      <c r="BS22" s="38"/>
-      <c r="BT22" s="38"/>
-      <c r="BU22" s="38"/>
-      <c r="BV22" s="38"/>
-      <c r="BW22" s="38"/>
-      <c r="BX22" s="38"/>
-      <c r="BY22" s="38"/>
-      <c r="BZ22" s="38"/>
-      <c r="CA22" s="38"/>
       <c r="CB22" s="39"/>
     </row>
     <row r="23" spans="1:80" ht="9.9499999999999993" customHeight="1">
@@ -8019,66 +8383,8 @@
       <c r="Q23" s="38"/>
       <c r="R23" s="38"/>
       <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
+      <c r="T23" s="39"/>
       <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="38"/>
-      <c r="AE23" s="38"/>
-      <c r="AF23" s="38"/>
-      <c r="AG23" s="38"/>
-      <c r="AH23" s="38"/>
-      <c r="AI23" s="38"/>
-      <c r="AJ23" s="38"/>
-      <c r="AK23" s="38"/>
-      <c r="AL23" s="38"/>
-      <c r="AM23" s="38"/>
-      <c r="AN23" s="38"/>
-      <c r="AO23" s="38"/>
-      <c r="AP23" s="38"/>
-      <c r="AQ23" s="38"/>
-      <c r="AR23" s="38"/>
-      <c r="AS23" s="38"/>
-      <c r="AT23" s="38"/>
-      <c r="AU23" s="38"/>
-      <c r="AV23" s="38"/>
-      <c r="AW23" s="38"/>
-      <c r="AX23" s="38"/>
-      <c r="AY23" s="38"/>
-      <c r="AZ23" s="38"/>
-      <c r="BA23" s="38"/>
-      <c r="BB23" s="38"/>
-      <c r="BC23" s="38"/>
-      <c r="BD23" s="38"/>
-      <c r="BE23" s="38"/>
-      <c r="BF23" s="38"/>
-      <c r="BG23" s="38"/>
-      <c r="BH23" s="38"/>
-      <c r="BI23" s="38"/>
-      <c r="BJ23" s="38"/>
-      <c r="BK23" s="38"/>
-      <c r="BL23" s="38"/>
-      <c r="BM23" s="38"/>
-      <c r="BN23" s="38"/>
-      <c r="BO23" s="38"/>
-      <c r="BP23" s="38"/>
-      <c r="BQ23" s="38"/>
-      <c r="BR23" s="38"/>
-      <c r="BS23" s="38"/>
-      <c r="BT23" s="38"/>
-      <c r="BU23" s="38"/>
-      <c r="BV23" s="38"/>
-      <c r="BW23" s="38"/>
-      <c r="BX23" s="38"/>
-      <c r="BY23" s="38"/>
-      <c r="BZ23" s="38"/>
-      <c r="CA23" s="38"/>
       <c r="CB23" s="39"/>
     </row>
     <row r="24" spans="1:80" ht="9.9499999999999993" customHeight="1">
@@ -8101,7 +8407,7 @@
       <c r="Q24" s="38"/>
       <c r="R24" s="38"/>
       <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
+      <c r="T24" s="39"/>
       <c r="U24" s="38"/>
       <c r="V24" s="38"/>
       <c r="W24" s="38"/>
@@ -8183,7 +8489,7 @@
       <c r="Q25" s="38"/>
       <c r="R25" s="38"/>
       <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
+      <c r="T25" s="39"/>
       <c r="U25" s="38"/>
       <c r="V25" s="38"/>
       <c r="W25" s="38"/>
@@ -8265,7 +8571,7 @@
       <c r="Q26" s="38"/>
       <c r="R26" s="38"/>
       <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
+      <c r="T26" s="39"/>
       <c r="U26" s="38"/>
       <c r="V26" s="38"/>
       <c r="W26" s="38"/>
@@ -8347,7 +8653,7 @@
       <c r="Q27" s="38"/>
       <c r="R27" s="38"/>
       <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
+      <c r="T27" s="39"/>
       <c r="U27" s="38"/>
       <c r="V27" s="38"/>
       <c r="W27" s="38"/>
@@ -8429,66 +8735,66 @@
       <c r="Q28" s="38"/>
       <c r="R28" s="38"/>
       <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
+      <c r="T28" s="39"/>
       <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="38"/>
-      <c r="AB28" s="38"/>
-      <c r="AC28" s="38"/>
-      <c r="AD28" s="38"/>
-      <c r="AE28" s="38"/>
-      <c r="AF28" s="38"/>
-      <c r="AG28" s="38"/>
-      <c r="AH28" s="38"/>
-      <c r="AI28" s="38"/>
-      <c r="AJ28" s="38"/>
-      <c r="AK28" s="38"/>
-      <c r="AL28" s="38"/>
-      <c r="AM28" s="38"/>
-      <c r="AN28" s="38"/>
-      <c r="AO28" s="38"/>
-      <c r="AP28" s="38"/>
-      <c r="AQ28" s="38"/>
-      <c r="AR28" s="38"/>
-      <c r="AS28" s="38"/>
-      <c r="AT28" s="38"/>
-      <c r="AU28" s="38"/>
-      <c r="AV28" s="38"/>
-      <c r="AW28" s="38"/>
-      <c r="AX28" s="38"/>
-      <c r="AY28" s="38"/>
-      <c r="AZ28" s="38"/>
-      <c r="BA28" s="38"/>
-      <c r="BB28" s="38"/>
-      <c r="BC28" s="38"/>
-      <c r="BD28" s="38"/>
-      <c r="BE28" s="38"/>
-      <c r="BF28" s="38"/>
-      <c r="BG28" s="38"/>
-      <c r="BH28" s="38"/>
-      <c r="BI28" s="38"/>
-      <c r="BJ28" s="38"/>
-      <c r="BK28" s="38"/>
-      <c r="BL28" s="38"/>
-      <c r="BM28" s="38"/>
-      <c r="BN28" s="38"/>
-      <c r="BO28" s="38"/>
-      <c r="BP28" s="38"/>
-      <c r="BQ28" s="38"/>
-      <c r="BR28" s="38"/>
-      <c r="BS28" s="38"/>
-      <c r="BT28" s="38"/>
-      <c r="BU28" s="38"/>
-      <c r="BV28" s="38"/>
-      <c r="BW28" s="38"/>
-      <c r="BX28" s="38"/>
-      <c r="BY28" s="38"/>
-      <c r="BZ28" s="38"/>
-      <c r="CA28" s="38"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="62"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="62"/>
+      <c r="AB28" s="62"/>
+      <c r="AC28" s="62"/>
+      <c r="AD28" s="35"/>
+      <c r="AE28" s="63"/>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="62"/>
+      <c r="AH28" s="62"/>
+      <c r="AI28" s="62"/>
+      <c r="AJ28" s="35"/>
+      <c r="AK28" s="62"/>
+      <c r="AL28" s="62"/>
+      <c r="AM28" s="62"/>
+      <c r="AN28" s="35"/>
+      <c r="AO28" s="63"/>
+      <c r="AP28" s="34"/>
+      <c r="AQ28" s="62"/>
+      <c r="AR28" s="62"/>
+      <c r="AS28" s="62"/>
+      <c r="AT28" s="35"/>
+      <c r="AU28" s="62"/>
+      <c r="AV28" s="62"/>
+      <c r="AW28" s="62"/>
+      <c r="AX28" s="35"/>
+      <c r="AY28" s="63"/>
+      <c r="AZ28" s="34"/>
+      <c r="BA28" s="62"/>
+      <c r="BB28" s="62"/>
+      <c r="BC28" s="62"/>
+      <c r="BD28" s="35"/>
+      <c r="BE28" s="62"/>
+      <c r="BF28" s="62"/>
+      <c r="BG28" s="62"/>
+      <c r="BH28" s="35"/>
+      <c r="BI28" s="63"/>
+      <c r="BJ28" s="34"/>
+      <c r="BK28" s="62"/>
+      <c r="BL28" s="62"/>
+      <c r="BM28" s="62"/>
+      <c r="BN28" s="35"/>
+      <c r="BO28" s="62"/>
+      <c r="BP28" s="62"/>
+      <c r="BQ28" s="62"/>
+      <c r="BR28" s="35"/>
+      <c r="BS28" s="63"/>
+      <c r="BT28" s="62"/>
+      <c r="BU28" s="62"/>
+      <c r="BV28" s="35"/>
+      <c r="BW28" s="62"/>
+      <c r="BX28" s="62"/>
+      <c r="BY28" s="62"/>
+      <c r="BZ28" s="67"/>
+      <c r="CA28" s="68"/>
       <c r="CB28" s="39"/>
     </row>
     <row r="29" spans="1:80" ht="9.9499999999999993" customHeight="1">
@@ -8511,66 +8817,66 @@
       <c r="Q29" s="38"/>
       <c r="R29" s="38"/>
       <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
+      <c r="T29" s="39"/>
       <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="38"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
       <c r="Z29" s="38"/>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="38"/>
-      <c r="AC29" s="38"/>
+      <c r="AA29" s="64"/>
+      <c r="AB29" s="64"/>
+      <c r="AC29" s="64"/>
       <c r="AD29" s="38"/>
-      <c r="AE29" s="38"/>
-      <c r="AF29" s="38"/>
-      <c r="AG29" s="38"/>
-      <c r="AH29" s="38"/>
-      <c r="AI29" s="38"/>
+      <c r="AE29" s="65"/>
+      <c r="AF29" s="37"/>
+      <c r="AG29" s="64"/>
+      <c r="AH29" s="64"/>
+      <c r="AI29" s="64"/>
       <c r="AJ29" s="38"/>
-      <c r="AK29" s="38"/>
-      <c r="AL29" s="38"/>
-      <c r="AM29" s="38"/>
+      <c r="AK29" s="64"/>
+      <c r="AL29" s="64"/>
+      <c r="AM29" s="64"/>
       <c r="AN29" s="38"/>
-      <c r="AO29" s="38"/>
-      <c r="AP29" s="38"/>
-      <c r="AQ29" s="38"/>
-      <c r="AR29" s="38"/>
-      <c r="AS29" s="38"/>
+      <c r="AO29" s="65"/>
+      <c r="AP29" s="37"/>
+      <c r="AQ29" s="64"/>
+      <c r="AR29" s="64"/>
+      <c r="AS29" s="64"/>
       <c r="AT29" s="38"/>
-      <c r="AU29" s="38"/>
-      <c r="AV29" s="38"/>
-      <c r="AW29" s="38"/>
+      <c r="AU29" s="64"/>
+      <c r="AV29" s="64"/>
+      <c r="AW29" s="64"/>
       <c r="AX29" s="38"/>
-      <c r="AY29" s="38"/>
-      <c r="AZ29" s="38"/>
-      <c r="BA29" s="38"/>
-      <c r="BB29" s="38"/>
-      <c r="BC29" s="38"/>
+      <c r="AY29" s="65"/>
+      <c r="AZ29" s="37"/>
+      <c r="BA29" s="64"/>
+      <c r="BB29" s="64"/>
+      <c r="BC29" s="64"/>
       <c r="BD29" s="38"/>
-      <c r="BE29" s="38"/>
-      <c r="BF29" s="38"/>
-      <c r="BG29" s="38"/>
+      <c r="BE29" s="64"/>
+      <c r="BF29" s="64"/>
+      <c r="BG29" s="64"/>
       <c r="BH29" s="38"/>
-      <c r="BI29" s="38"/>
-      <c r="BJ29" s="38"/>
-      <c r="BK29" s="38"/>
-      <c r="BL29" s="38"/>
-      <c r="BM29" s="38"/>
+      <c r="BI29" s="65"/>
+      <c r="BJ29" s="37"/>
+      <c r="BK29" s="64"/>
+      <c r="BL29" s="64"/>
+      <c r="BM29" s="64"/>
       <c r="BN29" s="38"/>
-      <c r="BO29" s="38"/>
-      <c r="BP29" s="38"/>
-      <c r="BQ29" s="38"/>
+      <c r="BO29" s="64"/>
+      <c r="BP29" s="64"/>
+      <c r="BQ29" s="64"/>
       <c r="BR29" s="38"/>
-      <c r="BS29" s="38"/>
-      <c r="BT29" s="38"/>
-      <c r="BU29" s="38"/>
+      <c r="BS29" s="65"/>
+      <c r="BT29" s="64"/>
+      <c r="BU29" s="64"/>
       <c r="BV29" s="38"/>
-      <c r="BW29" s="38"/>
-      <c r="BX29" s="38"/>
-      <c r="BY29" s="38"/>
-      <c r="BZ29" s="38"/>
-      <c r="CA29" s="38"/>
+      <c r="BW29" s="64"/>
+      <c r="BX29" s="64"/>
+      <c r="BY29" s="64"/>
+      <c r="BZ29" s="82"/>
+      <c r="CA29" s="83"/>
       <c r="CB29" s="39"/>
     </row>
     <row r="30" spans="1:80" ht="9.9499999999999993" customHeight="1">
@@ -8593,66 +8899,66 @@
       <c r="Q30" s="38"/>
       <c r="R30" s="38"/>
       <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
+      <c r="T30" s="39"/>
       <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
-      <c r="AA30" s="38"/>
-      <c r="AB30" s="38"/>
-      <c r="AC30" s="38"/>
-      <c r="AD30" s="38"/>
-      <c r="AE30" s="38"/>
-      <c r="AF30" s="38"/>
-      <c r="AG30" s="38"/>
-      <c r="AH30" s="38"/>
-      <c r="AI30" s="38"/>
-      <c r="AJ30" s="38"/>
-      <c r="AK30" s="38"/>
-      <c r="AL30" s="38"/>
-      <c r="AM30" s="38"/>
-      <c r="AN30" s="38"/>
-      <c r="AO30" s="38"/>
-      <c r="AP30" s="38"/>
-      <c r="AQ30" s="38"/>
-      <c r="AR30" s="38"/>
-      <c r="AS30" s="38"/>
-      <c r="AT30" s="38"/>
-      <c r="AU30" s="38"/>
-      <c r="AV30" s="38"/>
-      <c r="AW30" s="38"/>
-      <c r="AX30" s="38"/>
-      <c r="AY30" s="38"/>
-      <c r="AZ30" s="38"/>
-      <c r="BA30" s="38"/>
-      <c r="BB30" s="38"/>
-      <c r="BC30" s="38"/>
-      <c r="BD30" s="38"/>
-      <c r="BE30" s="38"/>
-      <c r="BF30" s="38"/>
-      <c r="BG30" s="38"/>
-      <c r="BH30" s="38"/>
-      <c r="BI30" s="38"/>
-      <c r="BJ30" s="38"/>
-      <c r="BK30" s="38"/>
-      <c r="BL30" s="38"/>
-      <c r="BM30" s="38"/>
-      <c r="BN30" s="38"/>
-      <c r="BO30" s="38"/>
-      <c r="BP30" s="38"/>
-      <c r="BQ30" s="38"/>
-      <c r="BR30" s="38"/>
-      <c r="BS30" s="38"/>
-      <c r="BT30" s="38"/>
-      <c r="BU30" s="38"/>
-      <c r="BV30" s="38"/>
-      <c r="BW30" s="38"/>
-      <c r="BX30" s="38"/>
-      <c r="BY30" s="38"/>
-      <c r="BZ30" s="38"/>
-      <c r="CA30" s="38"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="35"/>
+      <c r="AA30" s="35"/>
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="35"/>
+      <c r="AD30" s="35"/>
+      <c r="AE30" s="36"/>
+      <c r="AF30" s="34"/>
+      <c r="AG30" s="35"/>
+      <c r="AH30" s="35"/>
+      <c r="AI30" s="35"/>
+      <c r="AJ30" s="35"/>
+      <c r="AK30" s="35"/>
+      <c r="AL30" s="35"/>
+      <c r="AM30" s="35"/>
+      <c r="AN30" s="35"/>
+      <c r="AO30" s="36"/>
+      <c r="AP30" s="34"/>
+      <c r="AQ30" s="35"/>
+      <c r="AR30" s="35"/>
+      <c r="AS30" s="35"/>
+      <c r="AT30" s="35"/>
+      <c r="AU30" s="35"/>
+      <c r="AV30" s="35"/>
+      <c r="AW30" s="35"/>
+      <c r="AX30" s="35"/>
+      <c r="AY30" s="36"/>
+      <c r="AZ30" s="34"/>
+      <c r="BA30" s="35"/>
+      <c r="BB30" s="35"/>
+      <c r="BC30" s="35"/>
+      <c r="BD30" s="35"/>
+      <c r="BE30" s="35"/>
+      <c r="BF30" s="35"/>
+      <c r="BG30" s="35"/>
+      <c r="BH30" s="35"/>
+      <c r="BI30" s="36"/>
+      <c r="BJ30" s="34"/>
+      <c r="BK30" s="35"/>
+      <c r="BL30" s="35"/>
+      <c r="BM30" s="35"/>
+      <c r="BN30" s="35"/>
+      <c r="BO30" s="35"/>
+      <c r="BP30" s="35"/>
+      <c r="BQ30" s="35"/>
+      <c r="BR30" s="35"/>
+      <c r="BS30" s="36"/>
+      <c r="BT30" s="35"/>
+      <c r="BU30" s="35"/>
+      <c r="BV30" s="35"/>
+      <c r="BW30" s="35"/>
+      <c r="BX30" s="35"/>
+      <c r="BY30" s="35"/>
+      <c r="BZ30" s="79"/>
+      <c r="CA30" s="84"/>
       <c r="CB30" s="39"/>
     </row>
     <row r="31" spans="1:80" ht="9.9499999999999993" customHeight="1">
@@ -8675,9 +8981,9 @@
       <c r="Q31" s="38"/>
       <c r="R31" s="38"/>
       <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
+      <c r="T31" s="39"/>
       <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
+      <c r="V31" s="37"/>
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
       <c r="Y31" s="38"/>
@@ -8686,8 +8992,8 @@
       <c r="AB31" s="38"/>
       <c r="AC31" s="38"/>
       <c r="AD31" s="38"/>
-      <c r="AE31" s="38"/>
-      <c r="AF31" s="38"/>
+      <c r="AE31" s="39"/>
+      <c r="AF31" s="37"/>
       <c r="AG31" s="38"/>
       <c r="AH31" s="38"/>
       <c r="AI31" s="38"/>
@@ -8696,8 +9002,8 @@
       <c r="AL31" s="38"/>
       <c r="AM31" s="38"/>
       <c r="AN31" s="38"/>
-      <c r="AO31" s="38"/>
-      <c r="AP31" s="38"/>
+      <c r="AO31" s="39"/>
+      <c r="AP31" s="37"/>
       <c r="AQ31" s="38"/>
       <c r="AR31" s="38"/>
       <c r="AS31" s="38"/>
@@ -8706,8 +9012,8 @@
       <c r="AV31" s="38"/>
       <c r="AW31" s="38"/>
       <c r="AX31" s="38"/>
-      <c r="AY31" s="38"/>
-      <c r="AZ31" s="38"/>
+      <c r="AY31" s="39"/>
+      <c r="AZ31" s="37"/>
       <c r="BA31" s="38"/>
       <c r="BB31" s="38"/>
       <c r="BC31" s="38"/>
@@ -8716,8 +9022,8 @@
       <c r="BF31" s="38"/>
       <c r="BG31" s="38"/>
       <c r="BH31" s="38"/>
-      <c r="BI31" s="38"/>
-      <c r="BJ31" s="38"/>
+      <c r="BI31" s="39"/>
+      <c r="BJ31" s="37"/>
       <c r="BK31" s="38"/>
       <c r="BL31" s="38"/>
       <c r="BM31" s="38"/>
@@ -8726,15 +9032,15 @@
       <c r="BP31" s="38"/>
       <c r="BQ31" s="38"/>
       <c r="BR31" s="38"/>
-      <c r="BS31" s="38"/>
+      <c r="BS31" s="39"/>
       <c r="BT31" s="38"/>
       <c r="BU31" s="38"/>
       <c r="BV31" s="38"/>
       <c r="BW31" s="38"/>
       <c r="BX31" s="38"/>
       <c r="BY31" s="38"/>
-      <c r="BZ31" s="38"/>
-      <c r="CA31" s="38"/>
+      <c r="BZ31" s="75"/>
+      <c r="CA31" s="76"/>
       <c r="CB31" s="39"/>
     </row>
     <row r="32" spans="1:80" ht="9.9499999999999993" customHeight="1">
@@ -8757,66 +9063,66 @@
       <c r="Q32" s="38"/>
       <c r="R32" s="38"/>
       <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
+      <c r="T32" s="39"/>
       <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="38"/>
-      <c r="AA32" s="38"/>
-      <c r="AB32" s="38"/>
-      <c r="AC32" s="38"/>
-      <c r="AD32" s="38"/>
-      <c r="AE32" s="38"/>
-      <c r="AF32" s="38"/>
-      <c r="AG32" s="38"/>
-      <c r="AH32" s="38"/>
-      <c r="AI32" s="38"/>
-      <c r="AJ32" s="38"/>
-      <c r="AK32" s="38"/>
-      <c r="AL32" s="38"/>
-      <c r="AM32" s="38"/>
-      <c r="AN32" s="38"/>
-      <c r="AO32" s="38"/>
-      <c r="AP32" s="38"/>
-      <c r="AQ32" s="38"/>
-      <c r="AR32" s="38"/>
-      <c r="AS32" s="38"/>
-      <c r="AT32" s="38"/>
-      <c r="AU32" s="38"/>
-      <c r="AV32" s="38"/>
-      <c r="AW32" s="38"/>
-      <c r="AX32" s="38"/>
-      <c r="AY32" s="38"/>
-      <c r="AZ32" s="38"/>
-      <c r="BA32" s="38"/>
-      <c r="BB32" s="38"/>
-      <c r="BC32" s="38"/>
-      <c r="BD32" s="38"/>
-      <c r="BE32" s="38"/>
-      <c r="BF32" s="38"/>
-      <c r="BG32" s="38"/>
-      <c r="BH32" s="38"/>
-      <c r="BI32" s="38"/>
-      <c r="BJ32" s="38"/>
-      <c r="BK32" s="38"/>
-      <c r="BL32" s="38"/>
-      <c r="BM32" s="38"/>
-      <c r="BN32" s="38"/>
-      <c r="BO32" s="38"/>
-      <c r="BP32" s="38"/>
-      <c r="BQ32" s="38"/>
-      <c r="BR32" s="38"/>
-      <c r="BS32" s="38"/>
-      <c r="BT32" s="38"/>
-      <c r="BU32" s="38"/>
-      <c r="BV32" s="38"/>
-      <c r="BW32" s="38"/>
-      <c r="BX32" s="38"/>
-      <c r="BY32" s="38"/>
-      <c r="BZ32" s="38"/>
-      <c r="CA32" s="38"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="41"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="41"/>
+      <c r="AC32" s="41"/>
+      <c r="AD32" s="41"/>
+      <c r="AE32" s="42"/>
+      <c r="AF32" s="40"/>
+      <c r="AG32" s="41"/>
+      <c r="AH32" s="41"/>
+      <c r="AI32" s="41"/>
+      <c r="AJ32" s="41"/>
+      <c r="AK32" s="41"/>
+      <c r="AL32" s="41"/>
+      <c r="AM32" s="41"/>
+      <c r="AN32" s="41"/>
+      <c r="AO32" s="42"/>
+      <c r="AP32" s="40"/>
+      <c r="AQ32" s="41"/>
+      <c r="AR32" s="41"/>
+      <c r="AS32" s="41"/>
+      <c r="AT32" s="41"/>
+      <c r="AU32" s="41"/>
+      <c r="AV32" s="41"/>
+      <c r="AW32" s="41"/>
+      <c r="AX32" s="41"/>
+      <c r="AY32" s="42"/>
+      <c r="AZ32" s="40"/>
+      <c r="BA32" s="41"/>
+      <c r="BB32" s="41"/>
+      <c r="BC32" s="41"/>
+      <c r="BD32" s="41"/>
+      <c r="BE32" s="41"/>
+      <c r="BF32" s="41"/>
+      <c r="BG32" s="41"/>
+      <c r="BH32" s="41"/>
+      <c r="BI32" s="42"/>
+      <c r="BJ32" s="40"/>
+      <c r="BK32" s="41"/>
+      <c r="BL32" s="41"/>
+      <c r="BM32" s="41"/>
+      <c r="BN32" s="41"/>
+      <c r="BO32" s="41"/>
+      <c r="BP32" s="41"/>
+      <c r="BQ32" s="41"/>
+      <c r="BR32" s="41"/>
+      <c r="BS32" s="42"/>
+      <c r="BT32" s="41"/>
+      <c r="BU32" s="41"/>
+      <c r="BV32" s="41"/>
+      <c r="BW32" s="41"/>
+      <c r="BX32" s="41"/>
+      <c r="BY32" s="41"/>
+      <c r="BZ32" s="75"/>
+      <c r="CA32" s="76"/>
       <c r="CB32" s="39"/>
     </row>
     <row r="33" spans="1:80" ht="9.9499999999999993" customHeight="1">
@@ -8839,66 +9145,66 @@
       <c r="Q33" s="38"/>
       <c r="R33" s="38"/>
       <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
+      <c r="T33" s="39"/>
       <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="38"/>
-      <c r="AB33" s="38"/>
-      <c r="AC33" s="38"/>
-      <c r="AD33" s="38"/>
-      <c r="AE33" s="38"/>
-      <c r="AF33" s="38"/>
-      <c r="AG33" s="38"/>
-      <c r="AH33" s="38"/>
-      <c r="AI33" s="38"/>
-      <c r="AJ33" s="38"/>
-      <c r="AK33" s="38"/>
-      <c r="AL33" s="38"/>
-      <c r="AM33" s="38"/>
-      <c r="AN33" s="38"/>
-      <c r="AO33" s="38"/>
-      <c r="AP33" s="38"/>
-      <c r="AQ33" s="38"/>
-      <c r="AR33" s="38"/>
-      <c r="AS33" s="38"/>
-      <c r="AT33" s="38"/>
-      <c r="AU33" s="38"/>
-      <c r="AV33" s="38"/>
-      <c r="AW33" s="38"/>
-      <c r="AX33" s="38"/>
-      <c r="AY33" s="38"/>
-      <c r="AZ33" s="38"/>
-      <c r="BA33" s="38"/>
-      <c r="BB33" s="38"/>
-      <c r="BC33" s="38"/>
-      <c r="BD33" s="38"/>
-      <c r="BE33" s="38"/>
-      <c r="BF33" s="38"/>
-      <c r="BG33" s="38"/>
-      <c r="BH33" s="38"/>
-      <c r="BI33" s="38"/>
-      <c r="BJ33" s="38"/>
-      <c r="BK33" s="38"/>
-      <c r="BL33" s="38"/>
-      <c r="BM33" s="38"/>
-      <c r="BN33" s="38"/>
-      <c r="BO33" s="38"/>
-      <c r="BP33" s="38"/>
-      <c r="BQ33" s="38"/>
-      <c r="BR33" s="38"/>
-      <c r="BS33" s="38"/>
-      <c r="BT33" s="38"/>
-      <c r="BU33" s="38"/>
-      <c r="BV33" s="38"/>
-      <c r="BW33" s="38"/>
-      <c r="BX33" s="38"/>
-      <c r="BY33" s="38"/>
-      <c r="BZ33" s="38"/>
-      <c r="CA33" s="38"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="36"/>
+      <c r="AF33" s="34"/>
+      <c r="AG33" s="35"/>
+      <c r="AH33" s="35"/>
+      <c r="AI33" s="35"/>
+      <c r="AJ33" s="35"/>
+      <c r="AK33" s="35"/>
+      <c r="AL33" s="35"/>
+      <c r="AM33" s="35"/>
+      <c r="AN33" s="35"/>
+      <c r="AO33" s="36"/>
+      <c r="AP33" s="34"/>
+      <c r="AQ33" s="35"/>
+      <c r="AR33" s="35"/>
+      <c r="AS33" s="35"/>
+      <c r="AT33" s="35"/>
+      <c r="AU33" s="35"/>
+      <c r="AV33" s="35"/>
+      <c r="AW33" s="35"/>
+      <c r="AX33" s="35"/>
+      <c r="AY33" s="36"/>
+      <c r="AZ33" s="34"/>
+      <c r="BA33" s="35"/>
+      <c r="BB33" s="35"/>
+      <c r="BC33" s="35"/>
+      <c r="BD33" s="35"/>
+      <c r="BE33" s="35"/>
+      <c r="BF33" s="35"/>
+      <c r="BG33" s="35"/>
+      <c r="BH33" s="35"/>
+      <c r="BI33" s="36"/>
+      <c r="BJ33" s="34"/>
+      <c r="BK33" s="35"/>
+      <c r="BL33" s="35"/>
+      <c r="BM33" s="35"/>
+      <c r="BN33" s="35"/>
+      <c r="BO33" s="35"/>
+      <c r="BP33" s="35"/>
+      <c r="BQ33" s="35"/>
+      <c r="BR33" s="35"/>
+      <c r="BS33" s="36"/>
+      <c r="BT33" s="35"/>
+      <c r="BU33" s="35"/>
+      <c r="BV33" s="35"/>
+      <c r="BW33" s="35"/>
+      <c r="BX33" s="35"/>
+      <c r="BY33" s="35"/>
+      <c r="BZ33" s="75"/>
+      <c r="CA33" s="76"/>
       <c r="CB33" s="39"/>
     </row>
     <row r="34" spans="1:80" ht="9.9499999999999993" customHeight="1">
@@ -8921,9 +9227,9 @@
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>
       <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
+      <c r="T34" s="39"/>
       <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
+      <c r="V34" s="37"/>
       <c r="W34" s="38"/>
       <c r="X34" s="38"/>
       <c r="Y34" s="38"/>
@@ -8932,8 +9238,8 @@
       <c r="AB34" s="38"/>
       <c r="AC34" s="38"/>
       <c r="AD34" s="38"/>
-      <c r="AE34" s="38"/>
-      <c r="AF34" s="38"/>
+      <c r="AE34" s="39"/>
+      <c r="AF34" s="37"/>
       <c r="AG34" s="38"/>
       <c r="AH34" s="38"/>
       <c r="AI34" s="38"/>
@@ -8942,8 +9248,8 @@
       <c r="AL34" s="38"/>
       <c r="AM34" s="38"/>
       <c r="AN34" s="38"/>
-      <c r="AO34" s="38"/>
-      <c r="AP34" s="38"/>
+      <c r="AO34" s="39"/>
+      <c r="AP34" s="37"/>
       <c r="AQ34" s="38"/>
       <c r="AR34" s="38"/>
       <c r="AS34" s="38"/>
@@ -8952,8 +9258,8 @@
       <c r="AV34" s="38"/>
       <c r="AW34" s="38"/>
       <c r="AX34" s="38"/>
-      <c r="AY34" s="38"/>
-      <c r="AZ34" s="38"/>
+      <c r="AY34" s="39"/>
+      <c r="AZ34" s="37"/>
       <c r="BA34" s="38"/>
       <c r="BB34" s="38"/>
       <c r="BC34" s="38"/>
@@ -8962,8 +9268,8 @@
       <c r="BF34" s="38"/>
       <c r="BG34" s="38"/>
       <c r="BH34" s="38"/>
-      <c r="BI34" s="38"/>
-      <c r="BJ34" s="38"/>
+      <c r="BI34" s="39"/>
+      <c r="BJ34" s="37"/>
       <c r="BK34" s="38"/>
       <c r="BL34" s="38"/>
       <c r="BM34" s="38"/>
@@ -8972,15 +9278,15 @@
       <c r="BP34" s="38"/>
       <c r="BQ34" s="38"/>
       <c r="BR34" s="38"/>
-      <c r="BS34" s="38"/>
+      <c r="BS34" s="39"/>
       <c r="BT34" s="38"/>
       <c r="BU34" s="38"/>
       <c r="BV34" s="38"/>
       <c r="BW34" s="38"/>
       <c r="BX34" s="38"/>
       <c r="BY34" s="38"/>
-      <c r="BZ34" s="38"/>
-      <c r="CA34" s="38"/>
+      <c r="BZ34" s="75"/>
+      <c r="CA34" s="76"/>
       <c r="CB34" s="39"/>
     </row>
     <row r="35" spans="1:80" ht="9.9499999999999993" customHeight="1">
@@ -9003,66 +9309,66 @@
       <c r="Q35" s="38"/>
       <c r="R35" s="38"/>
       <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
+      <c r="T35" s="39"/>
       <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="38"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="38"/>
-      <c r="AB35" s="38"/>
-      <c r="AC35" s="38"/>
-      <c r="AD35" s="38"/>
-      <c r="AE35" s="38"/>
-      <c r="AF35" s="38"/>
-      <c r="AG35" s="38"/>
-      <c r="AH35" s="38"/>
-      <c r="AI35" s="38"/>
-      <c r="AJ35" s="38"/>
-      <c r="AK35" s="38"/>
-      <c r="AL35" s="38"/>
-      <c r="AM35" s="38"/>
-      <c r="AN35" s="38"/>
-      <c r="AO35" s="38"/>
-      <c r="AP35" s="38"/>
-      <c r="AQ35" s="38"/>
-      <c r="AR35" s="38"/>
-      <c r="AS35" s="38"/>
-      <c r="AT35" s="38"/>
-      <c r="AU35" s="38"/>
-      <c r="AV35" s="38"/>
-      <c r="AW35" s="38"/>
-      <c r="AX35" s="38"/>
-      <c r="AY35" s="38"/>
-      <c r="AZ35" s="38"/>
-      <c r="BA35" s="38"/>
-      <c r="BB35" s="38"/>
-      <c r="BC35" s="38"/>
-      <c r="BD35" s="38"/>
-      <c r="BE35" s="38"/>
-      <c r="BF35" s="38"/>
-      <c r="BG35" s="38"/>
-      <c r="BH35" s="38"/>
-      <c r="BI35" s="38"/>
-      <c r="BJ35" s="38"/>
-      <c r="BK35" s="38"/>
-      <c r="BL35" s="38"/>
-      <c r="BM35" s="38"/>
-      <c r="BN35" s="38"/>
-      <c r="BO35" s="38"/>
-      <c r="BP35" s="38"/>
-      <c r="BQ35" s="38"/>
-      <c r="BR35" s="38"/>
-      <c r="BS35" s="38"/>
-      <c r="BT35" s="38"/>
-      <c r="BU35" s="38"/>
-      <c r="BV35" s="38"/>
-      <c r="BW35" s="38"/>
-      <c r="BX35" s="38"/>
-      <c r="BY35" s="38"/>
-      <c r="BZ35" s="38"/>
-      <c r="CA35" s="38"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="41"/>
+      <c r="AC35" s="41"/>
+      <c r="AD35" s="41"/>
+      <c r="AE35" s="42"/>
+      <c r="AF35" s="40"/>
+      <c r="AG35" s="41"/>
+      <c r="AH35" s="41"/>
+      <c r="AI35" s="41"/>
+      <c r="AJ35" s="41"/>
+      <c r="AK35" s="41"/>
+      <c r="AL35" s="41"/>
+      <c r="AM35" s="41"/>
+      <c r="AN35" s="41"/>
+      <c r="AO35" s="42"/>
+      <c r="AP35" s="40"/>
+      <c r="AQ35" s="41"/>
+      <c r="AR35" s="41"/>
+      <c r="AS35" s="41"/>
+      <c r="AT35" s="41"/>
+      <c r="AU35" s="41"/>
+      <c r="AV35" s="41"/>
+      <c r="AW35" s="41"/>
+      <c r="AX35" s="41"/>
+      <c r="AY35" s="42"/>
+      <c r="AZ35" s="40"/>
+      <c r="BA35" s="41"/>
+      <c r="BB35" s="41"/>
+      <c r="BC35" s="41"/>
+      <c r="BD35" s="41"/>
+      <c r="BE35" s="41"/>
+      <c r="BF35" s="41"/>
+      <c r="BG35" s="41"/>
+      <c r="BH35" s="41"/>
+      <c r="BI35" s="42"/>
+      <c r="BJ35" s="40"/>
+      <c r="BK35" s="41"/>
+      <c r="BL35" s="41"/>
+      <c r="BM35" s="41"/>
+      <c r="BN35" s="41"/>
+      <c r="BO35" s="41"/>
+      <c r="BP35" s="41"/>
+      <c r="BQ35" s="41"/>
+      <c r="BR35" s="41"/>
+      <c r="BS35" s="42"/>
+      <c r="BT35" s="41"/>
+      <c r="BU35" s="41"/>
+      <c r="BV35" s="41"/>
+      <c r="BW35" s="41"/>
+      <c r="BX35" s="41"/>
+      <c r="BY35" s="41"/>
+      <c r="BZ35" s="75"/>
+      <c r="CA35" s="76"/>
       <c r="CB35" s="39"/>
     </row>
     <row r="36" spans="1:80" ht="9.9499999999999993" customHeight="1">
@@ -9085,66 +9391,66 @@
       <c r="Q36" s="38"/>
       <c r="R36" s="38"/>
       <c r="S36" s="38"/>
-      <c r="T36" s="38"/>
+      <c r="T36" s="39"/>
       <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="38"/>
-      <c r="Z36" s="38"/>
-      <c r="AA36" s="38"/>
-      <c r="AB36" s="38"/>
-      <c r="AC36" s="38"/>
-      <c r="AD36" s="38"/>
-      <c r="AE36" s="38"/>
-      <c r="AF36" s="38"/>
-      <c r="AG36" s="38"/>
-      <c r="AH36" s="38"/>
-      <c r="AI36" s="38"/>
-      <c r="AJ36" s="38"/>
-      <c r="AK36" s="38"/>
-      <c r="AL36" s="38"/>
-      <c r="AM36" s="38"/>
-      <c r="AN36" s="38"/>
-      <c r="AO36" s="38"/>
-      <c r="AP36" s="38"/>
-      <c r="AQ36" s="38"/>
-      <c r="AR36" s="38"/>
-      <c r="AS36" s="38"/>
-      <c r="AT36" s="38"/>
-      <c r="AU36" s="38"/>
-      <c r="AV36" s="38"/>
-      <c r="AW36" s="38"/>
-      <c r="AX36" s="38"/>
-      <c r="AY36" s="38"/>
-      <c r="AZ36" s="38"/>
-      <c r="BA36" s="38"/>
-      <c r="BB36" s="38"/>
-      <c r="BC36" s="38"/>
-      <c r="BD36" s="38"/>
-      <c r="BE36" s="38"/>
-      <c r="BF36" s="38"/>
-      <c r="BG36" s="38"/>
-      <c r="BH36" s="38"/>
-      <c r="BI36" s="38"/>
-      <c r="BJ36" s="38"/>
-      <c r="BK36" s="38"/>
-      <c r="BL36" s="38"/>
-      <c r="BM36" s="38"/>
-      <c r="BN36" s="38"/>
-      <c r="BO36" s="38"/>
-      <c r="BP36" s="38"/>
-      <c r="BQ36" s="38"/>
-      <c r="BR36" s="38"/>
-      <c r="BS36" s="38"/>
-      <c r="BT36" s="38"/>
-      <c r="BU36" s="38"/>
-      <c r="BV36" s="38"/>
-      <c r="BW36" s="38"/>
-      <c r="BX36" s="38"/>
-      <c r="BY36" s="38"/>
-      <c r="BZ36" s="38"/>
-      <c r="CA36" s="38"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="35"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="34"/>
+      <c r="AG36" s="35"/>
+      <c r="AH36" s="35"/>
+      <c r="AI36" s="35"/>
+      <c r="AJ36" s="35"/>
+      <c r="AK36" s="35"/>
+      <c r="AL36" s="35"/>
+      <c r="AM36" s="35"/>
+      <c r="AN36" s="35"/>
+      <c r="AO36" s="36"/>
+      <c r="AP36" s="34"/>
+      <c r="AQ36" s="35"/>
+      <c r="AR36" s="35"/>
+      <c r="AS36" s="35"/>
+      <c r="AT36" s="35"/>
+      <c r="AU36" s="35"/>
+      <c r="AV36" s="35"/>
+      <c r="AW36" s="35"/>
+      <c r="AX36" s="35"/>
+      <c r="AY36" s="36"/>
+      <c r="AZ36" s="34"/>
+      <c r="BA36" s="35"/>
+      <c r="BB36" s="35"/>
+      <c r="BC36" s="35"/>
+      <c r="BD36" s="35"/>
+      <c r="BE36" s="35"/>
+      <c r="BF36" s="35"/>
+      <c r="BG36" s="35"/>
+      <c r="BH36" s="35"/>
+      <c r="BI36" s="36"/>
+      <c r="BJ36" s="34"/>
+      <c r="BK36" s="35"/>
+      <c r="BL36" s="35"/>
+      <c r="BM36" s="35"/>
+      <c r="BN36" s="35"/>
+      <c r="BO36" s="35"/>
+      <c r="BP36" s="35"/>
+      <c r="BQ36" s="35"/>
+      <c r="BR36" s="35"/>
+      <c r="BS36" s="36"/>
+      <c r="BT36" s="35"/>
+      <c r="BU36" s="35"/>
+      <c r="BV36" s="35"/>
+      <c r="BW36" s="35"/>
+      <c r="BX36" s="35"/>
+      <c r="BY36" s="35"/>
+      <c r="BZ36" s="77"/>
+      <c r="CA36" s="78"/>
       <c r="CB36" s="39"/>
     </row>
     <row r="37" spans="1:80" ht="9.9499999999999993" customHeight="1">
@@ -9167,9 +9473,9 @@
       <c r="Q37" s="38"/>
       <c r="R37" s="38"/>
       <c r="S37" s="38"/>
-      <c r="T37" s="38"/>
+      <c r="T37" s="39"/>
       <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
+      <c r="V37" s="37"/>
       <c r="W37" s="38"/>
       <c r="X37" s="38"/>
       <c r="Y37" s="38"/>
@@ -9178,8 +9484,8 @@
       <c r="AB37" s="38"/>
       <c r="AC37" s="38"/>
       <c r="AD37" s="38"/>
-      <c r="AE37" s="38"/>
-      <c r="AF37" s="38"/>
+      <c r="AE37" s="39"/>
+      <c r="AF37" s="37"/>
       <c r="AG37" s="38"/>
       <c r="AH37" s="38"/>
       <c r="AI37" s="38"/>
@@ -9188,8 +9494,8 @@
       <c r="AL37" s="38"/>
       <c r="AM37" s="38"/>
       <c r="AN37" s="38"/>
-      <c r="AO37" s="38"/>
-      <c r="AP37" s="38"/>
+      <c r="AO37" s="39"/>
+      <c r="AP37" s="37"/>
       <c r="AQ37" s="38"/>
       <c r="AR37" s="38"/>
       <c r="AS37" s="38"/>
@@ -9198,8 +9504,8 @@
       <c r="AV37" s="38"/>
       <c r="AW37" s="38"/>
       <c r="AX37" s="38"/>
-      <c r="AY37" s="38"/>
-      <c r="AZ37" s="38"/>
+      <c r="AY37" s="39"/>
+      <c r="AZ37" s="37"/>
       <c r="BA37" s="38"/>
       <c r="BB37" s="38"/>
       <c r="BC37" s="38"/>
@@ -9208,8 +9514,8 @@
       <c r="BF37" s="38"/>
       <c r="BG37" s="38"/>
       <c r="BH37" s="38"/>
-      <c r="BI37" s="38"/>
-      <c r="BJ37" s="38"/>
+      <c r="BI37" s="39"/>
+      <c r="BJ37" s="37"/>
       <c r="BK37" s="38"/>
       <c r="BL37" s="38"/>
       <c r="BM37" s="38"/>
@@ -9218,15 +9524,15 @@
       <c r="BP37" s="38"/>
       <c r="BQ37" s="38"/>
       <c r="BR37" s="38"/>
-      <c r="BS37" s="38"/>
+      <c r="BS37" s="39"/>
       <c r="BT37" s="38"/>
       <c r="BU37" s="38"/>
       <c r="BV37" s="38"/>
       <c r="BW37" s="38"/>
       <c r="BX37" s="38"/>
       <c r="BY37" s="38"/>
-      <c r="BZ37" s="38"/>
-      <c r="CA37" s="38"/>
+      <c r="BZ37" s="73"/>
+      <c r="CA37" s="74"/>
       <c r="CB37" s="39"/>
     </row>
     <row r="38" spans="1:80" ht="9.9499999999999993" customHeight="1">
@@ -9249,66 +9555,66 @@
       <c r="Q38" s="38"/>
       <c r="R38" s="38"/>
       <c r="S38" s="38"/>
-      <c r="T38" s="38"/>
+      <c r="T38" s="39"/>
       <c r="U38" s="38"/>
-      <c r="V38" s="38"/>
-      <c r="W38" s="38"/>
-      <c r="X38" s="38"/>
-      <c r="Y38" s="38"/>
-      <c r="Z38" s="38"/>
-      <c r="AA38" s="38"/>
-      <c r="AB38" s="38"/>
-      <c r="AC38" s="38"/>
-      <c r="AD38" s="38"/>
-      <c r="AE38" s="38"/>
-      <c r="AF38" s="38"/>
-      <c r="AG38" s="38"/>
-      <c r="AH38" s="38"/>
-      <c r="AI38" s="38"/>
-      <c r="AJ38" s="38"/>
-      <c r="AK38" s="38"/>
-      <c r="AL38" s="38"/>
-      <c r="AM38" s="38"/>
-      <c r="AN38" s="38"/>
-      <c r="AO38" s="38"/>
-      <c r="AP38" s="38"/>
-      <c r="AQ38" s="38"/>
-      <c r="AR38" s="38"/>
-      <c r="AS38" s="38"/>
-      <c r="AT38" s="38"/>
-      <c r="AU38" s="38"/>
-      <c r="AV38" s="38"/>
-      <c r="AW38" s="38"/>
-      <c r="AX38" s="38"/>
-      <c r="AY38" s="38"/>
-      <c r="AZ38" s="38"/>
-      <c r="BA38" s="38"/>
-      <c r="BB38" s="38"/>
-      <c r="BC38" s="38"/>
-      <c r="BD38" s="38"/>
-      <c r="BE38" s="38"/>
-      <c r="BF38" s="38"/>
-      <c r="BG38" s="38"/>
-      <c r="BH38" s="38"/>
-      <c r="BI38" s="38"/>
-      <c r="BJ38" s="38"/>
-      <c r="BK38" s="38"/>
-      <c r="BL38" s="38"/>
-      <c r="BM38" s="38"/>
-      <c r="BN38" s="38"/>
-      <c r="BO38" s="38"/>
-      <c r="BP38" s="38"/>
-      <c r="BQ38" s="38"/>
-      <c r="BR38" s="38"/>
-      <c r="BS38" s="38"/>
-      <c r="BT38" s="38"/>
-      <c r="BU38" s="38"/>
-      <c r="BV38" s="38"/>
-      <c r="BW38" s="38"/>
-      <c r="BX38" s="38"/>
-      <c r="BY38" s="38"/>
-      <c r="BZ38" s="38"/>
-      <c r="CA38" s="38"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="41"/>
+      <c r="X38" s="41"/>
+      <c r="Y38" s="41"/>
+      <c r="Z38" s="41"/>
+      <c r="AA38" s="41"/>
+      <c r="AB38" s="41"/>
+      <c r="AC38" s="41"/>
+      <c r="AD38" s="41"/>
+      <c r="AE38" s="42"/>
+      <c r="AF38" s="40"/>
+      <c r="AG38" s="41"/>
+      <c r="AH38" s="41"/>
+      <c r="AI38" s="41"/>
+      <c r="AJ38" s="41"/>
+      <c r="AK38" s="41"/>
+      <c r="AL38" s="41"/>
+      <c r="AM38" s="41"/>
+      <c r="AN38" s="41"/>
+      <c r="AO38" s="42"/>
+      <c r="AP38" s="40"/>
+      <c r="AQ38" s="41"/>
+      <c r="AR38" s="41"/>
+      <c r="AS38" s="41"/>
+      <c r="AT38" s="41"/>
+      <c r="AU38" s="41"/>
+      <c r="AV38" s="41"/>
+      <c r="AW38" s="41"/>
+      <c r="AX38" s="41"/>
+      <c r="AY38" s="42"/>
+      <c r="AZ38" s="40"/>
+      <c r="BA38" s="41"/>
+      <c r="BB38" s="41"/>
+      <c r="BC38" s="41"/>
+      <c r="BD38" s="41"/>
+      <c r="BE38" s="41"/>
+      <c r="BF38" s="41"/>
+      <c r="BG38" s="41"/>
+      <c r="BH38" s="41"/>
+      <c r="BI38" s="42"/>
+      <c r="BJ38" s="40"/>
+      <c r="BK38" s="41"/>
+      <c r="BL38" s="41"/>
+      <c r="BM38" s="41"/>
+      <c r="BN38" s="41"/>
+      <c r="BO38" s="41"/>
+      <c r="BP38" s="41"/>
+      <c r="BQ38" s="41"/>
+      <c r="BR38" s="41"/>
+      <c r="BS38" s="42"/>
+      <c r="BT38" s="41"/>
+      <c r="BU38" s="41"/>
+      <c r="BV38" s="41"/>
+      <c r="BW38" s="41"/>
+      <c r="BX38" s="41"/>
+      <c r="BY38" s="41"/>
+      <c r="BZ38" s="67"/>
+      <c r="CA38" s="68"/>
       <c r="CB38" s="39"/>
     </row>
     <row r="39" spans="1:80" ht="9.9499999999999993" customHeight="1">
@@ -9331,66 +9637,66 @@
       <c r="Q39" s="38"/>
       <c r="R39" s="38"/>
       <c r="S39" s="38"/>
-      <c r="T39" s="38"/>
+      <c r="T39" s="39"/>
       <c r="U39" s="38"/>
-      <c r="V39" s="38"/>
-      <c r="W39" s="38"/>
-      <c r="X39" s="38"/>
-      <c r="Y39" s="38"/>
-      <c r="Z39" s="38"/>
-      <c r="AA39" s="38"/>
-      <c r="AB39" s="38"/>
-      <c r="AC39" s="38"/>
-      <c r="AD39" s="38"/>
-      <c r="AE39" s="38"/>
-      <c r="AF39" s="38"/>
-      <c r="AG39" s="38"/>
-      <c r="AH39" s="38"/>
-      <c r="AI39" s="38"/>
-      <c r="AJ39" s="38"/>
-      <c r="AK39" s="38"/>
-      <c r="AL39" s="38"/>
-      <c r="AM39" s="38"/>
-      <c r="AN39" s="38"/>
-      <c r="AO39" s="38"/>
-      <c r="AP39" s="38"/>
-      <c r="AQ39" s="38"/>
-      <c r="AR39" s="38"/>
-      <c r="AS39" s="38"/>
-      <c r="AT39" s="38"/>
-      <c r="AU39" s="38"/>
-      <c r="AV39" s="38"/>
-      <c r="AW39" s="38"/>
-      <c r="AX39" s="38"/>
-      <c r="AY39" s="38"/>
-      <c r="AZ39" s="38"/>
-      <c r="BA39" s="38"/>
-      <c r="BB39" s="38"/>
-      <c r="BC39" s="38"/>
-      <c r="BD39" s="38"/>
-      <c r="BE39" s="38"/>
-      <c r="BF39" s="38"/>
-      <c r="BG39" s="38"/>
-      <c r="BH39" s="38"/>
-      <c r="BI39" s="38"/>
-      <c r="BJ39" s="38"/>
-      <c r="BK39" s="38"/>
-      <c r="BL39" s="38"/>
-      <c r="BM39" s="38"/>
-      <c r="BN39" s="38"/>
-      <c r="BO39" s="38"/>
-      <c r="BP39" s="38"/>
-      <c r="BQ39" s="38"/>
-      <c r="BR39" s="38"/>
-      <c r="BS39" s="38"/>
-      <c r="BT39" s="38"/>
-      <c r="BU39" s="38"/>
-      <c r="BV39" s="38"/>
-      <c r="BW39" s="38"/>
-      <c r="BX39" s="38"/>
-      <c r="BY39" s="38"/>
-      <c r="BZ39" s="38"/>
-      <c r="CA39" s="38"/>
+      <c r="V39" s="85"/>
+      <c r="W39" s="86"/>
+      <c r="X39" s="86"/>
+      <c r="Y39" s="86"/>
+      <c r="Z39" s="86"/>
+      <c r="AA39" s="86"/>
+      <c r="AB39" s="86"/>
+      <c r="AC39" s="86"/>
+      <c r="AD39" s="86"/>
+      <c r="AE39" s="87"/>
+      <c r="AF39" s="85"/>
+      <c r="AG39" s="86"/>
+      <c r="AH39" s="86"/>
+      <c r="AI39" s="86"/>
+      <c r="AJ39" s="86"/>
+      <c r="AK39" s="86"/>
+      <c r="AL39" s="86"/>
+      <c r="AM39" s="86"/>
+      <c r="AN39" s="86"/>
+      <c r="AO39" s="87"/>
+      <c r="AP39" s="85"/>
+      <c r="AQ39" s="86"/>
+      <c r="AR39" s="86"/>
+      <c r="AS39" s="86"/>
+      <c r="AT39" s="86"/>
+      <c r="AU39" s="86"/>
+      <c r="AV39" s="86"/>
+      <c r="AW39" s="86"/>
+      <c r="AX39" s="86"/>
+      <c r="AY39" s="87"/>
+      <c r="AZ39" s="85"/>
+      <c r="BA39" s="86"/>
+      <c r="BB39" s="86"/>
+      <c r="BC39" s="86"/>
+      <c r="BD39" s="86"/>
+      <c r="BE39" s="86"/>
+      <c r="BF39" s="86"/>
+      <c r="BG39" s="86"/>
+      <c r="BH39" s="86"/>
+      <c r="BI39" s="87"/>
+      <c r="BJ39" s="85"/>
+      <c r="BK39" s="86"/>
+      <c r="BL39" s="86"/>
+      <c r="BM39" s="86"/>
+      <c r="BN39" s="86"/>
+      <c r="BO39" s="86"/>
+      <c r="BP39" s="86"/>
+      <c r="BQ39" s="86"/>
+      <c r="BR39" s="86"/>
+      <c r="BS39" s="87"/>
+      <c r="BT39" s="86"/>
+      <c r="BU39" s="86"/>
+      <c r="BV39" s="86"/>
+      <c r="BW39" s="86"/>
+      <c r="BX39" s="86"/>
+      <c r="BY39" s="87"/>
+      <c r="BZ39" s="69"/>
+      <c r="CA39" s="70"/>
       <c r="CB39" s="39"/>
     </row>
     <row r="40" spans="1:80" ht="9.9499999999999993" customHeight="1">
@@ -9413,64 +9719,64 @@
       <c r="Q40" s="38"/>
       <c r="R40" s="38"/>
       <c r="S40" s="38"/>
-      <c r="T40" s="38"/>
+      <c r="T40" s="39"/>
       <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="38"/>
-      <c r="Z40" s="38"/>
-      <c r="AA40" s="38"/>
-      <c r="AB40" s="38"/>
-      <c r="AC40" s="38"/>
-      <c r="AD40" s="38"/>
-      <c r="AE40" s="38"/>
-      <c r="AF40" s="38"/>
-      <c r="AG40" s="38"/>
-      <c r="AH40" s="38"/>
-      <c r="AI40" s="38"/>
-      <c r="AJ40" s="38"/>
-      <c r="AK40" s="38"/>
-      <c r="AL40" s="38"/>
-      <c r="AM40" s="38"/>
-      <c r="AN40" s="38"/>
-      <c r="AO40" s="38"/>
-      <c r="AP40" s="38"/>
-      <c r="AQ40" s="38"/>
-      <c r="AR40" s="38"/>
-      <c r="AS40" s="38"/>
-      <c r="AT40" s="38"/>
-      <c r="AU40" s="38"/>
-      <c r="AV40" s="38"/>
-      <c r="AW40" s="38"/>
-      <c r="AX40" s="38"/>
-      <c r="AY40" s="38"/>
-      <c r="AZ40" s="38"/>
-      <c r="BA40" s="38"/>
-      <c r="BB40" s="38"/>
-      <c r="BC40" s="38"/>
-      <c r="BD40" s="38"/>
-      <c r="BE40" s="38"/>
-      <c r="BF40" s="38"/>
-      <c r="BG40" s="38"/>
-      <c r="BH40" s="38"/>
-      <c r="BI40" s="38"/>
-      <c r="BJ40" s="38"/>
-      <c r="BK40" s="38"/>
-      <c r="BL40" s="38"/>
-      <c r="BM40" s="38"/>
-      <c r="BN40" s="38"/>
-      <c r="BO40" s="38"/>
-      <c r="BP40" s="38"/>
-      <c r="BQ40" s="38"/>
-      <c r="BR40" s="38"/>
-      <c r="BS40" s="38"/>
-      <c r="BT40" s="38"/>
-      <c r="BU40" s="38"/>
-      <c r="BV40" s="38"/>
-      <c r="BW40" s="38"/>
-      <c r="BX40" s="38"/>
-      <c r="BY40" s="38"/>
+      <c r="V40" s="82"/>
+      <c r="W40" s="83"/>
+      <c r="X40" s="81"/>
+      <c r="Y40" s="81"/>
+      <c r="Z40" s="81"/>
+      <c r="AA40" s="81"/>
+      <c r="AB40" s="81"/>
+      <c r="AC40" s="81"/>
+      <c r="AD40" s="81"/>
+      <c r="AE40" s="81"/>
+      <c r="AF40" s="81"/>
+      <c r="AG40" s="81"/>
+      <c r="AH40" s="81"/>
+      <c r="AI40" s="81"/>
+      <c r="AJ40" s="81"/>
+      <c r="AK40" s="81"/>
+      <c r="AL40" s="81"/>
+      <c r="AM40" s="81"/>
+      <c r="AN40" s="81"/>
+      <c r="AO40" s="81"/>
+      <c r="AP40" s="81"/>
+      <c r="AQ40" s="81"/>
+      <c r="AR40" s="81"/>
+      <c r="AS40" s="81"/>
+      <c r="AT40" s="81"/>
+      <c r="AU40" s="81"/>
+      <c r="AV40" s="81"/>
+      <c r="AW40" s="81"/>
+      <c r="AX40" s="81"/>
+      <c r="AY40" s="81"/>
+      <c r="AZ40" s="81"/>
+      <c r="BA40" s="81"/>
+      <c r="BB40" s="81"/>
+      <c r="BC40" s="81"/>
+      <c r="BD40" s="81"/>
+      <c r="BE40" s="81"/>
+      <c r="BF40" s="81"/>
+      <c r="BG40" s="81"/>
+      <c r="BH40" s="81"/>
+      <c r="BI40" s="81"/>
+      <c r="BJ40" s="81"/>
+      <c r="BK40" s="81"/>
+      <c r="BL40" s="81"/>
+      <c r="BM40" s="81"/>
+      <c r="BN40" s="81"/>
+      <c r="BO40" s="81"/>
+      <c r="BP40" s="81"/>
+      <c r="BQ40" s="81"/>
+      <c r="BR40" s="81"/>
+      <c r="BS40" s="81"/>
+      <c r="BT40" s="81"/>
+      <c r="BU40" s="76"/>
+      <c r="BV40" s="72"/>
+      <c r="BW40" s="72"/>
+      <c r="BX40" s="82"/>
+      <c r="BY40" s="83"/>
       <c r="BZ40" s="38"/>
       <c r="CA40" s="38"/>
       <c r="CB40" s="39"/>
@@ -9495,64 +9801,64 @@
       <c r="Q41" s="38"/>
       <c r="R41" s="38"/>
       <c r="S41" s="38"/>
-      <c r="T41" s="38"/>
+      <c r="T41" s="39"/>
       <c r="U41" s="38"/>
-      <c r="V41" s="38"/>
-      <c r="W41" s="38"/>
-      <c r="X41" s="38"/>
-      <c r="Y41" s="38"/>
-      <c r="Z41" s="38"/>
-      <c r="AA41" s="38"/>
-      <c r="AB41" s="38"/>
-      <c r="AC41" s="38"/>
-      <c r="AD41" s="38"/>
-      <c r="AE41" s="38"/>
-      <c r="AF41" s="38"/>
-      <c r="AG41" s="38"/>
-      <c r="AH41" s="38"/>
-      <c r="AI41" s="38"/>
-      <c r="AJ41" s="38"/>
-      <c r="AK41" s="38"/>
-      <c r="AL41" s="38"/>
-      <c r="AM41" s="38"/>
-      <c r="AN41" s="38"/>
-      <c r="AO41" s="38"/>
-      <c r="AP41" s="38"/>
-      <c r="AQ41" s="38"/>
-      <c r="AR41" s="38"/>
-      <c r="AS41" s="38"/>
-      <c r="AT41" s="38"/>
-      <c r="AU41" s="38"/>
-      <c r="AV41" s="38"/>
-      <c r="AW41" s="38"/>
-      <c r="AX41" s="38"/>
-      <c r="AY41" s="38"/>
-      <c r="AZ41" s="38"/>
-      <c r="BA41" s="38"/>
-      <c r="BB41" s="38"/>
-      <c r="BC41" s="38"/>
-      <c r="BD41" s="38"/>
-      <c r="BE41" s="38"/>
-      <c r="BF41" s="38"/>
-      <c r="BG41" s="38"/>
-      <c r="BH41" s="38"/>
-      <c r="BI41" s="38"/>
-      <c r="BJ41" s="38"/>
-      <c r="BK41" s="38"/>
-      <c r="BL41" s="38"/>
-      <c r="BM41" s="38"/>
-      <c r="BN41" s="38"/>
-      <c r="BO41" s="38"/>
-      <c r="BP41" s="38"/>
-      <c r="BQ41" s="38"/>
-      <c r="BR41" s="38"/>
-      <c r="BS41" s="38"/>
-      <c r="BT41" s="38"/>
-      <c r="BU41" s="38"/>
-      <c r="BV41" s="38"/>
-      <c r="BW41" s="38"/>
-      <c r="BX41" s="38"/>
-      <c r="BY41" s="38"/>
+      <c r="V41" s="69"/>
+      <c r="W41" s="70"/>
+      <c r="X41" s="80"/>
+      <c r="Y41" s="80"/>
+      <c r="Z41" s="80"/>
+      <c r="AA41" s="80"/>
+      <c r="AB41" s="80"/>
+      <c r="AC41" s="80"/>
+      <c r="AD41" s="80"/>
+      <c r="AE41" s="80"/>
+      <c r="AF41" s="80"/>
+      <c r="AG41" s="80"/>
+      <c r="AH41" s="80"/>
+      <c r="AI41" s="80"/>
+      <c r="AJ41" s="80"/>
+      <c r="AK41" s="80"/>
+      <c r="AL41" s="80"/>
+      <c r="AM41" s="80"/>
+      <c r="AN41" s="80"/>
+      <c r="AO41" s="80"/>
+      <c r="AP41" s="80"/>
+      <c r="AQ41" s="80"/>
+      <c r="AR41" s="80"/>
+      <c r="AS41" s="80"/>
+      <c r="AT41" s="80"/>
+      <c r="AU41" s="80"/>
+      <c r="AV41" s="80"/>
+      <c r="AW41" s="80"/>
+      <c r="AX41" s="80"/>
+      <c r="AY41" s="80"/>
+      <c r="AZ41" s="80"/>
+      <c r="BA41" s="80"/>
+      <c r="BB41" s="80"/>
+      <c r="BC41" s="80"/>
+      <c r="BD41" s="80"/>
+      <c r="BE41" s="80"/>
+      <c r="BF41" s="80"/>
+      <c r="BG41" s="80"/>
+      <c r="BH41" s="80"/>
+      <c r="BI41" s="80"/>
+      <c r="BJ41" s="80"/>
+      <c r="BK41" s="80"/>
+      <c r="BL41" s="80"/>
+      <c r="BM41" s="80"/>
+      <c r="BN41" s="80"/>
+      <c r="BO41" s="80"/>
+      <c r="BP41" s="80"/>
+      <c r="BQ41" s="80"/>
+      <c r="BR41" s="80"/>
+      <c r="BS41" s="80"/>
+      <c r="BT41" s="80"/>
+      <c r="BU41" s="78"/>
+      <c r="BV41" s="71"/>
+      <c r="BW41" s="71"/>
+      <c r="BX41" s="69"/>
+      <c r="BY41" s="70"/>
       <c r="BZ41" s="38"/>
       <c r="CA41" s="38"/>
       <c r="CB41" s="39"/>
@@ -9577,7 +9883,7 @@
       <c r="Q42" s="38"/>
       <c r="R42" s="38"/>
       <c r="S42" s="38"/>
-      <c r="T42" s="38"/>
+      <c r="T42" s="39"/>
       <c r="U42" s="38"/>
       <c r="V42" s="38"/>
       <c r="W42" s="38"/>
@@ -9659,7 +9965,7 @@
       <c r="Q43" s="38"/>
       <c r="R43" s="38"/>
       <c r="S43" s="38"/>
-      <c r="T43" s="38"/>
+      <c r="T43" s="39"/>
       <c r="U43" s="38"/>
       <c r="V43" s="38"/>
       <c r="W43" s="38"/>
@@ -9741,7 +10047,7 @@
       <c r="Q44" s="38"/>
       <c r="R44" s="38"/>
       <c r="S44" s="38"/>
-      <c r="T44" s="38"/>
+      <c r="T44" s="39"/>
       <c r="U44" s="38"/>
       <c r="V44" s="38"/>
       <c r="W44" s="38"/>
@@ -9804,102 +10110,1371 @@
       <c r="CB44" s="39"/>
     </row>
     <row r="45" spans="1:80" ht="9.9499999999999993" customHeight="1">
-      <c r="A45" s="40"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="41"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="41"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="41"/>
-      <c r="R45" s="41"/>
-      <c r="S45" s="41"/>
-      <c r="T45" s="41"/>
-      <c r="U45" s="41"/>
-      <c r="V45" s="41"/>
-      <c r="W45" s="41"/>
-      <c r="X45" s="41"/>
-      <c r="Y45" s="41"/>
-      <c r="Z45" s="41"/>
-      <c r="AA45" s="41"/>
-      <c r="AB45" s="41"/>
-      <c r="AC45" s="41"/>
-      <c r="AD45" s="41"/>
-      <c r="AE45" s="41"/>
-      <c r="AF45" s="41"/>
-      <c r="AG45" s="41"/>
-      <c r="AH45" s="41"/>
-      <c r="AI45" s="41"/>
-      <c r="AJ45" s="41"/>
-      <c r="AK45" s="41"/>
-      <c r="AL45" s="41"/>
-      <c r="AM45" s="41"/>
-      <c r="AN45" s="41"/>
-      <c r="AO45" s="41"/>
-      <c r="AP45" s="41"/>
-      <c r="AQ45" s="41"/>
-      <c r="AR45" s="41"/>
-      <c r="AS45" s="41"/>
-      <c r="AT45" s="41"/>
-      <c r="AU45" s="41"/>
-      <c r="AV45" s="41"/>
-      <c r="AW45" s="41"/>
-      <c r="AX45" s="41"/>
-      <c r="AY45" s="41"/>
-      <c r="AZ45" s="41"/>
-      <c r="BA45" s="41"/>
-      <c r="BB45" s="41"/>
-      <c r="BC45" s="41"/>
-      <c r="BD45" s="41"/>
-      <c r="BE45" s="41"/>
-      <c r="BF45" s="41"/>
-      <c r="BG45" s="41"/>
-      <c r="BH45" s="41"/>
-      <c r="BI45" s="41"/>
-      <c r="BJ45" s="41"/>
-      <c r="BK45" s="41"/>
-      <c r="BL45" s="41"/>
-      <c r="BM45" s="41"/>
-      <c r="BN45" s="41"/>
-      <c r="BO45" s="41"/>
-      <c r="BP45" s="41"/>
-      <c r="BQ45" s="41"/>
-      <c r="BR45" s="41"/>
-      <c r="BS45" s="41"/>
-      <c r="BT45" s="41"/>
-      <c r="BU45" s="41"/>
-      <c r="BV45" s="41"/>
-      <c r="BW45" s="41"/>
-      <c r="BX45" s="41"/>
-      <c r="BY45" s="41"/>
-      <c r="BZ45" s="41"/>
-      <c r="CA45" s="41"/>
-      <c r="CB45" s="42"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="38"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="38"/>
+      <c r="S45" s="38"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="38"/>
+      <c r="V45" s="38"/>
+      <c r="W45" s="38"/>
+      <c r="X45" s="38"/>
+      <c r="Y45" s="38"/>
+      <c r="Z45" s="38"/>
+      <c r="AA45" s="38"/>
+      <c r="AB45" s="38"/>
+      <c r="AC45" s="38"/>
+      <c r="AD45" s="38"/>
+      <c r="AE45" s="38"/>
+      <c r="AF45" s="38"/>
+      <c r="AG45" s="38"/>
+      <c r="AH45" s="38"/>
+      <c r="AI45" s="38"/>
+      <c r="AJ45" s="38"/>
+      <c r="AK45" s="38"/>
+      <c r="AL45" s="38"/>
+      <c r="AM45" s="38"/>
+      <c r="AN45" s="38"/>
+      <c r="AO45" s="38"/>
+      <c r="AP45" s="38"/>
+      <c r="AQ45" s="38"/>
+      <c r="AR45" s="38"/>
+      <c r="AS45" s="38"/>
+      <c r="AT45" s="38"/>
+      <c r="AU45" s="38"/>
+      <c r="AV45" s="38"/>
+      <c r="AW45" s="38"/>
+      <c r="AX45" s="38"/>
+      <c r="AY45" s="38"/>
+      <c r="AZ45" s="38"/>
+      <c r="BA45" s="38"/>
+      <c r="BB45" s="38"/>
+      <c r="BC45" s="38"/>
+      <c r="BD45" s="38"/>
+      <c r="BE45" s="38"/>
+      <c r="BF45" s="38"/>
+      <c r="BG45" s="38"/>
+      <c r="BH45" s="38"/>
+      <c r="BI45" s="38"/>
+      <c r="BJ45" s="38"/>
+      <c r="BK45" s="38"/>
+      <c r="BL45" s="38"/>
+      <c r="BM45" s="38"/>
+      <c r="BN45" s="38"/>
+      <c r="BO45" s="38"/>
+      <c r="BP45" s="38"/>
+      <c r="BQ45" s="38"/>
+      <c r="BR45" s="38"/>
+      <c r="BS45" s="38"/>
+      <c r="BT45" s="38"/>
+      <c r="BU45" s="38"/>
+      <c r="BV45" s="38"/>
+      <c r="BW45" s="38"/>
+      <c r="BX45" s="38"/>
+      <c r="BY45" s="38"/>
+      <c r="BZ45" s="38"/>
+      <c r="CA45" s="38"/>
+      <c r="CB45" s="39"/>
+    </row>
+    <row r="46" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A46" s="37"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="38"/>
+      <c r="S46" s="38"/>
+      <c r="T46" s="39"/>
+      <c r="U46" s="38"/>
+      <c r="V46" s="38"/>
+      <c r="W46" s="38"/>
+      <c r="X46" s="38"/>
+      <c r="Y46" s="38"/>
+      <c r="Z46" s="38"/>
+      <c r="AA46" s="38"/>
+      <c r="AB46" s="38"/>
+      <c r="AC46" s="38"/>
+      <c r="AD46" s="38"/>
+      <c r="AE46" s="38"/>
+      <c r="AF46" s="38"/>
+      <c r="AG46" s="38"/>
+      <c r="AH46" s="38"/>
+      <c r="AI46" s="38"/>
+      <c r="AJ46" s="38"/>
+      <c r="AK46" s="38"/>
+      <c r="AL46" s="38"/>
+      <c r="AM46" s="38"/>
+      <c r="AN46" s="38"/>
+      <c r="AO46" s="38"/>
+      <c r="AP46" s="38"/>
+      <c r="AQ46" s="38"/>
+      <c r="AR46" s="38"/>
+      <c r="AS46" s="38"/>
+      <c r="AT46" s="38"/>
+      <c r="AU46" s="38"/>
+      <c r="AV46" s="38"/>
+      <c r="AW46" s="38"/>
+      <c r="AX46" s="38"/>
+      <c r="AY46" s="38"/>
+      <c r="AZ46" s="38"/>
+      <c r="BA46" s="38"/>
+      <c r="BB46" s="38"/>
+      <c r="BC46" s="38"/>
+      <c r="BD46" s="38"/>
+      <c r="BE46" s="38"/>
+      <c r="BF46" s="38"/>
+      <c r="BG46" s="38"/>
+      <c r="BH46" s="38"/>
+      <c r="BI46" s="38"/>
+      <c r="BJ46" s="38"/>
+      <c r="BK46" s="38"/>
+      <c r="BL46" s="38"/>
+      <c r="BM46" s="38"/>
+      <c r="BN46" s="38"/>
+      <c r="BO46" s="38"/>
+      <c r="BP46" s="38"/>
+      <c r="BQ46" s="38"/>
+      <c r="BR46" s="38"/>
+      <c r="BS46" s="38"/>
+      <c r="BT46" s="38"/>
+      <c r="BU46" s="38"/>
+      <c r="BV46" s="38"/>
+      <c r="BW46" s="38"/>
+      <c r="BX46" s="38"/>
+      <c r="BY46" s="38"/>
+      <c r="BZ46" s="38"/>
+      <c r="CA46" s="38"/>
+      <c r="CB46" s="39"/>
+    </row>
+    <row r="47" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A47" s="37"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="38"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="38"/>
+      <c r="S47" s="38"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="38"/>
+      <c r="V47" s="38"/>
+      <c r="W47" s="38"/>
+      <c r="X47" s="38"/>
+      <c r="Y47" s="38"/>
+      <c r="Z47" s="38"/>
+      <c r="AA47" s="38"/>
+      <c r="AB47" s="38"/>
+      <c r="AC47" s="38"/>
+      <c r="AD47" s="38"/>
+      <c r="AE47" s="38"/>
+      <c r="AF47" s="38"/>
+      <c r="AG47" s="38"/>
+      <c r="AH47" s="38"/>
+      <c r="AI47" s="38"/>
+      <c r="AJ47" s="38"/>
+      <c r="AK47" s="38"/>
+      <c r="AL47" s="38"/>
+      <c r="AM47" s="38"/>
+      <c r="AN47" s="38"/>
+      <c r="AO47" s="38"/>
+      <c r="AP47" s="38"/>
+      <c r="AQ47" s="38"/>
+      <c r="AR47" s="38"/>
+      <c r="AS47" s="38"/>
+      <c r="AT47" s="38"/>
+      <c r="AU47" s="38"/>
+      <c r="AV47" s="38"/>
+      <c r="AW47" s="38"/>
+      <c r="AX47" s="38"/>
+      <c r="AY47" s="38"/>
+      <c r="AZ47" s="38"/>
+      <c r="BA47" s="38"/>
+      <c r="BB47" s="38"/>
+      <c r="BC47" s="38"/>
+      <c r="BD47" s="38"/>
+      <c r="BE47" s="38"/>
+      <c r="BF47" s="38"/>
+      <c r="BG47" s="38"/>
+      <c r="BH47" s="38"/>
+      <c r="BI47" s="38"/>
+      <c r="BJ47" s="38"/>
+      <c r="BK47" s="38"/>
+      <c r="BL47" s="38"/>
+      <c r="BM47" s="38"/>
+      <c r="BN47" s="38"/>
+      <c r="BO47" s="38"/>
+      <c r="BP47" s="38"/>
+      <c r="BQ47" s="38"/>
+      <c r="BR47" s="38"/>
+      <c r="BS47" s="38"/>
+      <c r="BT47" s="38"/>
+      <c r="BU47" s="38"/>
+      <c r="BV47" s="38"/>
+      <c r="BW47" s="38"/>
+      <c r="BX47" s="38"/>
+      <c r="BY47" s="38"/>
+      <c r="BZ47" s="38"/>
+      <c r="CA47" s="38"/>
+      <c r="CB47" s="39"/>
+    </row>
+    <row r="48" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A48" s="37"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="38"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="38"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="38"/>
+      <c r="V48" s="38"/>
+      <c r="W48" s="38"/>
+      <c r="X48" s="38"/>
+      <c r="Y48" s="38"/>
+      <c r="Z48" s="38"/>
+      <c r="AA48" s="38"/>
+      <c r="AB48" s="38"/>
+      <c r="AC48" s="38"/>
+      <c r="AD48" s="38"/>
+      <c r="AE48" s="38"/>
+      <c r="AF48" s="38"/>
+      <c r="AG48" s="38"/>
+      <c r="AH48" s="38"/>
+      <c r="AI48" s="38"/>
+      <c r="AJ48" s="38"/>
+      <c r="AK48" s="38"/>
+      <c r="AL48" s="38"/>
+      <c r="AM48" s="38"/>
+      <c r="AN48" s="38"/>
+      <c r="AO48" s="38"/>
+      <c r="AP48" s="38"/>
+      <c r="AQ48" s="38"/>
+      <c r="AR48" s="38"/>
+      <c r="AS48" s="38"/>
+      <c r="AT48" s="38"/>
+      <c r="AU48" s="38"/>
+      <c r="AV48" s="38"/>
+      <c r="AW48" s="38"/>
+      <c r="AX48" s="38"/>
+      <c r="AY48" s="38"/>
+      <c r="AZ48" s="38"/>
+      <c r="BA48" s="38"/>
+      <c r="BB48" s="38"/>
+      <c r="BC48" s="38"/>
+      <c r="BD48" s="38"/>
+      <c r="BE48" s="38"/>
+      <c r="BF48" s="38"/>
+      <c r="BG48" s="38"/>
+      <c r="BH48" s="38"/>
+      <c r="BI48" s="38"/>
+      <c r="BJ48" s="38"/>
+      <c r="BK48" s="38"/>
+      <c r="BL48" s="38"/>
+      <c r="BM48" s="38"/>
+      <c r="BN48" s="38"/>
+      <c r="BO48" s="38"/>
+      <c r="BP48" s="38"/>
+      <c r="BQ48" s="38"/>
+      <c r="BR48" s="38"/>
+      <c r="BS48" s="38"/>
+      <c r="BT48" s="38"/>
+      <c r="BU48" s="38"/>
+      <c r="BV48" s="38"/>
+      <c r="BW48" s="38"/>
+      <c r="BX48" s="38"/>
+      <c r="BY48" s="38"/>
+      <c r="BZ48" s="38"/>
+      <c r="CA48" s="38"/>
+      <c r="CB48" s="39"/>
+    </row>
+    <row r="49" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A49" s="37"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="38"/>
+      <c r="S49" s="38"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="38"/>
+      <c r="V49" s="38"/>
+      <c r="W49" s="38"/>
+      <c r="X49" s="38"/>
+      <c r="Y49" s="38"/>
+      <c r="Z49" s="38"/>
+      <c r="AA49" s="38"/>
+      <c r="AB49" s="38"/>
+      <c r="AC49" s="38"/>
+      <c r="AD49" s="38"/>
+      <c r="AE49" s="38"/>
+      <c r="AF49" s="38"/>
+      <c r="AG49" s="38"/>
+      <c r="AH49" s="38"/>
+      <c r="AI49" s="38"/>
+      <c r="AJ49" s="38"/>
+      <c r="AK49" s="38"/>
+      <c r="AL49" s="38"/>
+      <c r="AM49" s="38"/>
+      <c r="AN49" s="38"/>
+      <c r="AO49" s="38"/>
+      <c r="AP49" s="38"/>
+      <c r="AQ49" s="38"/>
+      <c r="AR49" s="38"/>
+      <c r="AS49" s="38"/>
+      <c r="AT49" s="38"/>
+      <c r="AU49" s="38"/>
+      <c r="AV49" s="38"/>
+      <c r="AW49" s="38"/>
+      <c r="AX49" s="38"/>
+      <c r="AY49" s="38"/>
+      <c r="AZ49" s="38"/>
+      <c r="BA49" s="38"/>
+      <c r="BB49" s="38"/>
+      <c r="BC49" s="38"/>
+      <c r="BD49" s="38"/>
+      <c r="BE49" s="38"/>
+      <c r="BF49" s="38"/>
+      <c r="BG49" s="38"/>
+      <c r="BH49" s="38"/>
+      <c r="BI49" s="38"/>
+      <c r="BJ49" s="38"/>
+      <c r="BK49" s="38"/>
+      <c r="BL49" s="38"/>
+      <c r="BM49" s="38"/>
+      <c r="BN49" s="38"/>
+      <c r="BO49" s="38"/>
+      <c r="BP49" s="38"/>
+      <c r="BQ49" s="38"/>
+      <c r="BR49" s="38"/>
+      <c r="BS49" s="38"/>
+      <c r="BT49" s="38"/>
+      <c r="BU49" s="38"/>
+      <c r="BV49" s="38"/>
+      <c r="BW49" s="38"/>
+      <c r="BX49" s="38"/>
+      <c r="BY49" s="38"/>
+      <c r="BZ49" s="38"/>
+      <c r="CA49" s="38"/>
+      <c r="CB49" s="39"/>
+    </row>
+    <row r="50" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="A50" s="40"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="41"/>
+      <c r="P50" s="41"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41"/>
+      <c r="S50" s="41"/>
+      <c r="T50" s="42"/>
+      <c r="U50" s="41"/>
+      <c r="V50" s="41"/>
+      <c r="W50" s="41"/>
+      <c r="X50" s="41"/>
+      <c r="Y50" s="41"/>
+      <c r="Z50" s="41"/>
+      <c r="AA50" s="41"/>
+      <c r="AB50" s="41"/>
+      <c r="AC50" s="41"/>
+      <c r="AD50" s="41"/>
+      <c r="AE50" s="41"/>
+      <c r="AF50" s="41"/>
+      <c r="AG50" s="41"/>
+      <c r="AH50" s="41"/>
+      <c r="AI50" s="41"/>
+      <c r="AJ50" s="41"/>
+      <c r="AK50" s="41"/>
+      <c r="AL50" s="41"/>
+      <c r="AM50" s="41"/>
+      <c r="AN50" s="41"/>
+      <c r="AO50" s="41"/>
+      <c r="AP50" s="41"/>
+      <c r="AQ50" s="41"/>
+      <c r="AR50" s="41"/>
+      <c r="AS50" s="41"/>
+      <c r="AT50" s="41"/>
+      <c r="AU50" s="41"/>
+      <c r="AV50" s="41"/>
+      <c r="AW50" s="41"/>
+      <c r="AX50" s="41"/>
+      <c r="AY50" s="41"/>
+      <c r="AZ50" s="41"/>
+      <c r="BA50" s="41"/>
+      <c r="BB50" s="41"/>
+      <c r="BC50" s="41"/>
+      <c r="BD50" s="41"/>
+      <c r="BE50" s="41"/>
+      <c r="BF50" s="41"/>
+      <c r="BG50" s="41"/>
+      <c r="BH50" s="41"/>
+      <c r="BI50" s="41"/>
+      <c r="BJ50" s="41"/>
+      <c r="BK50" s="41"/>
+      <c r="BL50" s="41"/>
+      <c r="BM50" s="41"/>
+      <c r="BN50" s="41"/>
+      <c r="BO50" s="41"/>
+      <c r="BP50" s="41"/>
+      <c r="BQ50" s="41"/>
+      <c r="BR50" s="41"/>
+      <c r="BS50" s="41"/>
+      <c r="BT50" s="41"/>
+      <c r="BU50" s="41"/>
+      <c r="BV50" s="41"/>
+      <c r="BW50" s="41"/>
+      <c r="BX50" s="41"/>
+      <c r="BY50" s="41"/>
+      <c r="BZ50" s="41"/>
+      <c r="CA50" s="41"/>
+      <c r="CB50" s="42"/>
+    </row>
+    <row r="53" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="V53" s="34"/>
+      <c r="W53" s="62"/>
+      <c r="X53" s="62"/>
+      <c r="Y53" s="62"/>
+      <c r="Z53" s="35"/>
+      <c r="AA53" s="62"/>
+      <c r="AB53" s="62"/>
+      <c r="AC53" s="62"/>
+      <c r="AD53" s="35"/>
+      <c r="AE53" s="63"/>
+      <c r="AF53" s="34"/>
+      <c r="AG53" s="62"/>
+      <c r="AH53" s="62"/>
+      <c r="AI53" s="62"/>
+      <c r="AJ53" s="35"/>
+      <c r="AK53" s="62"/>
+      <c r="AL53" s="62"/>
+      <c r="AM53" s="62"/>
+      <c r="AN53" s="35"/>
+      <c r="AO53" s="63"/>
+      <c r="AP53" s="34"/>
+      <c r="AQ53" s="62"/>
+      <c r="AR53" s="62"/>
+      <c r="AS53" s="62"/>
+      <c r="AT53" s="35"/>
+      <c r="AU53" s="62"/>
+      <c r="AV53" s="62"/>
+      <c r="AW53" s="62"/>
+      <c r="AX53" s="35"/>
+      <c r="AY53" s="63"/>
+      <c r="AZ53" s="34"/>
+      <c r="BA53" s="62"/>
+      <c r="BB53" s="62"/>
+      <c r="BC53" s="62"/>
+      <c r="BD53" s="35"/>
+      <c r="BE53" s="62"/>
+      <c r="BF53" s="62"/>
+      <c r="BG53" s="62"/>
+      <c r="BH53" s="35"/>
+      <c r="BI53" s="63"/>
+      <c r="BJ53" s="34"/>
+      <c r="BK53" s="62"/>
+      <c r="BL53" s="62"/>
+      <c r="BM53" s="62"/>
+      <c r="BN53" s="35"/>
+      <c r="BO53" s="62"/>
+      <c r="BP53" s="62"/>
+      <c r="BQ53" s="62"/>
+      <c r="BR53" s="35"/>
+      <c r="BS53" s="63"/>
+      <c r="BT53" s="62"/>
+      <c r="BU53" s="62"/>
+      <c r="BV53" s="35"/>
+      <c r="BW53" s="62"/>
+      <c r="BX53" s="62"/>
+      <c r="BY53" s="62"/>
+      <c r="BZ53" s="67"/>
+      <c r="CA53" s="68"/>
+    </row>
+    <row r="54" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="V54" s="37"/>
+      <c r="W54" s="64"/>
+      <c r="X54" s="64"/>
+      <c r="Y54" s="64"/>
+      <c r="Z54" s="38"/>
+      <c r="AA54" s="64"/>
+      <c r="AB54" s="64"/>
+      <c r="AC54" s="64"/>
+      <c r="AD54" s="38"/>
+      <c r="AE54" s="65"/>
+      <c r="AF54" s="37"/>
+      <c r="AG54" s="64"/>
+      <c r="AH54" s="64"/>
+      <c r="AI54" s="64"/>
+      <c r="AJ54" s="38"/>
+      <c r="AK54" s="64"/>
+      <c r="AL54" s="64"/>
+      <c r="AM54" s="64"/>
+      <c r="AN54" s="38"/>
+      <c r="AO54" s="65"/>
+      <c r="AP54" s="37"/>
+      <c r="AQ54" s="64"/>
+      <c r="AR54" s="64"/>
+      <c r="AS54" s="64"/>
+      <c r="AT54" s="38"/>
+      <c r="AU54" s="64"/>
+      <c r="AV54" s="64"/>
+      <c r="AW54" s="64"/>
+      <c r="AX54" s="38"/>
+      <c r="AY54" s="65"/>
+      <c r="AZ54" s="37"/>
+      <c r="BA54" s="64"/>
+      <c r="BB54" s="64"/>
+      <c r="BC54" s="64"/>
+      <c r="BD54" s="38"/>
+      <c r="BE54" s="64"/>
+      <c r="BF54" s="64"/>
+      <c r="BG54" s="64"/>
+      <c r="BH54" s="38"/>
+      <c r="BI54" s="65"/>
+      <c r="BJ54" s="37"/>
+      <c r="BK54" s="64"/>
+      <c r="BL54" s="64"/>
+      <c r="BM54" s="64"/>
+      <c r="BN54" s="38"/>
+      <c r="BO54" s="64"/>
+      <c r="BP54" s="64"/>
+      <c r="BQ54" s="64"/>
+      <c r="BR54" s="38"/>
+      <c r="BS54" s="65"/>
+      <c r="BT54" s="64"/>
+      <c r="BU54" s="64"/>
+      <c r="BV54" s="38"/>
+      <c r="BW54" s="64"/>
+      <c r="BX54" s="64"/>
+      <c r="BY54" s="64"/>
+      <c r="BZ54" s="82"/>
+      <c r="CA54" s="83"/>
+    </row>
+    <row r="55" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="V55" s="34"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35"/>
+      <c r="Y55" s="35"/>
+      <c r="Z55" s="35"/>
+      <c r="AA55" s="35"/>
+      <c r="AB55" s="35"/>
+      <c r="AC55" s="35"/>
+      <c r="AD55" s="35"/>
+      <c r="AE55" s="36"/>
+      <c r="AF55" s="34"/>
+      <c r="AG55" s="35"/>
+      <c r="AH55" s="35"/>
+      <c r="AI55" s="35"/>
+      <c r="AJ55" s="35"/>
+      <c r="AK55" s="35"/>
+      <c r="AL55" s="35"/>
+      <c r="AM55" s="35"/>
+      <c r="AN55" s="35"/>
+      <c r="AO55" s="36"/>
+      <c r="AP55" s="34"/>
+      <c r="AQ55" s="35"/>
+      <c r="AR55" s="35"/>
+      <c r="AS55" s="35"/>
+      <c r="AT55" s="35"/>
+      <c r="AU55" s="35"/>
+      <c r="AV55" s="35"/>
+      <c r="AW55" s="35"/>
+      <c r="AX55" s="35"/>
+      <c r="AY55" s="36"/>
+      <c r="AZ55" s="34"/>
+      <c r="BA55" s="35"/>
+      <c r="BB55" s="35"/>
+      <c r="BC55" s="35"/>
+      <c r="BD55" s="35"/>
+      <c r="BE55" s="35"/>
+      <c r="BF55" s="35"/>
+      <c r="BG55" s="35"/>
+      <c r="BH55" s="35"/>
+      <c r="BI55" s="36"/>
+      <c r="BJ55" s="34"/>
+      <c r="BK55" s="35"/>
+      <c r="BL55" s="35"/>
+      <c r="BM55" s="35"/>
+      <c r="BN55" s="35"/>
+      <c r="BO55" s="35"/>
+      <c r="BP55" s="35"/>
+      <c r="BQ55" s="35"/>
+      <c r="BR55" s="35"/>
+      <c r="BS55" s="36"/>
+      <c r="BT55" s="35"/>
+      <c r="BU55" s="35"/>
+      <c r="BV55" s="35"/>
+      <c r="BW55" s="35"/>
+      <c r="BX55" s="35"/>
+      <c r="BY55" s="35"/>
+      <c r="BZ55" s="79"/>
+      <c r="CA55" s="84"/>
+    </row>
+    <row r="56" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="V56" s="37"/>
+      <c r="W56" s="38"/>
+      <c r="X56" s="38"/>
+      <c r="Y56" s="38"/>
+      <c r="Z56" s="38"/>
+      <c r="AA56" s="38"/>
+      <c r="AB56" s="38"/>
+      <c r="AC56" s="38"/>
+      <c r="AD56" s="38"/>
+      <c r="AE56" s="39"/>
+      <c r="AF56" s="37"/>
+      <c r="AG56" s="38"/>
+      <c r="AH56" s="38"/>
+      <c r="AI56" s="38"/>
+      <c r="AJ56" s="38"/>
+      <c r="AK56" s="38"/>
+      <c r="AL56" s="38"/>
+      <c r="AM56" s="38"/>
+      <c r="AN56" s="38"/>
+      <c r="AO56" s="39"/>
+      <c r="AP56" s="37"/>
+      <c r="AQ56" s="38"/>
+      <c r="AR56" s="38"/>
+      <c r="AS56" s="38"/>
+      <c r="AT56" s="38"/>
+      <c r="AU56" s="38"/>
+      <c r="AV56" s="38"/>
+      <c r="AW56" s="38"/>
+      <c r="AX56" s="38"/>
+      <c r="AY56" s="39"/>
+      <c r="AZ56" s="37"/>
+      <c r="BA56" s="38"/>
+      <c r="BB56" s="38"/>
+      <c r="BC56" s="38"/>
+      <c r="BD56" s="38"/>
+      <c r="BE56" s="38"/>
+      <c r="BF56" s="38"/>
+      <c r="BG56" s="38"/>
+      <c r="BH56" s="38"/>
+      <c r="BI56" s="39"/>
+      <c r="BJ56" s="37"/>
+      <c r="BK56" s="38"/>
+      <c r="BL56" s="38"/>
+      <c r="BM56" s="38"/>
+      <c r="BN56" s="38"/>
+      <c r="BO56" s="38"/>
+      <c r="BP56" s="38"/>
+      <c r="BQ56" s="38"/>
+      <c r="BR56" s="38"/>
+      <c r="BS56" s="39"/>
+      <c r="BT56" s="38"/>
+      <c r="BU56" s="38"/>
+      <c r="BV56" s="38"/>
+      <c r="BW56" s="38"/>
+      <c r="BX56" s="38"/>
+      <c r="BY56" s="38"/>
+      <c r="BZ56" s="75"/>
+      <c r="CA56" s="76"/>
+    </row>
+    <row r="57" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="V57" s="40"/>
+      <c r="W57" s="41"/>
+      <c r="X57" s="41"/>
+      <c r="Y57" s="41"/>
+      <c r="Z57" s="41"/>
+      <c r="AA57" s="41"/>
+      <c r="AB57" s="41"/>
+      <c r="AC57" s="41"/>
+      <c r="AD57" s="41"/>
+      <c r="AE57" s="42"/>
+      <c r="AF57" s="40"/>
+      <c r="AG57" s="41"/>
+      <c r="AH57" s="41"/>
+      <c r="AI57" s="41"/>
+      <c r="AJ57" s="41"/>
+      <c r="AK57" s="41"/>
+      <c r="AL57" s="41"/>
+      <c r="AM57" s="41"/>
+      <c r="AN57" s="41"/>
+      <c r="AO57" s="42"/>
+      <c r="AP57" s="40"/>
+      <c r="AQ57" s="41"/>
+      <c r="AR57" s="41"/>
+      <c r="AS57" s="41"/>
+      <c r="AT57" s="41"/>
+      <c r="AU57" s="41"/>
+      <c r="AV57" s="41"/>
+      <c r="AW57" s="41"/>
+      <c r="AX57" s="41"/>
+      <c r="AY57" s="42"/>
+      <c r="AZ57" s="40"/>
+      <c r="BA57" s="41"/>
+      <c r="BB57" s="41"/>
+      <c r="BC57" s="41"/>
+      <c r="BD57" s="41"/>
+      <c r="BE57" s="41"/>
+      <c r="BF57" s="41"/>
+      <c r="BG57" s="41"/>
+      <c r="BH57" s="41"/>
+      <c r="BI57" s="42"/>
+      <c r="BJ57" s="40"/>
+      <c r="BK57" s="41"/>
+      <c r="BL57" s="41"/>
+      <c r="BM57" s="41"/>
+      <c r="BN57" s="41"/>
+      <c r="BO57" s="41"/>
+      <c r="BP57" s="41"/>
+      <c r="BQ57" s="41"/>
+      <c r="BR57" s="41"/>
+      <c r="BS57" s="42"/>
+      <c r="BT57" s="41"/>
+      <c r="BU57" s="41"/>
+      <c r="BV57" s="41"/>
+      <c r="BW57" s="41"/>
+      <c r="BX57" s="41"/>
+      <c r="BY57" s="41"/>
+      <c r="BZ57" s="75"/>
+      <c r="CA57" s="76"/>
+    </row>
+    <row r="58" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="V58" s="34"/>
+      <c r="W58" s="35"/>
+      <c r="X58" s="35"/>
+      <c r="Y58" s="35"/>
+      <c r="Z58" s="35"/>
+      <c r="AA58" s="35"/>
+      <c r="AB58" s="35"/>
+      <c r="AC58" s="35"/>
+      <c r="AD58" s="35"/>
+      <c r="AE58" s="36"/>
+      <c r="AF58" s="34"/>
+      <c r="AG58" s="35"/>
+      <c r="AH58" s="35"/>
+      <c r="AI58" s="35"/>
+      <c r="AJ58" s="35"/>
+      <c r="AK58" s="35"/>
+      <c r="AL58" s="35"/>
+      <c r="AM58" s="35"/>
+      <c r="AN58" s="35"/>
+      <c r="AO58" s="36"/>
+      <c r="AP58" s="34"/>
+      <c r="AQ58" s="35"/>
+      <c r="AR58" s="35"/>
+      <c r="AS58" s="35"/>
+      <c r="AT58" s="35"/>
+      <c r="AU58" s="35"/>
+      <c r="AV58" s="35"/>
+      <c r="AW58" s="35"/>
+      <c r="AX58" s="35"/>
+      <c r="AY58" s="36"/>
+      <c r="AZ58" s="34"/>
+      <c r="BA58" s="35"/>
+      <c r="BB58" s="35"/>
+      <c r="BC58" s="35"/>
+      <c r="BD58" s="35"/>
+      <c r="BE58" s="35"/>
+      <c r="BF58" s="35"/>
+      <c r="BG58" s="35"/>
+      <c r="BH58" s="35"/>
+      <c r="BI58" s="36"/>
+      <c r="BJ58" s="34"/>
+      <c r="BK58" s="35"/>
+      <c r="BL58" s="35"/>
+      <c r="BM58" s="35"/>
+      <c r="BN58" s="35"/>
+      <c r="BO58" s="35"/>
+      <c r="BP58" s="35"/>
+      <c r="BQ58" s="35"/>
+      <c r="BR58" s="35"/>
+      <c r="BS58" s="36"/>
+      <c r="BT58" s="35"/>
+      <c r="BU58" s="35"/>
+      <c r="BV58" s="35"/>
+      <c r="BW58" s="35"/>
+      <c r="BX58" s="35"/>
+      <c r="BY58" s="35"/>
+      <c r="BZ58" s="75"/>
+      <c r="CA58" s="76"/>
+    </row>
+    <row r="59" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="V59" s="37"/>
+      <c r="W59" s="38"/>
+      <c r="X59" s="38"/>
+      <c r="Y59" s="38"/>
+      <c r="Z59" s="38"/>
+      <c r="AA59" s="38"/>
+      <c r="AB59" s="38"/>
+      <c r="AC59" s="38"/>
+      <c r="AD59" s="38"/>
+      <c r="AE59" s="39"/>
+      <c r="AF59" s="37"/>
+      <c r="AG59" s="38"/>
+      <c r="AH59" s="38"/>
+      <c r="AI59" s="38"/>
+      <c r="AJ59" s="38"/>
+      <c r="AK59" s="38"/>
+      <c r="AL59" s="38"/>
+      <c r="AM59" s="38"/>
+      <c r="AN59" s="38"/>
+      <c r="AO59" s="39"/>
+      <c r="AP59" s="37"/>
+      <c r="AQ59" s="38"/>
+      <c r="AR59" s="38"/>
+      <c r="AS59" s="38"/>
+      <c r="AT59" s="38"/>
+      <c r="AU59" s="38"/>
+      <c r="AV59" s="38"/>
+      <c r="AW59" s="38"/>
+      <c r="AX59" s="38"/>
+      <c r="AY59" s="39"/>
+      <c r="AZ59" s="37"/>
+      <c r="BA59" s="38"/>
+      <c r="BB59" s="38"/>
+      <c r="BC59" s="38"/>
+      <c r="BD59" s="38"/>
+      <c r="BE59" s="38"/>
+      <c r="BF59" s="38"/>
+      <c r="BG59" s="38"/>
+      <c r="BH59" s="38"/>
+      <c r="BI59" s="39"/>
+      <c r="BJ59" s="37"/>
+      <c r="BK59" s="38"/>
+      <c r="BL59" s="38"/>
+      <c r="BM59" s="38"/>
+      <c r="BN59" s="38"/>
+      <c r="BO59" s="38"/>
+      <c r="BP59" s="38"/>
+      <c r="BQ59" s="38"/>
+      <c r="BR59" s="38"/>
+      <c r="BS59" s="39"/>
+      <c r="BT59" s="38"/>
+      <c r="BU59" s="38"/>
+      <c r="BV59" s="38"/>
+      <c r="BW59" s="38"/>
+      <c r="BX59" s="38"/>
+      <c r="BY59" s="38"/>
+      <c r="BZ59" s="75"/>
+      <c r="CA59" s="76"/>
+    </row>
+    <row r="60" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="V60" s="40"/>
+      <c r="W60" s="41"/>
+      <c r="X60" s="41"/>
+      <c r="Y60" s="41"/>
+      <c r="Z60" s="41"/>
+      <c r="AA60" s="41"/>
+      <c r="AB60" s="41"/>
+      <c r="AC60" s="41"/>
+      <c r="AD60" s="41"/>
+      <c r="AE60" s="42"/>
+      <c r="AF60" s="40"/>
+      <c r="AG60" s="41"/>
+      <c r="AH60" s="41"/>
+      <c r="AI60" s="41"/>
+      <c r="AJ60" s="41"/>
+      <c r="AK60" s="41"/>
+      <c r="AL60" s="41"/>
+      <c r="AM60" s="41"/>
+      <c r="AN60" s="41"/>
+      <c r="AO60" s="42"/>
+      <c r="AP60" s="40"/>
+      <c r="AQ60" s="41"/>
+      <c r="AR60" s="41"/>
+      <c r="AS60" s="41"/>
+      <c r="AT60" s="41"/>
+      <c r="AU60" s="41"/>
+      <c r="AV60" s="41"/>
+      <c r="AW60" s="41"/>
+      <c r="AX60" s="41"/>
+      <c r="AY60" s="42"/>
+      <c r="AZ60" s="40"/>
+      <c r="BA60" s="41"/>
+      <c r="BB60" s="41"/>
+      <c r="BC60" s="41"/>
+      <c r="BD60" s="41"/>
+      <c r="BE60" s="41"/>
+      <c r="BF60" s="41"/>
+      <c r="BG60" s="41"/>
+      <c r="BH60" s="41"/>
+      <c r="BI60" s="42"/>
+      <c r="BJ60" s="40"/>
+      <c r="BK60" s="41"/>
+      <c r="BL60" s="41"/>
+      <c r="BM60" s="41"/>
+      <c r="BN60" s="41"/>
+      <c r="BO60" s="41"/>
+      <c r="BP60" s="41"/>
+      <c r="BQ60" s="41"/>
+      <c r="BR60" s="41"/>
+      <c r="BS60" s="42"/>
+      <c r="BT60" s="41"/>
+      <c r="BU60" s="41"/>
+      <c r="BV60" s="41"/>
+      <c r="BW60" s="41"/>
+      <c r="BX60" s="41"/>
+      <c r="BY60" s="41"/>
+      <c r="BZ60" s="75"/>
+      <c r="CA60" s="76"/>
+    </row>
+    <row r="61" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="V61" s="34"/>
+      <c r="W61" s="35"/>
+      <c r="X61" s="35"/>
+      <c r="Y61" s="35"/>
+      <c r="Z61" s="35"/>
+      <c r="AA61" s="35"/>
+      <c r="AB61" s="35"/>
+      <c r="AC61" s="35"/>
+      <c r="AD61" s="35"/>
+      <c r="AE61" s="36"/>
+      <c r="AF61" s="34"/>
+      <c r="AG61" s="35"/>
+      <c r="AH61" s="35"/>
+      <c r="AI61" s="35"/>
+      <c r="AJ61" s="35"/>
+      <c r="AK61" s="35"/>
+      <c r="AL61" s="35"/>
+      <c r="AM61" s="35"/>
+      <c r="AN61" s="35"/>
+      <c r="AO61" s="36"/>
+      <c r="AP61" s="34"/>
+      <c r="AQ61" s="35"/>
+      <c r="AR61" s="35"/>
+      <c r="AS61" s="35"/>
+      <c r="AT61" s="35"/>
+      <c r="AU61" s="35"/>
+      <c r="AV61" s="35"/>
+      <c r="AW61" s="35"/>
+      <c r="AX61" s="35"/>
+      <c r="AY61" s="36"/>
+      <c r="AZ61" s="34"/>
+      <c r="BA61" s="35"/>
+      <c r="BB61" s="35"/>
+      <c r="BC61" s="35"/>
+      <c r="BD61" s="35"/>
+      <c r="BE61" s="35"/>
+      <c r="BF61" s="35"/>
+      <c r="BG61" s="35"/>
+      <c r="BH61" s="35"/>
+      <c r="BI61" s="36"/>
+      <c r="BJ61" s="34"/>
+      <c r="BK61" s="35"/>
+      <c r="BL61" s="35"/>
+      <c r="BM61" s="35"/>
+      <c r="BN61" s="35"/>
+      <c r="BO61" s="35"/>
+      <c r="BP61" s="35"/>
+      <c r="BQ61" s="35"/>
+      <c r="BR61" s="35"/>
+      <c r="BS61" s="36"/>
+      <c r="BT61" s="35"/>
+      <c r="BU61" s="35"/>
+      <c r="BV61" s="35"/>
+      <c r="BW61" s="35"/>
+      <c r="BX61" s="35"/>
+      <c r="BY61" s="35"/>
+      <c r="BZ61" s="77"/>
+      <c r="CA61" s="78"/>
+    </row>
+    <row r="62" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="V62" s="37"/>
+      <c r="W62" s="38"/>
+      <c r="X62" s="38"/>
+      <c r="Y62" s="38"/>
+      <c r="Z62" s="38"/>
+      <c r="AA62" s="38"/>
+      <c r="AB62" s="38"/>
+      <c r="AC62" s="38"/>
+      <c r="AD62" s="38"/>
+      <c r="AE62" s="39"/>
+      <c r="AF62" s="37"/>
+      <c r="AG62" s="38"/>
+      <c r="AH62" s="38"/>
+      <c r="AI62" s="38"/>
+      <c r="AJ62" s="38"/>
+      <c r="AK62" s="38"/>
+      <c r="AL62" s="38"/>
+      <c r="AM62" s="38"/>
+      <c r="AN62" s="38"/>
+      <c r="AO62" s="39"/>
+      <c r="AP62" s="37"/>
+      <c r="AQ62" s="38"/>
+      <c r="AR62" s="38"/>
+      <c r="AS62" s="38"/>
+      <c r="AT62" s="38"/>
+      <c r="AU62" s="38"/>
+      <c r="AV62" s="38"/>
+      <c r="AW62" s="38"/>
+      <c r="AX62" s="38"/>
+      <c r="AY62" s="39"/>
+      <c r="AZ62" s="37"/>
+      <c r="BA62" s="38"/>
+      <c r="BB62" s="38"/>
+      <c r="BC62" s="38"/>
+      <c r="BD62" s="38"/>
+      <c r="BE62" s="38"/>
+      <c r="BF62" s="38"/>
+      <c r="BG62" s="38"/>
+      <c r="BH62" s="38"/>
+      <c r="BI62" s="39"/>
+      <c r="BJ62" s="37"/>
+      <c r="BK62" s="38"/>
+      <c r="BL62" s="38"/>
+      <c r="BM62" s="38"/>
+      <c r="BN62" s="38"/>
+      <c r="BO62" s="38"/>
+      <c r="BP62" s="38"/>
+      <c r="BQ62" s="38"/>
+      <c r="BR62" s="38"/>
+      <c r="BS62" s="39"/>
+      <c r="BT62" s="38"/>
+      <c r="BU62" s="38"/>
+      <c r="BV62" s="38"/>
+      <c r="BW62" s="38"/>
+      <c r="BX62" s="38"/>
+      <c r="BY62" s="38"/>
+      <c r="BZ62" s="73"/>
+      <c r="CA62" s="74"/>
+    </row>
+    <row r="63" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="V63" s="40"/>
+      <c r="W63" s="41"/>
+      <c r="X63" s="41"/>
+      <c r="Y63" s="41"/>
+      <c r="Z63" s="41"/>
+      <c r="AA63" s="41"/>
+      <c r="AB63" s="41"/>
+      <c r="AC63" s="41"/>
+      <c r="AD63" s="41"/>
+      <c r="AE63" s="42"/>
+      <c r="AF63" s="40"/>
+      <c r="AG63" s="41"/>
+      <c r="AH63" s="41"/>
+      <c r="AI63" s="41"/>
+      <c r="AJ63" s="41"/>
+      <c r="AK63" s="41"/>
+      <c r="AL63" s="41"/>
+      <c r="AM63" s="41"/>
+      <c r="AN63" s="41"/>
+      <c r="AO63" s="42"/>
+      <c r="AP63" s="40"/>
+      <c r="AQ63" s="41"/>
+      <c r="AR63" s="41"/>
+      <c r="AS63" s="41"/>
+      <c r="AT63" s="41"/>
+      <c r="AU63" s="41"/>
+      <c r="AV63" s="41"/>
+      <c r="AW63" s="41"/>
+      <c r="AX63" s="41"/>
+      <c r="AY63" s="42"/>
+      <c r="AZ63" s="40"/>
+      <c r="BA63" s="41"/>
+      <c r="BB63" s="41"/>
+      <c r="BC63" s="41"/>
+      <c r="BD63" s="41"/>
+      <c r="BE63" s="41"/>
+      <c r="BF63" s="41"/>
+      <c r="BG63" s="41"/>
+      <c r="BH63" s="41"/>
+      <c r="BI63" s="42"/>
+      <c r="BJ63" s="40"/>
+      <c r="BK63" s="41"/>
+      <c r="BL63" s="41"/>
+      <c r="BM63" s="41"/>
+      <c r="BN63" s="41"/>
+      <c r="BO63" s="41"/>
+      <c r="BP63" s="41"/>
+      <c r="BQ63" s="41"/>
+      <c r="BR63" s="41"/>
+      <c r="BS63" s="42"/>
+      <c r="BT63" s="41"/>
+      <c r="BU63" s="41"/>
+      <c r="BV63" s="41"/>
+      <c r="BW63" s="41"/>
+      <c r="BX63" s="41"/>
+      <c r="BY63" s="41"/>
+      <c r="BZ63" s="67"/>
+      <c r="CA63" s="68"/>
+    </row>
+    <row r="64" spans="1:80" ht="9.9499999999999993" customHeight="1">
+      <c r="V64" s="85"/>
+      <c r="W64" s="86"/>
+      <c r="X64" s="86"/>
+      <c r="Y64" s="86"/>
+      <c r="Z64" s="86"/>
+      <c r="AA64" s="86"/>
+      <c r="AB64" s="86"/>
+      <c r="AC64" s="86"/>
+      <c r="AD64" s="86"/>
+      <c r="AE64" s="87"/>
+      <c r="AF64" s="85"/>
+      <c r="AG64" s="86"/>
+      <c r="AH64" s="86"/>
+      <c r="AI64" s="86"/>
+      <c r="AJ64" s="86"/>
+      <c r="AK64" s="86"/>
+      <c r="AL64" s="86"/>
+      <c r="AM64" s="86"/>
+      <c r="AN64" s="86"/>
+      <c r="AO64" s="87"/>
+      <c r="AP64" s="85"/>
+      <c r="AQ64" s="86"/>
+      <c r="AR64" s="86"/>
+      <c r="AS64" s="86"/>
+      <c r="AT64" s="86"/>
+      <c r="AU64" s="86"/>
+      <c r="AV64" s="86"/>
+      <c r="AW64" s="86"/>
+      <c r="AX64" s="86"/>
+      <c r="AY64" s="87"/>
+      <c r="AZ64" s="85"/>
+      <c r="BA64" s="86"/>
+      <c r="BB64" s="86"/>
+      <c r="BC64" s="86"/>
+      <c r="BD64" s="86"/>
+      <c r="BE64" s="86"/>
+      <c r="BF64" s="86"/>
+      <c r="BG64" s="86"/>
+      <c r="BH64" s="86"/>
+      <c r="BI64" s="87"/>
+      <c r="BJ64" s="85"/>
+      <c r="BK64" s="86"/>
+      <c r="BL64" s="86"/>
+      <c r="BM64" s="86"/>
+      <c r="BN64" s="86"/>
+      <c r="BO64" s="86"/>
+      <c r="BP64" s="86"/>
+      <c r="BQ64" s="86"/>
+      <c r="BR64" s="86"/>
+      <c r="BS64" s="87"/>
+      <c r="BT64" s="86"/>
+      <c r="BU64" s="86"/>
+      <c r="BV64" s="86"/>
+      <c r="BW64" s="86"/>
+      <c r="BX64" s="86"/>
+      <c r="BY64" s="87"/>
+      <c r="BZ64" s="69"/>
+      <c r="CA64" s="70"/>
+    </row>
+    <row r="65" spans="22:79" ht="9.9499999999999993" customHeight="1">
+      <c r="V65" s="82"/>
+      <c r="W65" s="83"/>
+      <c r="X65" s="81"/>
+      <c r="Y65" s="81"/>
+      <c r="Z65" s="81"/>
+      <c r="AA65" s="81"/>
+      <c r="AB65" s="81"/>
+      <c r="AC65" s="81"/>
+      <c r="AD65" s="81"/>
+      <c r="AE65" s="81"/>
+      <c r="AF65" s="81"/>
+      <c r="AG65" s="81"/>
+      <c r="AH65" s="81"/>
+      <c r="AI65" s="81"/>
+      <c r="AJ65" s="81"/>
+      <c r="AK65" s="81"/>
+      <c r="AL65" s="81"/>
+      <c r="AM65" s="81"/>
+      <c r="AN65" s="81"/>
+      <c r="AO65" s="81"/>
+      <c r="AP65" s="81"/>
+      <c r="AQ65" s="81"/>
+      <c r="AR65" s="81"/>
+      <c r="AS65" s="81"/>
+      <c r="AT65" s="81"/>
+      <c r="AU65" s="81"/>
+      <c r="AV65" s="81"/>
+      <c r="AW65" s="81"/>
+      <c r="AX65" s="81"/>
+      <c r="AY65" s="81"/>
+      <c r="AZ65" s="81"/>
+      <c r="BA65" s="81"/>
+      <c r="BB65" s="81"/>
+      <c r="BC65" s="81"/>
+      <c r="BD65" s="81"/>
+      <c r="BE65" s="81"/>
+      <c r="BF65" s="81"/>
+      <c r="BG65" s="81"/>
+      <c r="BH65" s="81"/>
+      <c r="BI65" s="81"/>
+      <c r="BJ65" s="81"/>
+      <c r="BK65" s="81"/>
+      <c r="BL65" s="81"/>
+      <c r="BM65" s="81"/>
+      <c r="BN65" s="81"/>
+      <c r="BO65" s="81"/>
+      <c r="BP65" s="81"/>
+      <c r="BQ65" s="81"/>
+      <c r="BR65" s="81"/>
+      <c r="BS65" s="81"/>
+      <c r="BT65" s="81"/>
+      <c r="BU65" s="76"/>
+      <c r="BV65" s="72"/>
+      <c r="BW65" s="72"/>
+      <c r="BX65" s="82"/>
+      <c r="BY65" s="83"/>
+      <c r="BZ65" s="38"/>
+      <c r="CA65" s="38"/>
+    </row>
+    <row r="66" spans="22:79" ht="9.9499999999999993" customHeight="1">
+      <c r="V66" s="69"/>
+      <c r="W66" s="70"/>
+      <c r="X66" s="80"/>
+      <c r="Y66" s="80"/>
+      <c r="Z66" s="80"/>
+      <c r="AA66" s="80"/>
+      <c r="AB66" s="80"/>
+      <c r="AC66" s="80"/>
+      <c r="AD66" s="80"/>
+      <c r="AE66" s="80"/>
+      <c r="AF66" s="80"/>
+      <c r="AG66" s="80"/>
+      <c r="AH66" s="80"/>
+      <c r="AI66" s="80"/>
+      <c r="AJ66" s="80"/>
+      <c r="AK66" s="80"/>
+      <c r="AL66" s="80"/>
+      <c r="AM66" s="80"/>
+      <c r="AN66" s="80"/>
+      <c r="AO66" s="80"/>
+      <c r="AP66" s="80"/>
+      <c r="AQ66" s="80"/>
+      <c r="AR66" s="80"/>
+      <c r="AS66" s="80"/>
+      <c r="AT66" s="80"/>
+      <c r="AU66" s="80"/>
+      <c r="AV66" s="80"/>
+      <c r="AW66" s="80"/>
+      <c r="AX66" s="80"/>
+      <c r="AY66" s="80"/>
+      <c r="AZ66" s="80"/>
+      <c r="BA66" s="80"/>
+      <c r="BB66" s="80"/>
+      <c r="BC66" s="80"/>
+      <c r="BD66" s="80"/>
+      <c r="BE66" s="80"/>
+      <c r="BF66" s="80"/>
+      <c r="BG66" s="80"/>
+      <c r="BH66" s="80"/>
+      <c r="BI66" s="80"/>
+      <c r="BJ66" s="80"/>
+      <c r="BK66" s="80"/>
+      <c r="BL66" s="80"/>
+      <c r="BM66" s="80"/>
+      <c r="BN66" s="80"/>
+      <c r="BO66" s="80"/>
+      <c r="BP66" s="80"/>
+      <c r="BQ66" s="80"/>
+      <c r="BR66" s="80"/>
+      <c r="BS66" s="80"/>
+      <c r="BT66" s="80"/>
+      <c r="BU66" s="78"/>
+      <c r="BV66" s="71"/>
+      <c r="BW66" s="71"/>
+      <c r="BX66" s="69"/>
+      <c r="BY66" s="70"/>
+      <c r="BZ66" s="38"/>
+      <c r="CA66" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="X3:BZ5"/>
-    <mergeCell ref="BG9:BZ11"/>
-    <mergeCell ref="C3:V5"/>
-    <mergeCell ref="C9:L11"/>
-    <mergeCell ref="M9:V11"/>
-    <mergeCell ref="W9:AK11"/>
-    <mergeCell ref="AL9:AN11"/>
-    <mergeCell ref="AO9:AQ11"/>
-    <mergeCell ref="AR9:BF11"/>
+  <mergeCells count="27">
+    <mergeCell ref="BD11:CA12"/>
+    <mergeCell ref="V11:W12"/>
+    <mergeCell ref="X11:AE12"/>
+    <mergeCell ref="AP11:AQ12"/>
+    <mergeCell ref="AR11:AS12"/>
+    <mergeCell ref="BB11:BC12"/>
+    <mergeCell ref="BB5:BC6"/>
+    <mergeCell ref="BD5:CA6"/>
+    <mergeCell ref="V8:W9"/>
+    <mergeCell ref="X3:AE4"/>
+    <mergeCell ref="X8:AE9"/>
+    <mergeCell ref="AP8:AQ9"/>
+    <mergeCell ref="AR8:AS9"/>
+    <mergeCell ref="BB8:BC9"/>
+    <mergeCell ref="BD8:CA9"/>
+    <mergeCell ref="BZ28:CA29"/>
+    <mergeCell ref="BZ38:CA39"/>
+    <mergeCell ref="V40:W41"/>
+    <mergeCell ref="BX40:BY41"/>
+    <mergeCell ref="BX65:BY66"/>
+    <mergeCell ref="BZ63:CA64"/>
+    <mergeCell ref="BZ53:CA54"/>
+    <mergeCell ref="V65:W66"/>
+    <mergeCell ref="AP3:AQ4"/>
+    <mergeCell ref="AR3:AS4"/>
+    <mergeCell ref="BD3:CA4"/>
+    <mergeCell ref="AP5:AS6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10337,12 +11912,12 @@
     <row r="19" spans="1:21">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -10362,10 +11937,10 @@
     <row r="20" spans="1:21">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="48"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
